--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="541">
   <si>
     <t>A0039</t>
   </si>
@@ -220,21 +220,12 @@
     <t>Polikarkov I-153 (F)</t>
   </si>
   <si>
-    <t>ЛаГГ-3</t>
-  </si>
-  <si>
-    <t>МиГ-3</t>
-  </si>
-  <si>
     <t>И-153</t>
   </si>
   <si>
     <t>ДБ-3Б</t>
   </si>
   <si>
-    <t>ДБ-3Ф / Ил-4</t>
-  </si>
-  <si>
     <t>Пе-2</t>
   </si>
   <si>
@@ -697,9 +688,6 @@
     <t>A0374</t>
   </si>
   <si>
-    <t>C-47</t>
-  </si>
-  <si>
     <t>Actual shot of a C-47 in Soviet service, not an Li-2! Note the lack of a turret (unlike the Li-2) and US serial numbers</t>
   </si>
   <si>
@@ -712,9 +700,6 @@
     <t>ТБ-3 Г-2. Note the CCCP lettering (as it is a civilian Aeroflot conversion pressed into service)</t>
   </si>
   <si>
-    <t>Поликарпов У-2</t>
-  </si>
-  <si>
     <t>A0199</t>
   </si>
   <si>
@@ -1511,6 +1496,147 @@
   </si>
   <si>
     <t>Caproni Ca.310  (H)</t>
+  </si>
+  <si>
+    <t>A0311</t>
+  </si>
+  <si>
+    <t>Sukhoi Su-2</t>
+  </si>
+  <si>
+    <t>Сухой Су-2</t>
+  </si>
+  <si>
+    <t>A0348</t>
+  </si>
+  <si>
+    <t>Lisunov Li-2VV</t>
+  </si>
+  <si>
+    <t>Ли-2ВВ. Note the bombs under the aircraft</t>
+  </si>
+  <si>
+    <t>A0350</t>
+  </si>
+  <si>
+    <t>Douglas A-20B (Sov)</t>
+  </si>
+  <si>
+    <t>C-47 (Sov)</t>
+  </si>
+  <si>
+    <t>A0351</t>
+  </si>
+  <si>
+    <t>Douglas A-20G (Sov)</t>
+  </si>
+  <si>
+    <t>A0344</t>
+  </si>
+  <si>
+    <t>Petlyakov Pe-8</t>
+  </si>
+  <si>
+    <t>Петляко́в Пе-8</t>
+  </si>
+  <si>
+    <t>A0295</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-2</t>
+  </si>
+  <si>
+    <t>Як-2</t>
+  </si>
+  <si>
+    <t>A0332</t>
+  </si>
+  <si>
+    <t>Пе-3</t>
+  </si>
+  <si>
+    <t>Petlyakov Pe-3</t>
+  </si>
+  <si>
+    <t>A0327</t>
+  </si>
+  <si>
+    <t>Поликарпов У-2СП</t>
+  </si>
+  <si>
+    <t>Polikarpov U-2 transport (U-2br)</t>
+  </si>
+  <si>
+    <t>A0297</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-6</t>
+  </si>
+  <si>
+    <t>Як-6</t>
+  </si>
+  <si>
+    <t>A0341</t>
+  </si>
+  <si>
+    <t>ТБ-3</t>
+  </si>
+  <si>
+    <t>Tupolev TB3</t>
+  </si>
+  <si>
+    <t>ЛаГГ-3. Image A0299 is also used for LAGG-3 11 series</t>
+  </si>
+  <si>
+    <t>A0331</t>
+  </si>
+  <si>
+    <t>Petlyakov Pe-2R</t>
+  </si>
+  <si>
+    <t>Пе-2Р. Same image A0331 is used for PE-2R 1943</t>
+  </si>
+  <si>
+    <t>A0309</t>
+  </si>
+  <si>
+    <t>Neman R-10</t>
+  </si>
+  <si>
+    <t>Неман Р-10</t>
+  </si>
+  <si>
+    <t>A0307</t>
+  </si>
+  <si>
+    <t>Polikarpov R-5</t>
+  </si>
+  <si>
+    <t>Поликарпов Р-5</t>
+  </si>
+  <si>
+    <t>ДБ-3Ф / Ил-4. Same image A0339 used for IL-4 1943</t>
+  </si>
+  <si>
+    <t>A0287</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-9</t>
+  </si>
+  <si>
+    <t>Як-9</t>
+  </si>
+  <si>
+    <t>A0288</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-9D</t>
+  </si>
+  <si>
+    <t>Як-9Д</t>
+  </si>
+  <si>
+    <t>МиГ-3. Image A0281 is also used for MIG 1943</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1602,6 +1728,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1906,13 +2033,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B198" sqref="B198"/>
+      <selection pane="bottomRight" activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,293 +2062,293 @@
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -2239,172 +2366,172 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -2413,25 +2540,25 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
     </row>
@@ -2446,22 +2573,22 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C62" s="2"/>
     </row>
@@ -2476,21 +2603,21 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C65" s="2"/>
     </row>
@@ -2505,22 +2632,22 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,327 +2661,327 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B86" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B88" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B89" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B91" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B92" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B93" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B97" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B98" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B99" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B100" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B101" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C102" s="2"/>
     </row>
@@ -2863,54 +2990,54 @@
     </row>
     <row r="104" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C109" s="2"/>
     </row>
@@ -2925,10 +3052,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C111" s="2"/>
     </row>
@@ -2946,7 +3073,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C113" s="2"/>
     </row>
@@ -2955,7 +3082,7 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C114" s="2"/>
     </row>
@@ -2988,10 +3115,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3005,10 +3132,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C120" s="2"/>
     </row>
@@ -3059,10 +3186,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C126" s="2"/>
     </row>
@@ -3077,10 +3204,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C128" s="2"/>
     </row>
@@ -3089,208 +3216,208 @@
     </row>
     <row r="130" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B133" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B134" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B135" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B136" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B138" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B141" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B143" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B146" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B147" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B148" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B149" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B150" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C152" s="2"/>
     </row>
@@ -3299,54 +3426,54 @@
     </row>
     <row r="154" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B155" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B156" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B157" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B158" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3360,246 +3487,246 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B161" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B165" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C165" s="2"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B166" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B167" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B169" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B170" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B172" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B175" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C175" s="2"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C177" s="2"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C178" s="2"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B182" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C182" s="2"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B183" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B184" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C184" s="2"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B185" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B186" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B187" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C187" s="2"/>
     </row>
@@ -3608,207 +3735,207 @@
     </row>
     <row r="189" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B196" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B197" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C197" s="2"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B198" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B199" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C199" s="2"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C200" s="2"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C201" s="2"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C202" s="2"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B203" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C203" s="2"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B206" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B208" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C208" s="2"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C210" s="2"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C211" s="2"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>205</v>
+      </c>
+      <c r="B212" t="s">
         <v>208</v>
-      </c>
-      <c r="B212" t="s">
-        <v>211</v>
       </c>
       <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C213" s="2"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B214" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C214" s="2"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B215" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B216" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C216" s="2"/>
     </row>
@@ -3817,101 +3944,101 @@
     </row>
     <row r="218" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B219" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B220" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C220" s="2"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B221" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C221" s="2"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B222" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B223" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C223" s="2"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B224" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B225" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C225" s="2"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B226" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C226" s="2"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B227" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C227" s="2"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B228" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C228" s="2"/>
     </row>
@@ -3920,10 +4047,10 @@
     </row>
     <row r="230" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3934,29 +4061,29 @@
         <v>39</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B232" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B233" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3994,10 +4121,10 @@
     </row>
     <row r="237" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>61</v>
@@ -4010,110 +4137,269 @@
       <c r="B238" t="s">
         <v>43</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>69</v>
+      <c r="C238" s="11" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>44</v>
+        <v>534</v>
       </c>
       <c r="B239" t="s">
-        <v>45</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>68</v>
+        <v>535</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>46</v>
+        <v>537</v>
       </c>
       <c r="B240" t="s">
-        <v>47</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>76</v>
+        <v>538</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>48</v>
+        <v>508</v>
       </c>
       <c r="B241" t="s">
-        <v>58</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>59</v>
+        <v>509</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>49</v>
+        <v>517</v>
       </c>
       <c r="B242" t="s">
-        <v>50</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>73</v>
+        <v>518</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B243" t="s">
-        <v>74</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="B244" t="s">
-        <v>75</v>
-      </c>
-      <c r="C244" t="s">
-        <v>72</v>
+        <v>531</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>229</v>
+        <v>527</v>
       </c>
       <c r="B245" t="s">
-        <v>230</v>
+        <v>528</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>231</v>
+        <v>529</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>225</v>
+        <v>494</v>
       </c>
       <c r="B246" t="s">
-        <v>224</v>
+        <v>495</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>46</v>
+      </c>
+      <c r="B247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>48</v>
+      </c>
+      <c r="B248" t="s">
+        <v>58</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>514</v>
+      </c>
+      <c r="B249" t="s">
+        <v>516</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>49</v>
+      </c>
+      <c r="B250" t="s">
+        <v>50</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>524</v>
+      </c>
+      <c r="B251" t="s">
+        <v>525</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>511</v>
+      </c>
+      <c r="B252" t="s">
+        <v>513</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>51</v>
+      </c>
+      <c r="B253" t="s">
+        <v>71</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>52</v>
+      </c>
+      <c r="B254" t="s">
+        <v>72</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>520</v>
+      </c>
+      <c r="B255" t="s">
+        <v>522</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>225</v>
+      </c>
+      <c r="B256" t="s">
         <v>226</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C256" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C249" s="2" t="s">
-        <v>232</v>
-      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>505</v>
+      </c>
+      <c r="B257" t="s">
+        <v>506</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>222</v>
+      </c>
+      <c r="B258" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>497</v>
+      </c>
+      <c r="B259" t="s">
+        <v>498</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>500</v>
+      </c>
+      <c r="B260" t="s">
+        <v>501</v>
+      </c>
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>503</v>
+      </c>
+      <c r="B261" t="s">
+        <v>504</v>
+      </c>
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>223</v>
+      </c>
+      <c r="B262" t="s">
+        <v>502</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="558">
   <si>
     <t>A0039</t>
   </si>
@@ -1435,9 +1435,6 @@
     <t>Heinkel He-111-H6 (Rom)</t>
   </si>
   <si>
-    <t>Same image used for IAR 39 Recon</t>
-  </si>
-  <si>
     <t>Fiat CR.32bis</t>
   </si>
   <si>
@@ -1585,18 +1582,12 @@
     <t>Tupolev TB3</t>
   </si>
   <si>
-    <t>ЛаГГ-3. Image A0299 is also used for LAGG-3 11 series</t>
-  </si>
-  <si>
     <t>A0331</t>
   </si>
   <si>
     <t>Petlyakov Pe-2R</t>
   </si>
   <si>
-    <t>Пе-2Р. Same image A0331 is used for PE-2R 1943</t>
-  </si>
-  <si>
     <t>A0309</t>
   </si>
   <si>
@@ -1615,9 +1606,6 @@
     <t>Поликарпов Р-5</t>
   </si>
   <si>
-    <t>ДБ-3Ф / Ил-4. Same image A0339 used for IL-4 1943</t>
-  </si>
-  <si>
     <t>A0287</t>
   </si>
   <si>
@@ -1636,7 +1624,70 @@
     <t>Як-9Д</t>
   </si>
   <si>
-    <t>МиГ-3. Image A0281 is also used for MIG 1943</t>
+    <t>Same image used for IAR 39 Recon (patch 1.08.08)</t>
+  </si>
+  <si>
+    <t>МиГ-3. Image A0281 is also used for MIG 1943 (patch 1.08.08)</t>
+  </si>
+  <si>
+    <t>ЛаГГ-3. Image A0299 is also used for LAGG-3 11 series (patch 1.08.08)</t>
+  </si>
+  <si>
+    <t>Пе-2Р. Same image A0331 is used for PE-2R 1943 (patch 1.08.08)</t>
+  </si>
+  <si>
+    <t>ДБ-3Ф / Ил-4. Same image A0339 used for IL-4 1943 (patch 1.08.08)</t>
+  </si>
+  <si>
+    <t>Junkers Ju 88D-1 (H, recon)</t>
+  </si>
+  <si>
+    <t>Image is of an unidentified Ju 88D-1.  The alternative was an image of the tail of a real Hungarian one - which didn't fit the bill imho</t>
+  </si>
+  <si>
+    <t>A0308</t>
+  </si>
+  <si>
+    <t>Polikarpov R-Z</t>
+  </si>
+  <si>
+    <t>Поликарпов Р-Z</t>
+  </si>
+  <si>
+    <t>A0364</t>
+  </si>
+  <si>
+    <t>Curtiss P-40B (Sov)</t>
+  </si>
+  <si>
+    <t>A0365</t>
+  </si>
+  <si>
+    <t>Curtiss P-40E (Sov)</t>
+  </si>
+  <si>
+    <t>A0366</t>
+  </si>
+  <si>
+    <t>Curtiss P-40K (Sov)</t>
+  </si>
+  <si>
+    <t>Confirmed K-model</t>
+  </si>
+  <si>
+    <t>Confirmed E-model</t>
+  </si>
+  <si>
+    <t>Confirmed B-model</t>
+  </si>
+  <si>
+    <t>A0336</t>
+  </si>
+  <si>
+    <t>Yermolayev Yer-2 1943</t>
+  </si>
+  <si>
+    <t>Ермолаев Ер-2</t>
   </si>
 </sst>
 </file>
@@ -1683,18 +1734,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1715,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1723,12 +1768,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2033,13 +2076,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B233" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C261" sqref="C261"/>
+      <selection pane="bottomRight" activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,11 +2313,11 @@
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>483</v>
+      <c r="C24" s="10" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2401,7 +2444,7 @@
       <c r="B39" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>433</v>
       </c>
     </row>
@@ -2549,7 +2592,7 @@
         <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -2609,7 +2652,7 @@
         <v>462</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2647,7 +2690,7 @@
         <v>395</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2663,7 +2706,7 @@
       <c r="A70" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>403</v>
       </c>
       <c r="C70" s="2"/>
@@ -2783,7 +2826,7 @@
         <v>466</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,7 +2868,7 @@
         <v>471</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2896,7 +2939,7 @@
         <v>468</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2907,18 +2950,18 @@
         <v>460</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>444</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>484</v>
+      <c r="C96" s="10" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3271,7 +3314,7 @@
         <v>312</v>
       </c>
       <c r="B136" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C136" s="2"/>
     </row>
@@ -3571,8 +3614,8 @@
       <c r="B170" t="s">
         <v>282</v>
       </c>
-      <c r="C170" s="11" t="s">
-        <v>473</v>
+      <c r="C170" s="10" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3628,7 +3671,7 @@
         <v>382</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3785,7 +3828,7 @@
         <v>353</v>
       </c>
       <c r="B197" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C197" s="2"/>
     </row>
@@ -3794,7 +3837,7 @@
         <v>354</v>
       </c>
       <c r="B198" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C198" s="2"/>
     </row>
@@ -3803,7 +3846,7 @@
         <v>355</v>
       </c>
       <c r="B199" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C199" s="2"/>
     </row>
@@ -3833,7 +3876,7 @@
         <v>358</v>
       </c>
       <c r="B203" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C203" s="2"/>
     </row>
@@ -3841,8 +3884,8 @@
       <c r="A204" t="s">
         <v>359</v>
       </c>
-      <c r="B204" s="7" t="s">
-        <v>475</v>
+      <c r="B204" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="C204" s="2"/>
     </row>
@@ -3857,7 +3900,7 @@
         <v>361</v>
       </c>
       <c r="B206" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C206" s="2"/>
     </row>
@@ -3872,7 +3915,7 @@
         <v>363</v>
       </c>
       <c r="B208" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C208" s="2"/>
     </row>
@@ -3880,7 +3923,12 @@
       <c r="A209" t="s">
         <v>364</v>
       </c>
-      <c r="C209" s="2"/>
+      <c r="B209" t="s">
+        <v>541</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -3917,7 +3965,7 @@
         <v>367</v>
       </c>
       <c r="B214" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C214" s="2"/>
     </row>
@@ -3926,7 +3974,7 @@
         <v>368</v>
       </c>
       <c r="B215" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C215" s="2"/>
     </row>
@@ -4137,52 +4185,52 @@
       <c r="B238" t="s">
         <v>43</v>
       </c>
-      <c r="C238" s="11" t="s">
-        <v>540</v>
+      <c r="C238" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B239" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B240" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>507</v>
+      </c>
+      <c r="B241" t="s">
         <v>508</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>516</v>
+      </c>
+      <c r="B242" t="s">
         <v>517</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4192,214 +4240,269 @@
       <c r="B243" t="s">
         <v>45</v>
       </c>
-      <c r="C243" s="11" t="s">
-        <v>523</v>
+      <c r="C243" s="10" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B244" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="B245" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="B246" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>46</v>
+        <v>493</v>
       </c>
       <c r="B247" t="s">
-        <v>47</v>
+        <v>494</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>73</v>
+        <v>495</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B248" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>514</v>
+        <v>48</v>
       </c>
       <c r="B249" t="s">
-        <v>516</v>
+        <v>58</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>515</v>
+        <v>59</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>49</v>
+        <v>513</v>
       </c>
       <c r="B250" t="s">
-        <v>50</v>
+        <v>515</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>70</v>
+        <v>514</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>524</v>
+        <v>49</v>
       </c>
       <c r="B251" t="s">
-        <v>525</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>526</v>
+        <v>50</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="B252" t="s">
-        <v>513</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>512</v>
+        <v>523</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>51</v>
+        <v>510</v>
       </c>
       <c r="B253" t="s">
-        <v>71</v>
+        <v>512</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>69</v>
+        <v>511</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>52</v>
+        <v>555</v>
       </c>
       <c r="B254" t="s">
-        <v>72</v>
-      </c>
-      <c r="C254" s="12" t="s">
-        <v>533</v>
+        <v>556</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>520</v>
+        <v>51</v>
       </c>
       <c r="B255" t="s">
-        <v>522</v>
+        <v>71</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>521</v>
+        <v>69</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="B256" t="s">
-        <v>226</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>227</v>
+        <v>72</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B257" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B258" t="s">
-        <v>221</v>
+        <v>226</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B259" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="B260" t="s">
-        <v>501</v>
-      </c>
-      <c r="C260" s="2"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B261" t="s">
-        <v>504</v>
-      </c>
-      <c r="C261" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>499</v>
+      </c>
+      <c r="B262" t="s">
+        <v>500</v>
+      </c>
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>502</v>
+      </c>
+      <c r="B263" t="s">
+        <v>503</v>
+      </c>
+      <c r="C263" s="2"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>546</v>
+      </c>
+      <c r="B264" t="s">
+        <v>547</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>548</v>
+      </c>
+      <c r="B265" t="s">
+        <v>549</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>550</v>
+      </c>
+      <c r="B266" t="s">
+        <v>551</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>223</v>
       </c>
-      <c r="B262" t="s">
-        <v>502</v>
-      </c>
-      <c r="C262" s="2" t="s">
+      <c r="B267" t="s">
+        <v>501</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C264" s="2"/>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="566">
   <si>
     <t>A0039</t>
   </si>
@@ -1688,6 +1688,30 @@
   </si>
   <si>
     <t>Ермолаев Ер-2</t>
+  </si>
+  <si>
+    <t>A0335</t>
+  </si>
+  <si>
+    <t>Yermolayev Yer-2</t>
+  </si>
+  <si>
+    <t>Messerschmitt Me 109 G-6 (H)</t>
+  </si>
+  <si>
+    <t>Messerschmitt Me 109 G-14/U4 (H)</t>
+  </si>
+  <si>
+    <t>Messerschmitt Me 109 G-2 (H)</t>
+  </si>
+  <si>
+    <t>Replacement image for Vanilla added</t>
+  </si>
+  <si>
+    <t>Placeholder</t>
+  </si>
+  <si>
+    <t>Ju-52</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1772,6 +1796,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2076,13 +2101,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C269"/>
+  <dimension ref="A1:C270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B233" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C255" sqref="C255"/>
+      <selection pane="bottomRight" activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3515,6 +3540,9 @@
       <c r="A159" t="s">
         <v>374</v>
       </c>
+      <c r="B159" s="5" t="s">
+        <v>564</v>
+      </c>
       <c r="C159" s="2" t="s">
         <v>375</v>
       </c>
@@ -3793,21 +3821,36 @@
       <c r="A191" s="4" t="s">
         <v>348</v>
       </c>
+      <c r="B191" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="B192" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>350</v>
       </c>
+      <c r="B193" s="3" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>351</v>
       </c>
+      <c r="B194" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
@@ -3893,7 +3936,12 @@
       <c r="A205" t="s">
         <v>360</v>
       </c>
-      <c r="C205" s="2"/>
+      <c r="B205" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -4356,10 +4404,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B254" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>557</v>
@@ -4367,142 +4415,153 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>51</v>
+        <v>555</v>
       </c>
       <c r="B255" t="s">
-        <v>71</v>
+        <v>556</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>69</v>
+        <v>557</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B256" t="s">
-        <v>72</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>540</v>
+        <v>71</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>519</v>
+        <v>52</v>
       </c>
       <c r="B257" t="s">
-        <v>521</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>520</v>
+        <v>72</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>225</v>
+        <v>519</v>
       </c>
       <c r="B258" t="s">
-        <v>226</v>
+        <v>521</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>227</v>
+        <v>520</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>504</v>
+        <v>225</v>
       </c>
       <c r="B259" t="s">
-        <v>505</v>
+        <v>226</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>506</v>
+        <v>227</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>222</v>
+        <v>504</v>
       </c>
       <c r="B260" t="s">
-        <v>221</v>
+        <v>505</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>496</v>
+        <v>222</v>
       </c>
       <c r="B261" t="s">
-        <v>497</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>498</v>
+        <v>221</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B262" t="s">
-        <v>500</v>
-      </c>
-      <c r="C262" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B263" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C263" s="2"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="B264" t="s">
-        <v>547</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>554</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B265" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B266" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>550</v>
+      </c>
+      <c r="B267" t="s">
+        <v>551</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>223</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>501</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C269" s="2"/>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="581">
   <si>
     <t>A0039</t>
   </si>
@@ -1705,13 +1705,58 @@
     <t>Messerschmitt Me 109 G-2 (H)</t>
   </si>
   <si>
-    <t>Replacement image for Vanilla added</t>
-  </si>
-  <si>
     <t>Placeholder</t>
   </si>
   <si>
-    <t>Ju-52</t>
+    <t>Ju-52 (H)</t>
+  </si>
+  <si>
+    <t>Replacement image for Vanilla added - BF-109 (H)</t>
+  </si>
+  <si>
+    <t>He-111(H) - same source image as Vanilla</t>
+  </si>
+  <si>
+    <t>ju-87</t>
+  </si>
+  <si>
+    <t>Ju-88?</t>
+  </si>
+  <si>
+    <t>Me-109</t>
+  </si>
+  <si>
+    <t>A0285</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-7A</t>
+  </si>
+  <si>
+    <t>Як-7A</t>
+  </si>
+  <si>
+    <t>A0286</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-7B</t>
+  </si>
+  <si>
+    <t>Як-7Б</t>
+  </si>
+  <si>
+    <t>A0291</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-9T</t>
+  </si>
+  <si>
+    <t>Як-9T</t>
+  </si>
+  <si>
+    <t>A0359</t>
+  </si>
+  <si>
+    <t>Bell P-39D (Sov)</t>
   </si>
 </sst>
 </file>
@@ -2101,13 +2146,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B215" sqref="B215"/>
+      <selection pane="bottomRight" activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,7 +3586,7 @@
         <v>374</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>375</v>
@@ -3822,10 +3867,10 @@
         <v>348</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3856,6 +3901,9 @@
       <c r="A195" s="4" t="s">
         <v>352</v>
       </c>
+      <c r="C195" s="2" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -3937,10 +3985,10 @@
         <v>360</v>
       </c>
       <c r="B205" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3956,7 +4004,9 @@
       <c r="A207" t="s">
         <v>362</v>
       </c>
-      <c r="C207" s="2"/>
+      <c r="C207" s="2" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -3982,7 +4032,12 @@
       <c r="A210" t="s">
         <v>365</v>
       </c>
-      <c r="C210" s="2"/>
+      <c r="B210" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -4006,7 +4061,9 @@
       <c r="A213" t="s">
         <v>366</v>
       </c>
-      <c r="C213" s="2"/>
+      <c r="C213" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -4239,329 +4296,371 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="B239" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="B240" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B241" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="B242" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>44</v>
+        <v>576</v>
       </c>
       <c r="B243" t="s">
-        <v>45</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>538</v>
+        <v>577</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B244" t="s">
-        <v>528</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>529</v>
+        <v>508</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="B245" t="s">
-        <v>544</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>545</v>
+        <v>517</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>524</v>
+        <v>44</v>
       </c>
       <c r="B246" t="s">
-        <v>525</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>526</v>
+        <v>45</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="B247" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>46</v>
+        <v>543</v>
       </c>
       <c r="B248" t="s">
-        <v>47</v>
+        <v>544</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>73</v>
+        <v>545</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>524</v>
       </c>
       <c r="B249" t="s">
-        <v>58</v>
+        <v>525</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>59</v>
+        <v>526</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="B250" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B251" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>522</v>
+        <v>48</v>
       </c>
       <c r="B252" t="s">
-        <v>523</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>539</v>
+        <v>58</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B253" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>558</v>
+        <v>49</v>
       </c>
       <c r="B254" t="s">
-        <v>559</v>
+        <v>50</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>557</v>
+        <v>70</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="B255" t="s">
-        <v>556</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>557</v>
+        <v>523</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>51</v>
+        <v>510</v>
       </c>
       <c r="B256" t="s">
-        <v>71</v>
+        <v>512</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>69</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>52</v>
+        <v>558</v>
       </c>
       <c r="B257" t="s">
-        <v>72</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>540</v>
+        <v>559</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="B258" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="B259" t="s">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>504</v>
+        <v>52</v>
       </c>
       <c r="B260" t="s">
-        <v>505</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>506</v>
+        <v>72</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>222</v>
+        <v>519</v>
       </c>
       <c r="B261" t="s">
-        <v>221</v>
+        <v>521</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>496</v>
+        <v>225</v>
       </c>
       <c r="B262" t="s">
-        <v>497</v>
+        <v>226</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>498</v>
+        <v>227</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B263" t="s">
-        <v>500</v>
-      </c>
-      <c r="C263" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>502</v>
+        <v>222</v>
       </c>
       <c r="B264" t="s">
-        <v>503</v>
-      </c>
-      <c r="C264" s="2"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="B265" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>554</v>
+        <v>498</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="B266" t="s">
-        <v>549</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>553</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="B267" t="s">
-        <v>551</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>552</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>579</v>
+      </c>
+      <c r="B268" t="s">
+        <v>580</v>
+      </c>
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>546</v>
+      </c>
+      <c r="B269" t="s">
+        <v>547</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>548</v>
+      </c>
+      <c r="B270" t="s">
+        <v>549</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>550</v>
+      </c>
+      <c r="B271" t="s">
+        <v>551</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>223</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B272" t="s">
         <v>501</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C272" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="2"/>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="671">
   <si>
     <t>A0039</t>
   </si>
@@ -1757,6 +1757,276 @@
   </si>
   <si>
     <t>Bell P-39D (Sov)</t>
+  </si>
+  <si>
+    <t>A0372</t>
+  </si>
+  <si>
+    <t>Supermarine Spitfire Vb (Sov)</t>
+  </si>
+  <si>
+    <t>A0362</t>
+  </si>
+  <si>
+    <t>Bell P-63A (Sov)</t>
+  </si>
+  <si>
+    <t>Bell P-39N (Sov)</t>
+  </si>
+  <si>
+    <t>A0361</t>
+  </si>
+  <si>
+    <t>Bell P-39Q (Sov)</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-9M</t>
+  </si>
+  <si>
+    <t>Як-9M</t>
+  </si>
+  <si>
+    <t>A0290</t>
+  </si>
+  <si>
+    <t>A0303</t>
+  </si>
+  <si>
+    <t>Lavochkin La-5</t>
+  </si>
+  <si>
+    <t>Ла-5Ф</t>
+  </si>
+  <si>
+    <t>A0302</t>
+  </si>
+  <si>
+    <t>Lavochkin La-5F</t>
+  </si>
+  <si>
+    <t>Ла-5</t>
+  </si>
+  <si>
+    <t>A0304</t>
+  </si>
+  <si>
+    <t>Lavochkin La-5FN</t>
+  </si>
+  <si>
+    <t>A0305</t>
+  </si>
+  <si>
+    <t>Lavochkin La-7</t>
+  </si>
+  <si>
+    <t>A0317</t>
+  </si>
+  <si>
+    <t>Ilyushin Il-2</t>
+  </si>
+  <si>
+    <t>A0318</t>
+  </si>
+  <si>
+    <t>Ilyushin Il-2M</t>
+  </si>
+  <si>
+    <t>Ilyushin Il-2M3</t>
+  </si>
+  <si>
+    <t>A0319</t>
+  </si>
+  <si>
+    <t>A0320</t>
+  </si>
+  <si>
+    <t>Ilyushin Il-10</t>
+  </si>
+  <si>
+    <t>Polikarpov U-2VS</t>
+  </si>
+  <si>
+    <t>A0369</t>
+  </si>
+  <si>
+    <t>Republic P-47D (Sov)</t>
+  </si>
+  <si>
+    <t>A0360</t>
+  </si>
+  <si>
+    <t>A0353</t>
+  </si>
+  <si>
+    <t>North American B-25D (Sov)</t>
+  </si>
+  <si>
+    <t>A0354</t>
+  </si>
+  <si>
+    <t>North American B-25J (Sov)</t>
+  </si>
+  <si>
+    <t>A0371</t>
+  </si>
+  <si>
+    <t>Supermarine Spitfire LF.IX (Sov)</t>
+  </si>
+  <si>
+    <t>A0356</t>
+  </si>
+  <si>
+    <t>Hawker Hurricane IIB (Sov)</t>
+  </si>
+  <si>
+    <t>A0357</t>
+  </si>
+  <si>
+    <t>Hawker Hurricane IIC (Sov)</t>
+  </si>
+  <si>
+    <t>A0322</t>
+  </si>
+  <si>
+    <t>Tupolev Tu-2</t>
+  </si>
+  <si>
+    <t>A0323</t>
+  </si>
+  <si>
+    <t>Tupolev Tu-2S</t>
+  </si>
+  <si>
+    <t>A0315</t>
+  </si>
+  <si>
+    <t>Arkhangelsky Ar-2</t>
+  </si>
+  <si>
+    <t>A0296</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-4</t>
+  </si>
+  <si>
+    <t>Як-4</t>
+  </si>
+  <si>
+    <t>A0283</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-1</t>
+  </si>
+  <si>
+    <t>Як-1</t>
+  </si>
+  <si>
+    <t>A0284</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-1B</t>
+  </si>
+  <si>
+    <t>Як-1Б</t>
+  </si>
+  <si>
+    <t>A0300</t>
+  </si>
+  <si>
+    <t>Lavochkin-Gorbunov-Gudkov LaGG-3 29-series</t>
+  </si>
+  <si>
+    <t>A0301</t>
+  </si>
+  <si>
+    <t>Lavochkin-Gorbunov-Gudkov LaGG-3 66-series</t>
+  </si>
+  <si>
+    <t>A0292</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-9U</t>
+  </si>
+  <si>
+    <t>A0289</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-9DD</t>
+  </si>
+  <si>
+    <t>Як-9ДД</t>
+  </si>
+  <si>
+    <t>A0333</t>
+  </si>
+  <si>
+    <t>Petlyakov Pe-3bis</t>
+  </si>
+  <si>
+    <t>A0367</t>
+  </si>
+  <si>
+    <t>Curtiss P-40N (Sov)</t>
+  </si>
+  <si>
+    <t>A0272</t>
+  </si>
+  <si>
+    <t>Polikarkov I-15?</t>
+  </si>
+  <si>
+    <t>Ла-5ФН</t>
+  </si>
+  <si>
+    <t>Ла-7</t>
+  </si>
+  <si>
+    <t>29-я серия</t>
+  </si>
+  <si>
+    <t>Ил-2</t>
+  </si>
+  <si>
+    <t>Note the slightly swept wings of the 2M3 model - the 2M model has straight wings - though very difficult to see</t>
+  </si>
+  <si>
+    <t>Архангельский Ар-2</t>
+  </si>
+  <si>
+    <t>У-2ВС</t>
+  </si>
+  <si>
+    <t>A0328</t>
+  </si>
+  <si>
+    <t>A0326</t>
+  </si>
+  <si>
+    <t>U-2 variant</t>
+  </si>
+  <si>
+    <t>Polikarpov U-2 recon</t>
+  </si>
+  <si>
+    <t>Пе-3бис</t>
+  </si>
+  <si>
+    <t>Polikarpov NB?</t>
+  </si>
+  <si>
+    <t>A0346</t>
+  </si>
+  <si>
+    <t>Image depicts a P-40M, the N model is somewhat illusive</t>
+  </si>
+  <si>
+    <t>Як-9У</t>
+  </si>
+  <si>
+    <t>Ту-2</t>
+  </si>
+  <si>
+    <t>Ту-2C</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +2073,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1813,6 +2083,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,7 +2105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1841,6 +2117,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2146,13 +2423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B239" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C248" sqref="C248"/>
+      <selection pane="bottomRight" activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,7 +4261,7 @@
       <c r="A205" t="s">
         <v>360</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="12" t="s">
         <v>563</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -4032,7 +4309,7 @@
       <c r="A210" t="s">
         <v>365</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="12" t="s">
         <v>563</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -4208,459 +4485,815 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>38</v>
-      </c>
-      <c r="B231" t="s">
-        <v>39</v>
+        <v>651</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>563</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>68</v>
+        <v>652</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>215</v>
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B233" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="B234" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>40</v>
+      </c>
+      <c r="B235" t="s">
+        <v>41</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>56</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>53</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="237" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B238" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C238" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>42</v>
-      </c>
-      <c r="B238" t="s">
-        <v>43</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>570</v>
+        <v>42</v>
       </c>
       <c r="B239" t="s">
-        <v>571</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>572</v>
+        <v>43</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>573</v>
+        <v>632</v>
       </c>
       <c r="B240" t="s">
-        <v>574</v>
+        <v>633</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>575</v>
+        <v>634</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>530</v>
-      </c>
-      <c r="B241" t="s">
-        <v>531</v>
+        <v>635</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>636</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>532</v>
+        <v>637</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="B242" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B243" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B244" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="B245" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>44</v>
-      </c>
-      <c r="B246" t="s">
-        <v>45</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>538</v>
+        <v>644</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="B247" t="s">
-        <v>528</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>529</v>
+        <v>588</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="B248" t="s">
-        <v>544</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>545</v>
+        <v>577</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>524</v>
-      </c>
-      <c r="B249" t="s">
-        <v>525</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>526</v>
+        <v>642</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B250" t="s">
-        <v>494</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>495</v>
+        <v>508</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>46</v>
-      </c>
-      <c r="B251" t="s">
-        <v>47</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>73</v>
+        <v>629</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>48</v>
+        <v>516</v>
       </c>
       <c r="B252" t="s">
-        <v>58</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>59</v>
+        <v>517</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>513</v>
+        <v>44</v>
       </c>
       <c r="B253" t="s">
-        <v>515</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>514</v>
+        <v>45</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>49</v>
-      </c>
-      <c r="B254" t="s">
-        <v>50</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>70</v>
+        <v>638</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>522</v>
-      </c>
-      <c r="B255" t="s">
-        <v>523</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>539</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C255" s="6"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>510</v>
-      </c>
-      <c r="B256" t="s">
-        <v>512</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>511</v>
+        <v>594</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="B257" t="s">
-        <v>559</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>557</v>
+        <v>595</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>555</v>
-      </c>
-      <c r="B258" t="s">
-        <v>556</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>557</v>
+        <v>597</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>51</v>
-      </c>
-      <c r="B259" t="s">
-        <v>71</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>69</v>
+        <v>599</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>52</v>
+        <v>527</v>
       </c>
       <c r="B260" t="s">
-        <v>72</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>540</v>
+        <v>528</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="B261" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>225</v>
+        <v>524</v>
       </c>
       <c r="B262" t="s">
-        <v>226</v>
+        <v>525</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>227</v>
+        <v>526</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B263" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="B264" t="s">
-        <v>221</v>
+        <v>47</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>496</v>
+        <v>48</v>
       </c>
       <c r="B265" t="s">
-        <v>497</v>
+        <v>58</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>498</v>
+        <v>59</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>499</v>
-      </c>
-      <c r="B266" t="s">
-        <v>500</v>
-      </c>
-      <c r="C266" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>502</v>
-      </c>
-      <c r="B267" t="s">
-        <v>503</v>
-      </c>
-      <c r="C267" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>579</v>
-      </c>
-      <c r="B268" t="s">
-        <v>580</v>
+        <v>603</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>546</v>
-      </c>
-      <c r="B269" t="s">
-        <v>547</v>
+        <v>606</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>554</v>
+        <v>657</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>548</v>
-      </c>
-      <c r="B270" t="s">
-        <v>549</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>553</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>550</v>
-      </c>
-      <c r="B271" t="s">
-        <v>551</v>
+        <v>623</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>552</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>625</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>661</v>
+      </c>
+      <c r="B273" t="s">
+        <v>663</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>513</v>
+      </c>
+      <c r="B274" t="s">
+        <v>515</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>660</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>49</v>
+      </c>
+      <c r="B276" t="s">
+        <v>50</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>522</v>
+      </c>
+      <c r="B277" t="s">
+        <v>523</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>510</v>
+      </c>
+      <c r="B278" t="s">
+        <v>512</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>647</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" t="s">
+        <v>559</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>555</v>
+      </c>
+      <c r="B281" t="s">
+        <v>556</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>51</v>
+      </c>
+      <c r="B282" t="s">
+        <v>71</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>52</v>
+      </c>
+      <c r="B283" t="s">
+        <v>72</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>519</v>
+      </c>
+      <c r="B284" t="s">
+        <v>521</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>225</v>
+      </c>
+      <c r="B285" t="s">
+        <v>226</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>504</v>
+      </c>
+      <c r="B286" t="s">
+        <v>505</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>666</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>222</v>
+      </c>
+      <c r="B288" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>496</v>
+      </c>
+      <c r="B289" t="s">
+        <v>497</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>499</v>
+      </c>
+      <c r="B290" t="s">
+        <v>500</v>
+      </c>
+      <c r="C290" s="2"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>502</v>
+      </c>
+      <c r="B291" t="s">
+        <v>503</v>
+      </c>
+      <c r="C291" s="2"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>613</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="C292" s="2"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>615</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C293" s="2"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>619</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C294" s="2"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>621</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C295" s="2"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>579</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C296" s="2"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>612</v>
+      </c>
+      <c r="B297" t="s">
+        <v>585</v>
+      </c>
+      <c r="C297" s="2"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>586</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C298" s="2"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>583</v>
+      </c>
+      <c r="B299" t="s">
+        <v>584</v>
+      </c>
+      <c r="C299" s="2"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>546</v>
+      </c>
+      <c r="B300" t="s">
+        <v>547</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>548</v>
+      </c>
+      <c r="B301" t="s">
+        <v>549</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>550</v>
+      </c>
+      <c r="B302" t="s">
+        <v>551</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>649</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>610</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="C304" s="2"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>617</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C305" s="2"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>581</v>
+      </c>
+      <c r="B306" t="s">
+        <v>582</v>
+      </c>
+      <c r="C306" s="2"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>223</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B307" t="s">
         <v>501</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C307" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" s="2"/>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="679">
   <si>
     <t>A0039</t>
   </si>
@@ -1510,9 +1510,6 @@
     <t>Lisunov Li-2VV</t>
   </si>
   <si>
-    <t>Ли-2ВВ. Note the bombs under the aircraft</t>
-  </si>
-  <si>
     <t>A0350</t>
   </si>
   <si>
@@ -1981,9 +1978,6 @@
     <t>Ла-7</t>
   </si>
   <si>
-    <t>29-я серия</t>
-  </si>
-  <si>
     <t>Ил-2</t>
   </si>
   <si>
@@ -2027,6 +2021,36 @@
   </si>
   <si>
     <t>Ту-2C</t>
+  </si>
+  <si>
+    <t>Confirmed IIB model</t>
+  </si>
+  <si>
+    <t>Confirmed IIC model</t>
+  </si>
+  <si>
+    <t>Confirmed P-39N model</t>
+  </si>
+  <si>
+    <t>Confirmed P-39Q model</t>
+  </si>
+  <si>
+    <t>Confirmed Vb</t>
+  </si>
+  <si>
+    <t>Confirmed type IX</t>
+  </si>
+  <si>
+    <t>Ли-2ВВ. Note the bombs under the aircraft, as it's a Li-2 in bomber support role</t>
+  </si>
+  <si>
+    <t>ЛаГГ-3 29-я серия. Image is of either a 23 or 29 series LaGG</t>
+  </si>
+  <si>
+    <t>Confirmed P-39D model</t>
+  </si>
+  <si>
+    <t>ЛаГГ-3 66-я серия. Image is  a confirmed 66 series LaGG</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2097,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2083,12 +2107,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,7 +2123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2117,7 +2135,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2426,10 +2443,10 @@
   <dimension ref="A1:C309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B262" sqref="B262"/>
+      <selection pane="bottomRight" activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,7 +3880,7 @@
         <v>374</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>375</v>
@@ -3965,7 +3982,7 @@
         <v>282</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4144,10 +4161,10 @@
         <v>348</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4155,7 +4172,7 @@
         <v>349</v>
       </c>
       <c r="B192" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4163,7 +4180,7 @@
         <v>350</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4171,7 +4188,7 @@
         <v>351</v>
       </c>
       <c r="B194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4179,7 +4196,7 @@
         <v>352</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4261,11 +4278,11 @@
       <c r="A205" t="s">
         <v>360</v>
       </c>
-      <c r="B205" s="12" t="s">
+      <c r="B205" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,7 +4299,7 @@
         <v>362</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -4299,21 +4316,21 @@
         <v>364</v>
       </c>
       <c r="B209" t="s">
+        <v>540</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>365</v>
       </c>
-      <c r="B210" s="12" t="s">
-        <v>563</v>
+      <c r="B210" s="11" t="s">
+        <v>562</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4339,7 +4356,7 @@
         <v>366</v>
       </c>
       <c r="C213" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,13 +4502,13 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>650</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="B231" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4579,150 +4596,150 @@
         <v>43</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>631</v>
+      </c>
+      <c r="B240" t="s">
         <v>632</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>634</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="C241" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>569</v>
+      </c>
+      <c r="B242" t="s">
         <v>570</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>572</v>
+      </c>
+      <c r="B243" t="s">
         <v>573</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>529</v>
+      </c>
+      <c r="B244" t="s">
         <v>530</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>532</v>
+      </c>
+      <c r="B245" t="s">
         <v>533</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>643</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="C246" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B247" t="s">
+        <v>587</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>575</v>
+      </c>
+      <c r="B248" t="s">
         <v>576</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>641</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>643</v>
-      </c>
       <c r="C249" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>506</v>
+      </c>
+      <c r="B250" t="s">
         <v>507</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>628</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="C251" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>515</v>
+      </c>
+      <c r="B252" t="s">
         <v>516</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4733,104 +4750,106 @@
         <v>45</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>637</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="B254" s="11" t="s">
-        <v>639</v>
-      </c>
       <c r="C254" s="6" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>639</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B255" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="C255" s="6"/>
+      <c r="C255" s="6" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B257" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>596</v>
+      </c>
+      <c r="B258" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="B258" s="11" t="s">
-        <v>598</v>
-      </c>
       <c r="C258" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>598</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B259" s="11" t="s">
-        <v>600</v>
-      </c>
       <c r="C259" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>526</v>
+      </c>
+      <c r="B260" t="s">
         <v>527</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>542</v>
+      </c>
+      <c r="B261" t="s">
         <v>543</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>523</v>
+      </c>
+      <c r="B262" t="s">
         <v>524</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4868,108 +4887,108 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>626</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B266" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="C266" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>600</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>602</v>
-      </c>
       <c r="C267" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>602</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>606</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>608</v>
       </c>
       <c r="C270" s="2"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>622</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B271" s="3" t="s">
-        <v>624</v>
-      </c>
       <c r="C271" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>624</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B272" s="3" t="s">
-        <v>626</v>
-      </c>
       <c r="C272" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>659</v>
+      </c>
+      <c r="B273" t="s">
         <v>661</v>
       </c>
-      <c r="B273" t="s">
-        <v>663</v>
-      </c>
       <c r="C273" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>512</v>
+      </c>
+      <c r="B274" t="s">
+        <v>514</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="B274" t="s">
-        <v>515</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4985,57 +5004,57 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>521</v>
+      </c>
+      <c r="B277" t="s">
         <v>522</v>
       </c>
-      <c r="B277" t="s">
-        <v>523</v>
-      </c>
       <c r="C277" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>509</v>
+      </c>
+      <c r="B278" t="s">
+        <v>511</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B278" t="s">
-        <v>512</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>646</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B279" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="C279" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>557</v>
+      </c>
+      <c r="B280" t="s">
         <v>558</v>
       </c>
-      <c r="B280" t="s">
-        <v>559</v>
-      </c>
       <c r="C280" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>554</v>
+      </c>
+      <c r="B281" t="s">
         <v>555</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -5057,18 +5076,18 @@
         <v>72</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>518</v>
+      </c>
+      <c r="B284" t="s">
+        <v>520</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B284" t="s">
-        <v>521</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -5084,21 +5103,21 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>503</v>
+      </c>
+      <c r="B286" t="s">
         <v>504</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -5117,176 +5136,190 @@
         <v>497</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>498</v>
+        <v>675</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>498</v>
+      </c>
+      <c r="B290" t="s">
         <v>499</v>
-      </c>
-      <c r="B290" t="s">
-        <v>500</v>
       </c>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>501</v>
+      </c>
+      <c r="B291" t="s">
         <v>502</v>
-      </c>
-      <c r="B291" t="s">
-        <v>503</v>
       </c>
       <c r="C291" s="2"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>612</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="B292" s="11" t="s">
-        <v>614</v>
       </c>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>614</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="C293" s="2"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>618</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B294" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="C294" s="2"/>
+      <c r="C294" s="2" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>620</v>
+      </c>
+      <c r="B295" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B295" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="C295" s="2"/>
+      <c r="C295" s="2" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>578</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B296" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="C296" s="2"/>
+      <c r="C296" s="2" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B297" t="s">
-        <v>585</v>
-      </c>
-      <c r="C297" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>585</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B298" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C298" s="2"/>
+      <c r="C298" s="2" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>582</v>
+      </c>
+      <c r="B299" t="s">
         <v>583</v>
-      </c>
-      <c r="B299" t="s">
-        <v>584</v>
       </c>
       <c r="C299" s="2"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>545</v>
+      </c>
+      <c r="B300" t="s">
         <v>546</v>
       </c>
-      <c r="B300" t="s">
-        <v>547</v>
-      </c>
       <c r="C300" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>547</v>
+      </c>
+      <c r="B301" t="s">
         <v>548</v>
       </c>
-      <c r="B301" t="s">
-        <v>549</v>
-      </c>
       <c r="C301" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>549</v>
+      </c>
+      <c r="B302" t="s">
         <v>550</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>648</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="B303" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="C303" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>609</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="B304" s="11" t="s">
-        <v>611</v>
       </c>
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>616</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B305" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="C305" s="2"/>
+      <c r="C305" s="2" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>580</v>
+      </c>
+      <c r="B306" t="s">
         <v>581</v>
       </c>
-      <c r="B306" t="s">
-        <v>582</v>
-      </c>
-      <c r="C306" s="2"/>
+      <c r="C306" s="2" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>223</v>
       </c>
       <c r="B307" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>224</v>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air units" sheetId="1" r:id="rId1"/>
+    <sheet name="Land units" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="782">
   <si>
     <t>A0039</t>
   </si>
@@ -1720,9 +1722,6 @@
     <t>Ju-88?</t>
   </si>
   <si>
-    <t>Me-109</t>
-  </si>
-  <si>
     <t>A0285</t>
   </si>
   <si>
@@ -2051,6 +2050,318 @@
   </si>
   <si>
     <t>ЛаГГ-3 66-я серия. Image is  a confirmed 66 series LaGG</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>GP0001</t>
+  </si>
+  <si>
+    <t>Panzer I Ausf. B</t>
+  </si>
+  <si>
+    <t>Shot of tank in Russia</t>
+  </si>
+  <si>
+    <t>GP0002</t>
+  </si>
+  <si>
+    <t>Panzer II Ausf. C</t>
+  </si>
+  <si>
+    <t>GP0128</t>
+  </si>
+  <si>
+    <t>GP1490</t>
+  </si>
+  <si>
+    <t>Support squad (Ger)</t>
+  </si>
+  <si>
+    <t>GP0081</t>
+  </si>
+  <si>
+    <t>Rifle squad 1939 (Ger)</t>
+  </si>
+  <si>
+    <t>GP0088</t>
+  </si>
+  <si>
+    <t>Cavalry squad (Ger)</t>
+  </si>
+  <si>
+    <t>GP0084</t>
+  </si>
+  <si>
+    <t>Pioneer squad 1939 (Ger)</t>
+  </si>
+  <si>
+    <t>GP0003</t>
+  </si>
+  <si>
+    <t>GP0004</t>
+  </si>
+  <si>
+    <t>Panzer II Ausf. F</t>
+  </si>
+  <si>
+    <t>Panzer II Ausf. L</t>
+  </si>
+  <si>
+    <t>GP0089</t>
+  </si>
+  <si>
+    <t>Motorcycle squad (Ger)</t>
+  </si>
+  <si>
+    <t>GP0094</t>
+  </si>
+  <si>
+    <t>German Motorised rifle squad 1939 (Ger)</t>
+  </si>
+  <si>
+    <t>German Motorised rifle squad+ (Ger)</t>
+  </si>
+  <si>
+    <t>GP0095</t>
+  </si>
+  <si>
+    <t>GP1590</t>
+  </si>
+  <si>
+    <t>Air support (Ger)</t>
+  </si>
+  <si>
+    <t>GP0129</t>
+  </si>
+  <si>
+    <t>Security squad (Ger)</t>
+  </si>
+  <si>
+    <t>Vanilla uses same source image</t>
+  </si>
+  <si>
+    <t>GP0076</t>
+  </si>
+  <si>
+    <t>50mm mortar (Ger)</t>
+  </si>
+  <si>
+    <t>GP0077</t>
+  </si>
+  <si>
+    <t>81mm mortar (Ger)</t>
+  </si>
+  <si>
+    <t>1941 shot, Lithuania</t>
+  </si>
+  <si>
+    <t>GP0067</t>
+  </si>
+  <si>
+    <t>37mm anti-tank gun (Ger)</t>
+  </si>
+  <si>
+    <t>GP0068</t>
+  </si>
+  <si>
+    <t>50mm anti-tank gun (Ger)</t>
+  </si>
+  <si>
+    <t>GP0413</t>
+  </si>
+  <si>
+    <t>Panhard P204(f) Armored Car</t>
+  </si>
+  <si>
+    <t>RAD (Reichsarbeitsdienst) labor service (Ger)</t>
+  </si>
+  <si>
+    <t>Me-109, depicted is a G-2</t>
+  </si>
+  <si>
+    <t>GP0055</t>
+  </si>
+  <si>
+    <t>SdKfz-222</t>
+  </si>
+  <si>
+    <t>1941/1942 shot, Eastern Front</t>
+  </si>
+  <si>
+    <t>GP0091</t>
+  </si>
+  <si>
+    <t>7.92mm anti-tank rifle (Ger)</t>
+  </si>
+  <si>
+    <t>Panzerbüchse 39 on Eastern Front, 1941</t>
+  </si>
+  <si>
+    <t>GP0073</t>
+  </si>
+  <si>
+    <t>Opted for an AA shot rather than an AT shot</t>
+  </si>
+  <si>
+    <t>88mm anti-aircraft gun (Ger)</t>
+  </si>
+  <si>
+    <t>GP0110</t>
+  </si>
+  <si>
+    <t>105mm Howitzer</t>
+  </si>
+  <si>
+    <t>10.5 cm leFH 18/40, Eastern Front</t>
+  </si>
+  <si>
+    <t>GP0112</t>
+  </si>
+  <si>
+    <t>150mm Howitzer</t>
+  </si>
+  <si>
+    <t>15 cm sFH 18, Eastern Front</t>
+  </si>
+  <si>
+    <t>GP0072</t>
+  </si>
+  <si>
+    <t>20mm anti-aircraft gun (Ger)</t>
+  </si>
+  <si>
+    <t>Flak 38</t>
+  </si>
+  <si>
+    <t>GP0106</t>
+  </si>
+  <si>
+    <t>20mm Quad Anti-Aircraft gun (Ger)</t>
+  </si>
+  <si>
+    <t>Flakvierling 38</t>
+  </si>
+  <si>
+    <t>GP0093</t>
+  </si>
+  <si>
+    <t>28mm anti-tank gun (Ger)</t>
+  </si>
+  <si>
+    <t>GP0075</t>
+  </si>
+  <si>
+    <t>150mm infantry gun (Ger)</t>
+  </si>
+  <si>
+    <t>15 cm sIG 33</t>
+  </si>
+  <si>
+    <t>GP0074</t>
+  </si>
+  <si>
+    <t>75mm infantry gun (Ger)</t>
+  </si>
+  <si>
+    <t>7.5cm leichtes Infanteriegeschütz 18</t>
+  </si>
+  <si>
+    <t>GP0357</t>
+  </si>
+  <si>
+    <t>47mm anti-tank gun (Ger)</t>
+  </si>
+  <si>
+    <t>4.7 cm PAK 36 (t) - ex Czech gun M-36</t>
+  </si>
+  <si>
+    <t>GP0130</t>
+  </si>
+  <si>
+    <t>Karl 600 Siege Mortar</t>
+  </si>
+  <si>
+    <t>Confirmed 60cm Karl. Vanilla uses same source image</t>
+  </si>
+  <si>
+    <t>GP0113</t>
+  </si>
+  <si>
+    <t>150mm Nebelwerfer</t>
+  </si>
+  <si>
+    <t>15 cm NbW 41</t>
+  </si>
+  <si>
+    <t>GP172</t>
+  </si>
+  <si>
+    <t>280/320mm Nebelwerfer</t>
+  </si>
+  <si>
+    <t>28/32 cm Nebelwerfer 41. Vanilla uses same source image</t>
+  </si>
+  <si>
+    <t>GP0052</t>
+  </si>
+  <si>
+    <t>sIG 33 Pz I</t>
+  </si>
+  <si>
+    <t>GP0098</t>
+  </si>
+  <si>
+    <t>GP0101</t>
+  </si>
+  <si>
+    <t>Panzer Grenadier Squad 1941</t>
+  </si>
+  <si>
+    <t>Panzer Pionier Squad 1939</t>
+  </si>
+  <si>
+    <t>GP0127</t>
+  </si>
+  <si>
+    <t>SdKfz-6/2 SP Flak</t>
+  </si>
+  <si>
+    <t>GP0105</t>
+  </si>
+  <si>
+    <t>105 mm Field Gun</t>
+  </si>
+  <si>
+    <t>10cm Kanone 18</t>
+  </si>
+  <si>
+    <t>Though not visible on the in-game photo, the truck is driving past a knocked-out KV-2</t>
+  </si>
+  <si>
+    <t>GP0062</t>
+  </si>
+  <si>
+    <t>Sd.Kfz. 251/1 MG carrier</t>
+  </si>
+  <si>
+    <t>GP0063</t>
+  </si>
+  <si>
+    <t>Sd.Kfz. 251/10 halftrack</t>
+  </si>
+  <si>
+    <t>GP0064</t>
+  </si>
+  <si>
+    <t>Sd.Kfz. 251/2 Mortar Carrier</t>
+  </si>
+  <si>
+    <t>Have the Vanilla image as well, but this is more 'mortar-centered' - though both depict the firing of the mortar from the half-track. Getting full vehicle shots are difficult, as the mortar then blends in with the vehicle itself</t>
+  </si>
+  <si>
+    <t>Still not sure about the horse-drawn shot - even though accurate it seems off for motorised units. Perhaps replace with truck-based image?</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2107,6 +2418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2123,7 +2440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2136,6 +2453,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2442,11 +2761,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B296" sqref="B296"/>
+      <selection pane="bottomRight" activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,7 +4515,7 @@
         <v>352</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>568</v>
+        <v>720</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4502,13 +4821,13 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>562</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4601,46 +4920,46 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>630</v>
+      </c>
+      <c r="B240" t="s">
         <v>631</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>633</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="C241" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>568</v>
+      </c>
+      <c r="B242" t="s">
         <v>569</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>571</v>
+      </c>
+      <c r="B243" t="s">
         <v>572</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4667,46 +4986,46 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>642</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="C246" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B247" t="s">
+        <v>586</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>574</v>
+      </c>
+      <c r="B248" t="s">
         <v>575</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>640</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>642</v>
-      </c>
       <c r="C249" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4722,13 +5041,13 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>627</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="C251" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4755,68 +5074,68 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>636</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B254" s="3" t="s">
-        <v>638</v>
-      </c>
       <c r="C254" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>638</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B255" s="3" t="s">
-        <v>640</v>
-      </c>
       <c r="C255" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B257" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>595</v>
+      </c>
+      <c r="B258" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B258" s="3" t="s">
-        <v>597</v>
-      </c>
       <c r="C258" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>597</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B259" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="C259" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,86 +5206,86 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>625</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B266" s="3" t="s">
-        <v>627</v>
-      </c>
       <c r="C266" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>599</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>601</v>
-      </c>
       <c r="C267" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>601</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>605</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="C270" s="2"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>621</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B271" s="3" t="s">
-        <v>623</v>
-      </c>
       <c r="C271" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>623</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B272" s="3" t="s">
-        <v>625</v>
-      </c>
       <c r="C272" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>658</v>
+      </c>
+      <c r="B273" t="s">
+        <v>660</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="B273" t="s">
-        <v>661</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4982,13 +5301,13 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -5026,13 +5345,13 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>645</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B279" s="3" t="s">
-        <v>647</v>
-      </c>
       <c r="C279" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -5114,10 +5433,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -5136,7 +5455,7 @@
         <v>497</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,83 +5478,83 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>611</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>613</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>615</v>
       </c>
       <c r="C293" s="2"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>617</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B294" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="C294" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>619</v>
+      </c>
+      <c r="B295" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B295" s="3" t="s">
-        <v>621</v>
-      </c>
       <c r="C295" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>577</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B296" s="3" t="s">
-        <v>579</v>
-      </c>
       <c r="C296" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B297" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>584</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B298" s="3" t="s">
-        <v>586</v>
-      </c>
       <c r="C298" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>581</v>
+      </c>
+      <c r="B299" t="s">
         <v>582</v>
-      </c>
-      <c r="B299" t="s">
-        <v>583</v>
       </c>
       <c r="C299" s="2"/>
     </row>
@@ -5274,44 +5593,44 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>647</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B303" s="3" t="s">
-        <v>649</v>
-      </c>
       <c r="C303" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>608</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>610</v>
       </c>
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>615</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>617</v>
-      </c>
       <c r="C305" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>579</v>
+      </c>
+      <c r="B306" t="s">
         <v>580</v>
       </c>
-      <c r="B306" t="s">
-        <v>581</v>
-      </c>
       <c r="C306" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -5327,6 +5646,553 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.875" customWidth="1"/>
+    <col min="3" max="3" width="170.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>778</v>
+      </c>
+      <c r="B13" t="s">
+        <v>779</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>713</v>
+      </c>
+      <c r="B15" t="s">
+        <v>714</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B16" t="s">
+        <v>716</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>736</v>
+      </c>
+      <c r="B18" t="s">
+        <v>737</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>727</v>
+      </c>
+      <c r="B19" t="s">
+        <v>729</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>747</v>
+      </c>
+      <c r="B20" t="s">
+        <v>748</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>744</v>
+      </c>
+      <c r="B21" t="s">
+        <v>745</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>708</v>
+      </c>
+      <c r="B22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>710</v>
+      </c>
+      <c r="B23" t="s">
+        <v>711</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>687</v>
+      </c>
+      <c r="B25" t="s">
+        <v>688</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>691</v>
+      </c>
+      <c r="B27" t="s">
+        <v>692</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>689</v>
+      </c>
+      <c r="B29" t="s">
+        <v>690</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>697</v>
+      </c>
+      <c r="B30" t="s">
+        <v>698</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>724</v>
+      </c>
+      <c r="B32" t="s">
+        <v>725</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>742</v>
+      </c>
+      <c r="B34" t="s">
+        <v>743</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>699</v>
+      </c>
+      <c r="B35" t="s">
+        <v>700</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>702</v>
+      </c>
+      <c r="B36" t="s">
+        <v>701</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>764</v>
+      </c>
+      <c r="B38" t="s">
+        <v>766</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>765</v>
+      </c>
+      <c r="B40" t="s">
+        <v>767</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>770</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>739</v>
+      </c>
+      <c r="B43" t="s">
+        <v>740</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>730</v>
+      </c>
+      <c r="B45" t="s">
+        <v>731</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>733</v>
+      </c>
+      <c r="B47" t="s">
+        <v>734</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>756</v>
+      </c>
+      <c r="B48" t="s">
+        <v>757</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>768</v>
+      </c>
+      <c r="B50" t="s">
+        <v>769</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>684</v>
+      </c>
+      <c r="B51" t="s">
+        <v>719</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>705</v>
+      </c>
+      <c r="B52" t="s">
+        <v>706</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>753</v>
+      </c>
+      <c r="B53" t="s">
+        <v>754</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>759</v>
+      </c>
+      <c r="B55" t="s">
+        <v>760</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>750</v>
+      </c>
+      <c r="B57" t="s">
+        <v>751</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>717</v>
+      </c>
+      <c r="B59" t="s">
+        <v>718</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>685</v>
+      </c>
+      <c r="B61" t="s">
+        <v>686</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>703</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="843">
   <si>
     <t>A0039</t>
   </si>
@@ -2154,9 +2154,6 @@
     <t>81mm mortar (Ger)</t>
   </si>
   <si>
-    <t>1941 shot, Lithuania</t>
-  </si>
-  <si>
     <t>GP0067</t>
   </si>
   <si>
@@ -2184,9 +2181,6 @@
     <t>GP0055</t>
   </si>
   <si>
-    <t>SdKfz-222</t>
-  </si>
-  <si>
     <t>1941/1942 shot, Eastern Front</t>
   </si>
   <si>
@@ -2211,18 +2205,12 @@
     <t>GP0110</t>
   </si>
   <si>
-    <t>105mm Howitzer</t>
-  </si>
-  <si>
     <t>10.5 cm leFH 18/40, Eastern Front</t>
   </si>
   <si>
     <t>GP0112</t>
   </si>
   <si>
-    <t>150mm Howitzer</t>
-  </si>
-  <si>
     <t>15 cm sFH 18, Eastern Front</t>
   </si>
   <si>
@@ -2295,9 +2283,6 @@
     <t>15 cm NbW 41</t>
   </si>
   <si>
-    <t>GP172</t>
-  </si>
-  <si>
     <t>280/320mm Nebelwerfer</t>
   </si>
   <si>
@@ -2316,12 +2301,6 @@
     <t>GP0101</t>
   </si>
   <si>
-    <t>Panzer Grenadier Squad 1941</t>
-  </si>
-  <si>
-    <t>Panzer Pionier Squad 1939</t>
-  </si>
-  <si>
     <t>GP0127</t>
   </si>
   <si>
@@ -2331,12 +2310,6 @@
     <t>GP0105</t>
   </si>
   <si>
-    <t>105 mm Field Gun</t>
-  </si>
-  <si>
-    <t>10cm Kanone 18</t>
-  </si>
-  <si>
     <t>Though not visible on the in-game photo, the truck is driving past a knocked-out KV-2</t>
   </si>
   <si>
@@ -2362,6 +2335,216 @@
   </si>
   <si>
     <t>Still not sure about the horse-drawn shot - even though accurate it seems off for motorised units. Perhaps replace with truck-based image?</t>
+  </si>
+  <si>
+    <t>GP0054</t>
+  </si>
+  <si>
+    <t>SdKfz-221 Armored Car</t>
+  </si>
+  <si>
+    <t>SdKfz-222 Armored Car</t>
+  </si>
+  <si>
+    <t>1941 shot, Eastern Front</t>
+  </si>
+  <si>
+    <t>GP0124</t>
+  </si>
+  <si>
+    <t>37mm anti-aircraft gun (Ger)</t>
+  </si>
+  <si>
+    <t>3.7 cm FlaK 36</t>
+  </si>
+  <si>
+    <t>GP0016</t>
+  </si>
+  <si>
+    <t>Pz IV Ausf. C</t>
+  </si>
+  <si>
+    <t>GP0017</t>
+  </si>
+  <si>
+    <t>Pz IV Ausf. E</t>
+  </si>
+  <si>
+    <t>75mm Field Gun (Ger)</t>
+  </si>
+  <si>
+    <t>7.5 cm Feldkanone 18. Vanilla uses Reichswehr FK 16 shot, which seems off</t>
+  </si>
+  <si>
+    <t>GP0109</t>
+  </si>
+  <si>
+    <t>10cm Kanone 18. Vanilla uses a 15cm K18 shot, more suited for slot 108</t>
+  </si>
+  <si>
+    <t>GP0108</t>
+  </si>
+  <si>
+    <t>15cm Kanone 18. Used Vanilla GP0105 source image shot, as it's misplaced</t>
+  </si>
+  <si>
+    <t>GP0119</t>
+  </si>
+  <si>
+    <t>24 cm Haubitze 39</t>
+  </si>
+  <si>
+    <t>GP0082</t>
+  </si>
+  <si>
+    <t>Rifle squad 1943 (Ger)</t>
+  </si>
+  <si>
+    <t>GP0085</t>
+  </si>
+  <si>
+    <t>Pioneer squad 1943 (Ger)</t>
+  </si>
+  <si>
+    <t>GP0080</t>
+  </si>
+  <si>
+    <t>GP0079</t>
+  </si>
+  <si>
+    <t>7.92mm MG.34 Machine Gun</t>
+  </si>
+  <si>
+    <t>7.92mm MG.42 Machine Gun</t>
+  </si>
+  <si>
+    <t>GP0096</t>
+  </si>
+  <si>
+    <t>German Motorised rifle squad 1943 (Ger)</t>
+  </si>
+  <si>
+    <t>GP0087</t>
+  </si>
+  <si>
+    <t>Submachine Gun Squad (Ger)</t>
+  </si>
+  <si>
+    <t>GP0102</t>
+  </si>
+  <si>
+    <t>GP0099</t>
+  </si>
+  <si>
+    <t>GP0132</t>
+  </si>
+  <si>
+    <t>105mm Anti-Aircraft Gun (Ger)</t>
+  </si>
+  <si>
+    <t>GP0120</t>
+  </si>
+  <si>
+    <t>210mm Howitzer (Ger)</t>
+  </si>
+  <si>
+    <t>240mm Howitzer (Ger)</t>
+  </si>
+  <si>
+    <t>150mm Howitzer (Ger)</t>
+  </si>
+  <si>
+    <t>105mm Howitzer (Ger)</t>
+  </si>
+  <si>
+    <t>150 mm Field Gun (Ger)</t>
+  </si>
+  <si>
+    <t>105 mm Field Gun (Ger)</t>
+  </si>
+  <si>
+    <t>Panzer Pionier Squad 1943 (Ger)</t>
+  </si>
+  <si>
+    <t>Panzer Pionier Squad 1939 (Ger)</t>
+  </si>
+  <si>
+    <t>Panzer Grenadier Squad 1943 (Ger)</t>
+  </si>
+  <si>
+    <t>Panzer Grenadier Squad 1941 (Ger)</t>
+  </si>
+  <si>
+    <t>GP0123</t>
+  </si>
+  <si>
+    <t>170 mm Field Gun (Ger)</t>
+  </si>
+  <si>
+    <t>GP0122</t>
+  </si>
+  <si>
+    <t>305mm Howitzer (Ger)</t>
+  </si>
+  <si>
+    <t>GP0172</t>
+  </si>
+  <si>
+    <t>GP0171</t>
+  </si>
+  <si>
+    <t>210mm Nebelwerfer</t>
+  </si>
+  <si>
+    <t>GP0069</t>
+  </si>
+  <si>
+    <t>75mm anti-tank gun PAK 40 (Ger)</t>
+  </si>
+  <si>
+    <t>GP0070</t>
+  </si>
+  <si>
+    <t>76mm anti-tank gun F-22 (Ger)</t>
+  </si>
+  <si>
+    <t>GP0071</t>
+  </si>
+  <si>
+    <t>88mm anti-tank gun (Ger)</t>
+  </si>
+  <si>
+    <t>1941 shot, Lithuania. Image GP0077 is also used for 120mm mortar (patch 1.08.08) - should probably be GP0078</t>
+  </si>
+  <si>
+    <t>GP0078</t>
+  </si>
+  <si>
+    <t>120 mm mortar?</t>
+  </si>
+  <si>
+    <t>GP0083</t>
+  </si>
+  <si>
+    <t>Pioneer?</t>
+  </si>
+  <si>
+    <t>GP0086</t>
+  </si>
+  <si>
+    <t>some form of infantry (AT?)</t>
+  </si>
+  <si>
+    <t>GP0458</t>
+  </si>
+  <si>
+    <t>Panzer T-34D 747(r) - (Ger)</t>
+  </si>
+  <si>
+    <t>GP0457</t>
+  </si>
+  <si>
+    <t>Panzer T-34B 747(r) - (Ger)</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2452,9 +2635,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4515,7 +4699,7 @@
         <v>352</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4597,7 +4781,7 @@
       <c r="A205" t="s">
         <v>360</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="12" t="s">
         <v>562</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -4645,7 +4829,7 @@
       <c r="A210" t="s">
         <v>365</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="12" t="s">
         <v>562</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -4823,7 +5007,7 @@
       <c r="A231" t="s">
         <v>649</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="12" t="s">
         <v>562</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -5655,13 +5839,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5705,7 +5889,7 @@
       <c r="A4" t="s">
         <v>693</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>695</v>
       </c>
       <c r="C4" s="2"/>
@@ -5724,57 +5908,57 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="B7" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>782</v>
+      </c>
+      <c r="B8" t="s">
+        <v>783</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>721</v>
-      </c>
-      <c r="B9" t="s">
-        <v>722</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>723</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>757</v>
+      </c>
+      <c r="B10" t="s">
+        <v>758</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>774</v>
-      </c>
-      <c r="B11" t="s">
-        <v>775</v>
-      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>773</v>
+      </c>
+      <c r="B12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B12" t="s">
-        <v>777</v>
-      </c>
-      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>778</v>
+        <v>720</v>
       </c>
       <c r="B13" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>780</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5782,232 +5966,266 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>713</v>
+        <v>765</v>
       </c>
       <c r="B15" t="s">
-        <v>714</v>
+        <v>766</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>715</v>
+        <v>767</v>
       </c>
       <c r="B16" t="s">
-        <v>716</v>
+        <v>768</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
+      <c r="A17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>736</v>
-      </c>
-      <c r="B18" t="s">
-        <v>737</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>738</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="B19" t="s">
-        <v>729</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>728</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="B20" t="s">
-        <v>748</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>749</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>744</v>
-      </c>
-      <c r="B21" t="s">
-        <v>745</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>746</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>708</v>
-      </c>
-      <c r="B22" t="s">
-        <v>709</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>707</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>710</v>
-      </c>
-      <c r="B23" t="s">
-        <v>711</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>712</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
+      <c r="A24" t="s">
+        <v>732</v>
+      </c>
+      <c r="B24" t="s">
+        <v>733</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>687</v>
+        <v>725</v>
       </c>
       <c r="B25" t="s">
-        <v>688</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>727</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
+      <c r="A26" t="s">
+        <v>743</v>
+      </c>
+      <c r="B26" t="s">
+        <v>744</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="B27" t="s">
-        <v>692</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>741</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
+      <c r="A28" t="s">
+        <v>708</v>
+      </c>
+      <c r="B28" t="s">
+        <v>709</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="B29" t="s">
-        <v>690</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>697</v>
-      </c>
-      <c r="B30" t="s">
-        <v>698</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>797</v>
+      </c>
+      <c r="B31" t="s">
+        <v>798</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>724</v>
-      </c>
-      <c r="B32" t="s">
-        <v>725</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>726</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>687</v>
+      </c>
+      <c r="B33" t="s">
+        <v>688</v>
+      </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>742</v>
-      </c>
-      <c r="B34" t="s">
-        <v>743</v>
+        <v>792</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>793</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>699</v>
-      </c>
-      <c r="B35" t="s">
-        <v>700</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>835</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="B36" t="s">
-        <v>701</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>773</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>794</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>795</v>
+      </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>764</v>
-      </c>
-      <c r="B38" t="s">
-        <v>766</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>837</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>802</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>803</v>
+      </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>765</v>
+        <v>689</v>
       </c>
       <c r="B40" t="s">
-        <v>767</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>690</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+      <c r="A41" t="s">
+        <v>697</v>
+      </c>
+      <c r="B41" t="s">
+        <v>698</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>770</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="B43" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6015,109 +6233,108 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B45" t="s">
-        <v>731</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>732</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>699</v>
+      </c>
+      <c r="B46" t="s">
+        <v>700</v>
+      </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="B47" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>735</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>756</v>
-      </c>
-      <c r="B48" t="s">
-        <v>757</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>758</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B50" t="s">
-        <v>769</v>
+        <v>818</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>684</v>
-      </c>
-      <c r="B51" t="s">
-        <v>719</v>
+        <v>805</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>817</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>705</v>
-      </c>
-      <c r="B52" t="s">
-        <v>706</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>707</v>
-      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B53" t="s">
-        <v>754</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>755</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>804</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>759</v>
-      </c>
-      <c r="B55" t="s">
-        <v>760</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>761</v>
-      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
+      <c r="A56" t="s">
+        <v>763</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="B57" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6125,25 +6342,35 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>717</v>
-      </c>
-      <c r="B59" t="s">
-        <v>718</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>788</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
+      <c r="A60" t="s">
+        <v>786</v>
+      </c>
+      <c r="B60" t="s">
+        <v>784</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>685</v>
+        <v>728</v>
       </c>
       <c r="B61" t="s">
-        <v>686</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>781</v>
+        <v>812</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,48 +6378,267 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>730</v>
+      </c>
+      <c r="B63" t="s">
+        <v>811</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>752</v>
+      </c>
+      <c r="B64" t="s">
+        <v>753</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>790</v>
+      </c>
+      <c r="B66" t="s">
+        <v>810</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>808</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>821</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>819</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>777</v>
+      </c>
+      <c r="B71" t="s">
+        <v>778</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>761</v>
+      </c>
+      <c r="B73" t="s">
+        <v>762</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>684</v>
+      </c>
+      <c r="B74" t="s">
+        <v>718</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>705</v>
+      </c>
+      <c r="B75" t="s">
+        <v>706</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>749</v>
+      </c>
+      <c r="B76" t="s">
+        <v>750</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>806</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>824</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>823</v>
+      </c>
+      <c r="B81" t="s">
+        <v>755</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>746</v>
+      </c>
+      <c r="B83" t="s">
+        <v>747</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>716</v>
+      </c>
+      <c r="B85" t="s">
+        <v>717</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>841</v>
+      </c>
+      <c r="B87" t="s">
+        <v>842</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>839</v>
+      </c>
+      <c r="B88" t="s">
+        <v>840</v>
+      </c>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>685</v>
+      </c>
+      <c r="B90" t="s">
+        <v>686</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>703</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="845">
   <si>
     <t>A0039</t>
   </si>
@@ -2334,9 +2334,6 @@
     <t>Have the Vanilla image as well, but this is more 'mortar-centered' - though both depict the firing of the mortar from the half-track. Getting full vehicle shots are difficult, as the mortar then blends in with the vehicle itself</t>
   </si>
   <si>
-    <t>Still not sure about the horse-drawn shot - even though accurate it seems off for motorised units. Perhaps replace with truck-based image?</t>
-  </si>
-  <si>
     <t>GP0054</t>
   </si>
   <si>
@@ -2514,15 +2511,9 @@
     <t>88mm anti-tank gun (Ger)</t>
   </si>
   <si>
-    <t>1941 shot, Lithuania. Image GP0077 is also used for 120mm mortar (patch 1.08.08) - should probably be GP0078</t>
-  </si>
-  <si>
     <t>GP0078</t>
   </si>
   <si>
-    <t>120 mm mortar?</t>
-  </si>
-  <si>
     <t>GP0083</t>
   </si>
   <si>
@@ -2545,6 +2536,21 @@
   </si>
   <si>
     <t>Panzer T-34B 747(r) - (Ger)</t>
+  </si>
+  <si>
+    <t>120mm mortar (Ger)</t>
+  </si>
+  <si>
+    <t>12cm Granatwerfer 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62cm PAK36(r) </t>
+  </si>
+  <si>
+    <t>PAK 43</t>
+  </si>
+  <si>
+    <t>1941 shot, Lithuania. Image GP0077 is also used for 120mm mortar (patch 1.08.08) - should be mapped to GP0078 instead</t>
   </si>
 </sst>
 </file>
@@ -5842,10 +5848,10 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5908,19 +5914,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>779</v>
+      </c>
+      <c r="B7" t="s">
         <v>780</v>
-      </c>
-      <c r="B7" t="s">
-        <v>781</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>781</v>
+      </c>
+      <c r="B8" t="s">
         <v>782</v>
-      </c>
-      <c r="B8" t="s">
-        <v>783</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -5941,13 +5947,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>772</v>
+      </c>
+      <c r="B12" t="s">
         <v>773</v>
       </c>
-      <c r="B12" t="s">
-        <v>774</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5955,7 +5961,7 @@
         <v>720</v>
       </c>
       <c r="B13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>721</v>
@@ -6016,30 +6022,34 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>825</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>826</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>827</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>829</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6104,32 +6114,35 @@
         <v>711</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>833</v>
+        <v>831</v>
+      </c>
+      <c r="B30" t="s">
+        <v>840</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>796</v>
+      </c>
+      <c r="B31" t="s">
         <v>797</v>
-      </c>
-      <c r="B31" t="s">
-        <v>798</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>796</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>799</v>
+        <v>795</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>798</v>
       </c>
       <c r="C32" s="2"/>
     </row>
@@ -6144,19 +6157,19 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>791</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>793</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6170,27 +6183,27 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>793</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>795</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>801</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>803</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -6262,10 +6275,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>799</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -6277,16 +6290,16 @@
         <v>759</v>
       </c>
       <c r="B50" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>805</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>817</v>
+        <v>804</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>816</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -6298,16 +6311,16 @@
         <v>760</v>
       </c>
       <c r="B53" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -6320,10 +6333,10 @@
         <v>763</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,24 +6355,24 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>787</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B60" t="s">
+        <v>783</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6367,7 +6380,7 @@
         <v>728</v>
       </c>
       <c r="B61" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>729</v>
@@ -6381,7 +6394,7 @@
         <v>730</v>
       </c>
       <c r="B63" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>731</v>
@@ -6403,21 +6416,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>789</v>
+      </c>
+      <c r="B66" t="s">
+        <v>809</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="B66" t="s">
-        <v>810</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>807</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>808</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>809</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -6426,31 +6439,31 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>820</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>821</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>822</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>818</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>819</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>820</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>776</v>
+      </c>
+      <c r="B71" t="s">
         <v>777</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6501,10 +6514,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>805</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>806</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>807</v>
       </c>
       <c r="C78" s="2"/>
     </row>
@@ -6513,16 +6526,16 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>823</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>824</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>825</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B81" t="s">
         <v>755</v>
@@ -6562,19 +6575,19 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B87" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B88" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C88" s="2"/>
     </row>
@@ -6588,9 +6601,7 @@
       <c r="B90" t="s">
         <v>686</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>772</v>
-      </c>
+      <c r="C90" s="6"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Air units" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="870">
   <si>
     <t>A0039</t>
   </si>
@@ -1167,9 +1167,6 @@
     <t>Ju-86K (Rom)</t>
   </si>
   <si>
-    <t>IAR-37?</t>
-  </si>
-  <si>
     <t>do-17?</t>
   </si>
   <si>
@@ -1452,9 +1449,6 @@
     <t>Confirmed Ju 87D-1 of St.G 1</t>
   </si>
   <si>
-    <t>Confirmed Ju 88A-4</t>
-  </si>
-  <si>
     <t>Confirmed Ju 87D-3 of StG 2</t>
   </si>
   <si>
@@ -1704,21 +1698,12 @@
     <t>Messerschmitt Me 109 G-2 (H)</t>
   </si>
   <si>
-    <t>Placeholder</t>
-  </si>
-  <si>
-    <t>Ju-52 (H)</t>
-  </si>
-  <si>
     <t>Replacement image for Vanilla added - BF-109 (H)</t>
   </si>
   <si>
     <t>He-111(H) - same source image as Vanilla</t>
   </si>
   <si>
-    <t>ju-87</t>
-  </si>
-  <si>
     <t>Ju-88?</t>
   </si>
   <si>
@@ -2551,6 +2536,96 @@
   </si>
   <si>
     <t>1941 shot, Lithuania. Image GP0077 is also used for 120mm mortar (patch 1.08.08) - should be mapped to GP0078 instead</t>
+  </si>
+  <si>
+    <t>21 cm NbW 42</t>
+  </si>
+  <si>
+    <t>30 cm NbW 42</t>
+  </si>
+  <si>
+    <t>GP0173</t>
+  </si>
+  <si>
+    <t>300mm Nebelwerfer</t>
+  </si>
+  <si>
+    <t>30.5 cm Mörser 638(j)</t>
+  </si>
+  <si>
+    <t>21 cm Mörser 18</t>
+  </si>
+  <si>
+    <t>17 cm Kanone 18</t>
+  </si>
+  <si>
+    <t>SET 7K</t>
+  </si>
+  <si>
+    <t>Junkers Ju 87D (H)</t>
+  </si>
+  <si>
+    <t>Junkers Ju-52/3m (H)</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf-110 G-4 (H)</t>
+  </si>
+  <si>
+    <t>Focke-Wulf Fw 190F-8 (H)</t>
+  </si>
+  <si>
+    <t>** nonexistent **</t>
+  </si>
+  <si>
+    <t>A0479</t>
+  </si>
+  <si>
+    <t>A0556</t>
+  </si>
+  <si>
+    <t>Confirmed Ju 88A-4. Vanilla uses the same source image.</t>
+  </si>
+  <si>
+    <t>Image is of a German 110G-4</t>
+  </si>
+  <si>
+    <t>Though hard to see, it is an actual Hungarian Fw 190 F-8! The number '54' on the front of the nose is the giveaway, as German ones did not have those markings. And it beats the Vanilla image by a mile (though that was the only other plausible Hungarian shot I was able to find)</t>
+  </si>
+  <si>
+    <t>Gotha Go 145C</t>
+  </si>
+  <si>
+    <t>Condor?</t>
+  </si>
+  <si>
+    <t>Fw 190</t>
+  </si>
+  <si>
+    <t>Do 17</t>
+  </si>
+  <si>
+    <t>Bf 110</t>
+  </si>
+  <si>
+    <t>Bf 109</t>
+  </si>
+  <si>
+    <t>Ju 86</t>
+  </si>
+  <si>
+    <t>He 112?</t>
+  </si>
+  <si>
+    <t>He 111?</t>
+  </si>
+  <si>
+    <t>** Vanilla **</t>
+  </si>
+  <si>
+    <t>Depicted is a P-47D</t>
+  </si>
+  <si>
+    <t>** Placeholder **</t>
   </si>
 </sst>
 </file>
@@ -2617,7 +2692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2625,11 +2700,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2637,14 +2727,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2949,19 +3047,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C309"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C196" sqref="C196"/>
+      <selection pane="bottomRight" activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="15" customWidth="1"/>
     <col min="3" max="3" width="136.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2969,7 +3067,7 @@
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2980,7 +3078,7 @@
       <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2988,8 +3086,8 @@
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>408</v>
+      <c r="B3" s="14" t="s">
+        <v>407</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2997,7 +3095,7 @@
       <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="2"/>
@@ -3006,7 +3104,7 @@
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C5" s="2"/>
@@ -3015,7 +3113,7 @@
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3026,7 +3124,7 @@
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>257</v>
       </c>
       <c r="C7" s="2"/>
@@ -3035,18 +3133,18 @@
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>262</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3057,7 +3155,7 @@
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3068,7 +3166,7 @@
       <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="15" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3079,7 +3177,7 @@
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="15" t="s">
         <v>259</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3090,24 +3188,30 @@
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="B13" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>452</v>
+      <c r="B15" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -3115,7 +3219,7 @@
       <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C16" s="2"/>
@@ -3124,25 +3228,30 @@
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>419</v>
+      <c r="B17" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="B18" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>456</v>
+      <c r="B19" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -3150,7 +3259,7 @@
       <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="15" t="s">
         <v>258</v>
       </c>
       <c r="C20" s="2"/>
@@ -3159,7 +3268,7 @@
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="15" t="s">
         <v>236</v>
       </c>
       <c r="C21" s="2"/>
@@ -3168,8 +3277,8 @@
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>455</v>
+      <c r="B22" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -3177,8 +3286,8 @@
       <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
-        <v>388</v>
+      <c r="B23" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -3186,19 +3295,19 @@
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>482</v>
+      <c r="B24" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>394</v>
+      <c r="B25" s="14" t="s">
+        <v>393</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -3206,8 +3315,8 @@
       <c r="A26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>393</v>
+      <c r="B26" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -3215,14 +3324,19 @@
       <c r="A27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="B27" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>458</v>
+      <c r="B28" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -3230,8 +3344,8 @@
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B29" t="s">
-        <v>409</v>
+      <c r="B29" s="15" t="s">
+        <v>408</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -3239,8 +3353,8 @@
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B30" t="s">
-        <v>402</v>
+      <c r="B30" s="15" t="s">
+        <v>401</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -3248,8 +3362,8 @@
       <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B31" t="s">
-        <v>391</v>
+      <c r="B31" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -3257,8 +3371,8 @@
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>392</v>
+      <c r="B32" s="14" t="s">
+        <v>391</v>
       </c>
       <c r="C32" s="2"/>
     </row>
@@ -3266,7 +3380,7 @@
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
@@ -3275,7 +3389,7 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2"/>
@@ -3284,7 +3398,7 @@
       <c r="A35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="16" t="s">
         <v>271</v>
       </c>
       <c r="C35" s="2"/>
@@ -3293,20 +3407,30 @@
       <c r="A36" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="B36" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="B37" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
-        <v>400</v>
+      <c r="B38" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -3314,18 +3438,18 @@
       <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>433</v>
+      <c r="C39" s="8" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="15" t="s">
         <v>272</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3336,20 +3460,28 @@
       <c r="A41" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="B41" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
+      <c r="B42" s="16" t="s">
+        <v>858</v>
+      </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>117</v>
       </c>
-      <c r="B43" t="s">
-        <v>438</v>
+      <c r="B43" s="15" t="s">
+        <v>437</v>
       </c>
       <c r="C43" s="2"/>
     </row>
@@ -3357,14 +3489,17 @@
       <c r="A44" t="s">
         <v>118</v>
       </c>
+      <c r="B44" s="15" t="s">
+        <v>852</v>
+      </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
-      <c r="B45" t="s">
-        <v>437</v>
+      <c r="B45" s="15" t="s">
+        <v>436</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -3372,7 +3507,7 @@
       <c r="A46" t="s">
         <v>120</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="15" t="s">
         <v>239</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3383,7 +3518,7 @@
       <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="15" t="s">
         <v>241</v>
       </c>
       <c r="C47" s="2"/>
@@ -3392,14 +3527,19 @@
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="B48" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>448</v>
+      <c r="B49" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -3407,8 +3547,8 @@
       <c r="A50" t="s">
         <v>124</v>
       </c>
-      <c r="B50" t="s">
-        <v>439</v>
+      <c r="B50" s="15" t="s">
+        <v>438</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -3416,14 +3556,19 @@
       <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="B51" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>469</v>
+      <c r="B52" s="16" t="s">
+        <v>468</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -3431,8 +3576,8 @@
       <c r="A53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" t="s">
-        <v>390</v>
+      <c r="B53" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -3440,13 +3585,16 @@
       <c r="A54" t="s">
         <v>128</v>
       </c>
+      <c r="B54" s="20" t="s">
+        <v>867</v>
+      </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>129</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="15" t="s">
         <v>274</v>
       </c>
       <c r="C55" s="2"/>
@@ -3455,7 +3603,7 @@
       <c r="A56" t="s">
         <v>2</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="15" t="s">
         <v>261</v>
       </c>
       <c r="C56" s="2"/>
@@ -3464,8 +3612,8 @@
       <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>480</v>
+      <c r="B57" s="16" t="s">
+        <v>478</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -3473,8 +3621,8 @@
       <c r="A58" t="s">
         <v>131</v>
       </c>
-      <c r="B58" t="s">
-        <v>410</v>
+      <c r="B58" s="15" t="s">
+        <v>409</v>
       </c>
       <c r="C58" s="2"/>
     </row>
@@ -3482,7 +3630,7 @@
       <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="2"/>
@@ -3491,14 +3639,19 @@
       <c r="A60" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="B60" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>133</v>
       </c>
-      <c r="B61" t="s">
-        <v>396</v>
+      <c r="B61" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
     </row>
@@ -3506,13 +3659,16 @@
       <c r="A62" t="s">
         <v>134</v>
       </c>
+      <c r="B62" s="20" t="s">
+        <v>867</v>
+      </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="2"/>
@@ -3521,18 +3677,18 @@
       <c r="A64" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>462</v>
+      <c r="B64" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>136</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="15" t="s">
         <v>266</v>
       </c>
       <c r="C65" s="2"/>
@@ -3541,7 +3697,7 @@
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="2"/>
@@ -3550,8 +3706,8 @@
       <c r="A67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>459</v>
+      <c r="B67" s="16" t="s">
+        <v>458</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -3559,18 +3715,18 @@
       <c r="A68" t="s">
         <v>138</v>
       </c>
-      <c r="B68" t="s">
-        <v>395</v>
+      <c r="B68" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C69" s="2"/>
@@ -3579,8 +3735,8 @@
       <c r="A70" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>403</v>
+      <c r="B70" s="18" t="s">
+        <v>402</v>
       </c>
       <c r="C70" s="2"/>
     </row>
@@ -3588,8 +3744,8 @@
       <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="B71" t="s">
-        <v>387</v>
+      <c r="B71" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="C71" s="2"/>
     </row>
@@ -3597,7 +3753,7 @@
       <c r="A72" t="s">
         <v>141</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="15" t="s">
         <v>275</v>
       </c>
       <c r="C72" s="2"/>
@@ -3606,8 +3762,8 @@
       <c r="A73" t="s">
         <v>142</v>
       </c>
-      <c r="B73" t="s">
-        <v>440</v>
+      <c r="B73" s="15" t="s">
+        <v>439</v>
       </c>
       <c r="C73" s="2"/>
     </row>
@@ -3615,7 +3771,7 @@
       <c r="A74" t="s">
         <v>143</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="15" t="s">
         <v>270</v>
       </c>
       <c r="C74" s="2"/>
@@ -3624,7 +3780,7 @@
       <c r="A75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="15" t="s">
         <v>276</v>
       </c>
       <c r="C75" s="2"/>
@@ -3633,7 +3789,7 @@
       <c r="A76" t="s">
         <v>145</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="15" t="s">
         <v>267</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3644,7 +3800,7 @@
       <c r="A77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="15" t="s">
         <v>369</v>
       </c>
       <c r="C77" s="2"/>
@@ -3653,7 +3809,7 @@
       <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="15" t="s">
         <v>269</v>
       </c>
       <c r="C78" s="2"/>
@@ -3662,8 +3818,8 @@
       <c r="A79" t="s">
         <v>148</v>
       </c>
-      <c r="B79" t="s">
-        <v>401</v>
+      <c r="B79" s="15" t="s">
+        <v>400</v>
       </c>
       <c r="C79" s="2"/>
     </row>
@@ -3671,14 +3827,17 @@
       <c r="A80" t="s">
         <v>149</v>
       </c>
+      <c r="B80" s="15" t="s">
+        <v>852</v>
+      </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>150</v>
       </c>
-      <c r="B81" t="s">
-        <v>407</v>
+      <c r="B81" s="15" t="s">
+        <v>406</v>
       </c>
       <c r="C81" s="2"/>
     </row>
@@ -3686,8 +3845,8 @@
       <c r="A82" t="s">
         <v>151</v>
       </c>
-      <c r="B82" t="s">
-        <v>389</v>
+      <c r="B82" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="C82" s="2"/>
     </row>
@@ -3695,19 +3854,19 @@
       <c r="A83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>466</v>
+      <c r="B83" s="16" t="s">
+        <v>465</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>478</v>
+        <v>855</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>463</v>
+      <c r="B84" s="16" t="s">
+        <v>462</v>
       </c>
       <c r="C84" s="2"/>
     </row>
@@ -3715,2127 +3874,2177 @@
       <c r="A85" t="s">
         <v>154</v>
       </c>
-      <c r="B85" t="s">
-        <v>421</v>
+      <c r="B85" s="16" t="s">
+        <v>420</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>433</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>469</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>421</v>
+      </c>
+      <c r="B88" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>445</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>446</v>
-      </c>
-      <c r="B89" t="s">
-        <v>447</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>452</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>453</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>425</v>
+      </c>
+      <c r="B91" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>410</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="B92" t="s">
-        <v>412</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>448</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>466</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>461</v>
-      </c>
-      <c r="B95" s="3" t="s">
         <v>460</v>
       </c>
+      <c r="B95" s="16" t="s">
+        <v>459</v>
+      </c>
       <c r="C95" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>443</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>483</v>
+      <c r="C96" s="8" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>396</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>440</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>412</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="B99" t="s">
-        <v>414</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>403</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>414</v>
+      </c>
+      <c r="B101" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="B101" t="s">
-        <v>416</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>463</v>
+      </c>
+      <c r="B102" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>853</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>867</v>
+      </c>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B105" s="13" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>159</v>
-      </c>
-      <c r="B105" t="s">
-        <v>165</v>
-      </c>
-      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>160</v>
-      </c>
-      <c r="B106" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>75</v>
-      </c>
-      <c r="B107" t="s">
-        <v>74</v>
+        <v>160</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" t="s">
-        <v>196</v>
+        <v>76</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
+        <v>161</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>162</v>
-      </c>
-      <c r="B111" t="s">
-        <v>167</v>
+        <v>7</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" t="s">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" t="s">
-        <v>197</v>
+        <v>9</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" t="s">
-        <v>198</v>
+        <v>10</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>12</v>
-      </c>
-      <c r="B115" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>16</v>
-      </c>
-      <c r="B117" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>163</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>238</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>164</v>
-      </c>
-      <c r="B120" t="s">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" t="s">
-        <v>20</v>
+        <v>164</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>21</v>
-      </c>
-      <c r="B122" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B124" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>183</v>
-      </c>
-      <c r="B126" t="s">
-        <v>193</v>
+        <v>66</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>26</v>
-      </c>
-      <c r="B127" t="s">
-        <v>27</v>
+        <v>183</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>182</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B131" s="13" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>199</v>
-      </c>
-      <c r="B131" t="s">
-        <v>325</v>
-      </c>
-      <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>309</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>371</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>194</v>
-      </c>
-      <c r="B133" t="s">
-        <v>324</v>
-      </c>
-      <c r="C133" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>310</v>
-      </c>
-      <c r="B134" t="s">
-        <v>323</v>
+        <v>194</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>324</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>311</v>
-      </c>
-      <c r="B135" t="s">
-        <v>322</v>
+        <v>310</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>312</v>
-      </c>
-      <c r="B136" t="s">
-        <v>473</v>
+        <v>311</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>322</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>313</v>
-      </c>
-      <c r="B137" t="s">
-        <v>319</v>
+        <v>312</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>472</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>314</v>
-      </c>
-      <c r="B138" t="s">
-        <v>326</v>
+        <v>313</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>315</v>
-      </c>
-      <c r="B139" t="s">
-        <v>317</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>318</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>316</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C140" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>308</v>
-      </c>
-      <c r="B141" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>307</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>330</v>
+        <v>308</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>306</v>
-      </c>
-      <c r="B143" t="s">
-        <v>328</v>
+        <v>307</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>293</v>
-      </c>
-      <c r="B144" t="s">
-        <v>294</v>
+        <v>306</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>303</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>304</v>
-      </c>
-      <c r="B146" t="s">
-        <v>327</v>
+        <v>303</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>305</v>
-      </c>
-      <c r="B147" t="s">
-        <v>372</v>
+        <v>304</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>299</v>
-      </c>
-      <c r="B148" t="s">
-        <v>300</v>
+        <v>305</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>301</v>
-      </c>
-      <c r="B149" t="s">
-        <v>370</v>
+        <v>299</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>300</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>302</v>
-      </c>
-      <c r="B150" t="s">
-        <v>321</v>
+        <v>301</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>297</v>
-      </c>
-      <c r="B151" t="s">
-        <v>298</v>
+        <v>302</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>295</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B155" s="13" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>249</v>
-      </c>
-      <c r="B155" t="s">
-        <v>250</v>
-      </c>
-      <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>245</v>
-      </c>
-      <c r="B156" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>247</v>
-      </c>
-      <c r="B157" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>287</v>
-      </c>
-      <c r="B158" t="s">
-        <v>288</v>
+        <v>247</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>374</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>375</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>36</v>
-      </c>
-      <c r="B160" t="s">
-        <v>37</v>
-      </c>
-      <c r="C160" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>291</v>
-      </c>
-      <c r="B161" t="s">
-        <v>292</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>333</v>
-      </c>
-      <c r="C162" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>334</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>472</v>
+        <v>333</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>867</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>335</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>384</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>283</v>
-      </c>
-      <c r="B165" t="s">
-        <v>284</v>
-      </c>
-      <c r="C165" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>336</v>
-      </c>
-      <c r="B166" t="s">
-        <v>373</v>
+        <v>283</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>243</v>
-      </c>
-      <c r="B167" t="s">
-        <v>244</v>
+        <v>336</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>373</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>337</v>
-      </c>
-      <c r="B168" t="s">
-        <v>380</v>
+        <v>243</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>277</v>
-      </c>
-      <c r="B169" t="s">
-        <v>278</v>
+        <v>337</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>380</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>281</v>
-      </c>
-      <c r="B170" t="s">
-        <v>282</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>535</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>280</v>
-      </c>
-      <c r="B171" t="s">
-        <v>279</v>
-      </c>
-      <c r="C171" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>280</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>251</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B175" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>338</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>484</v>
-      </c>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C177" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="C178" s="2"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>386</v>
+        <v>285</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B180" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180" s="16" t="s">
         <v>385</v>
       </c>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B181" s="3"/>
-      <c r="C181" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>228</v>
-      </c>
-      <c r="B182" t="s">
-        <v>229</v>
+      <c r="B182" s="16" t="s">
+        <v>847</v>
       </c>
       <c r="C182" s="2"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>230</v>
-      </c>
-      <c r="B183" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>343</v>
-      </c>
-      <c r="B184" t="s">
-        <v>379</v>
+        <v>230</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="C184" s="2"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>344</v>
-      </c>
-      <c r="B185" t="s">
-        <v>378</v>
+        <v>343</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>379</v>
       </c>
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>345</v>
-      </c>
-      <c r="B186" t="s">
-        <v>377</v>
+        <v>344</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>345</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>346</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B190" s="13" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>564</v>
+        <v>347</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B192" t="s">
+        <v>348</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>561</v>
+        <v>349</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B194" t="s">
+        <v>350</v>
+      </c>
+      <c r="B194" s="16" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B196" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>209</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C196" s="2"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B197" t="s">
-        <v>492</v>
-      </c>
-      <c r="C197" s="2"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B198" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>354</v>
       </c>
-      <c r="B198" t="s">
-        <v>487</v>
-      </c>
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="B199" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B199" t="s">
-        <v>488</v>
-      </c>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>356</v>
+      <c r="B200" s="15" t="s">
+        <v>486</v>
       </c>
       <c r="C200" s="2"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>202</v>
-      </c>
-      <c r="B201" t="s">
-        <v>204</v>
-      </c>
-      <c r="C201" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>357</v>
       </c>
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>358</v>
-      </c>
-      <c r="B203" t="s">
-        <v>489</v>
-      </c>
-      <c r="C203" s="2"/>
+      <c r="B203" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>359</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>474</v>
+        <v>358</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>487</v>
       </c>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>360</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>563</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>361</v>
-      </c>
-      <c r="B206" t="s">
-        <v>485</v>
+        <v>360</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>849</v>
       </c>
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>362</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>566</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>363</v>
-      </c>
-      <c r="B208" t="s">
-        <v>486</v>
+        <v>362</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>848</v>
       </c>
       <c r="C208" s="2"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>364</v>
-      </c>
-      <c r="B209" t="s">
-        <v>540</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>541</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>365</v>
-      </c>
-      <c r="B210" s="12" t="s">
-        <v>562</v>
+        <v>364</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>538</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>211</v>
-      </c>
-      <c r="B211" t="s">
-        <v>212</v>
-      </c>
-      <c r="C211" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>205</v>
-      </c>
-      <c r="B212" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>366</v>
-      </c>
-      <c r="C213" t="s">
-        <v>567</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>367</v>
-      </c>
-      <c r="B214" t="s">
-        <v>490</v>
-      </c>
-      <c r="C214" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C214" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>368</v>
-      </c>
-      <c r="B215" t="s">
-        <v>491</v>
+        <v>367</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>368</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>207</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B219" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>172</v>
-      </c>
-      <c r="B219" t="s">
-        <v>171</v>
-      </c>
-      <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>175</v>
-      </c>
-      <c r="B220" t="s">
-        <v>184</v>
+        <v>172</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="C220" s="2"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>176</v>
-      </c>
-      <c r="B221" t="s">
-        <v>186</v>
+        <v>175</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="C221" s="2"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>177</v>
-      </c>
-      <c r="B222" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>174</v>
-      </c>
-      <c r="B223" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="C223" s="2"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>178</v>
-      </c>
-      <c r="B224" t="s">
-        <v>187</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>179</v>
-      </c>
-      <c r="B225" t="s">
-        <v>188</v>
-      </c>
-      <c r="C225" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>180</v>
-      </c>
-      <c r="B226" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="C226" s="2"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>181</v>
-      </c>
-      <c r="B227" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="C227" s="2"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>181</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>169</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="2"/>
+    </row>
+    <row r="231" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B231" s="13" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>649</v>
-      </c>
-      <c r="B231" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>38</v>
-      </c>
-      <c r="B232" t="s">
-        <v>39</v>
+        <v>644</v>
+      </c>
+      <c r="B232" s="20" t="s">
+        <v>869</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>68</v>
+        <v>645</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>213</v>
-      </c>
-      <c r="B233" t="s">
-        <v>214</v>
+        <v>38</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>215</v>
+        <v>68</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>216</v>
-      </c>
-      <c r="B234" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>40</v>
-      </c>
-      <c r="B235" t="s">
-        <v>41</v>
+        <v>216</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>40</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>56</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="238" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B239" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C239" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>42</v>
-      </c>
-      <c r="B239" t="s">
-        <v>43</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>630</v>
-      </c>
-      <c r="B240" t="s">
-        <v>631</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>632</v>
+        <v>42</v>
+      </c>
+      <c r="B240" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>633</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>634</v>
+        <v>625</v>
+      </c>
+      <c r="B241" s="15" t="s">
+        <v>626</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>568</v>
-      </c>
-      <c r="B242" t="s">
-        <v>569</v>
+        <v>628</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>629</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>570</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>571</v>
-      </c>
-      <c r="B243" t="s">
-        <v>572</v>
+        <v>563</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>564</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>529</v>
-      </c>
-      <c r="B244" t="s">
-        <v>530</v>
+        <v>566</v>
+      </c>
+      <c r="B244" s="15" t="s">
+        <v>567</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>532</v>
-      </c>
-      <c r="B245" t="s">
-        <v>533</v>
+        <v>527</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>642</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>643</v>
+        <v>530</v>
+      </c>
+      <c r="B246" s="15" t="s">
+        <v>531</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>644</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>588</v>
-      </c>
-      <c r="B247" t="s">
-        <v>586</v>
+        <v>637</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>638</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>574</v>
-      </c>
-      <c r="B248" t="s">
-        <v>575</v>
+        <v>583</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>581</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>640</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>641</v>
+        <v>569</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>570</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>665</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>506</v>
-      </c>
-      <c r="B250" t="s">
-        <v>507</v>
+        <v>635</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>636</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>508</v>
+        <v>660</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>627</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>628</v>
+        <v>504</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>505</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>629</v>
+        <v>506</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>515</v>
-      </c>
-      <c r="B252" t="s">
-        <v>516</v>
+        <v>622</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>623</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>517</v>
+        <v>624</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>44</v>
-      </c>
-      <c r="B253" t="s">
-        <v>45</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>537</v>
+        <v>513</v>
+      </c>
+      <c r="B253" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>636</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>675</v>
+        <v>44</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>638</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>632</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>592</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>590</v>
+        <v>633</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>634</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>587</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="B257" t="s">
-        <v>593</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>595</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>596</v>
+        <v>584</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>588</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>651</v>
+        <v>586</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>597</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>598</v>
+        <v>590</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>591</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>526</v>
-      </c>
-      <c r="B260" t="s">
-        <v>527</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>528</v>
+        <v>592</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>542</v>
-      </c>
-      <c r="B261" t="s">
-        <v>543</v>
+        <v>524</v>
+      </c>
+      <c r="B261" s="15" t="s">
+        <v>525</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>523</v>
-      </c>
-      <c r="B262" t="s">
-        <v>524</v>
+        <v>540</v>
+      </c>
+      <c r="B262" s="15" t="s">
+        <v>541</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>493</v>
-      </c>
-      <c r="B263" t="s">
-        <v>494</v>
+        <v>521</v>
+      </c>
+      <c r="B263" s="15" t="s">
+        <v>522</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>46</v>
-      </c>
-      <c r="B264" t="s">
-        <v>47</v>
+        <v>491</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>73</v>
+        <v>493</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>48</v>
-      </c>
-      <c r="B265" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>625</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>626</v>
+        <v>48</v>
+      </c>
+      <c r="B266" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>655</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>599</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>600</v>
+        <v>620</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>621</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>601</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C268" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>604</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>654</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>605</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C270" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>621</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>666</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>623</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>617</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>658</v>
-      </c>
-      <c r="B273" t="s">
-        <v>660</v>
+        <v>618</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>619</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>512</v>
-      </c>
-      <c r="B274" t="s">
-        <v>514</v>
+        <v>653</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>655</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>513</v>
+        <v>654</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>657</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>607</v>
+        <v>510</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>512</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>656</v>
+        <v>511</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>49</v>
-      </c>
-      <c r="B276" t="s">
-        <v>50</v>
+        <v>652</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>602</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>70</v>
+        <v>651</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>521</v>
-      </c>
-      <c r="B277" t="s">
-        <v>522</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>538</v>
+        <v>49</v>
+      </c>
+      <c r="B277" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>509</v>
-      </c>
-      <c r="B278" t="s">
-        <v>511</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>510</v>
+        <v>519</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>645</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>646</v>
+        <v>507</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>509</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>661</v>
+        <v>508</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>557</v>
-      </c>
-      <c r="B280" t="s">
-        <v>558</v>
+        <v>640</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>556</v>
+        <v>656</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>555</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B281" t="s">
-        <v>555</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>51</v>
-      </c>
-      <c r="B282" t="s">
-        <v>71</v>
+        <v>552</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>69</v>
+        <v>554</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>52</v>
-      </c>
-      <c r="B283" t="s">
-        <v>72</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>539</v>
+        <v>51</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>518</v>
-      </c>
-      <c r="B284" t="s">
-        <v>520</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>519</v>
+        <v>52</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>225</v>
-      </c>
-      <c r="B285" t="s">
-        <v>226</v>
+        <v>516</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>518</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>227</v>
+        <v>517</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>503</v>
-      </c>
-      <c r="B286" t="s">
-        <v>504</v>
+        <v>225</v>
+      </c>
+      <c r="B286" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>505</v>
+        <v>227</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>663</v>
+        <v>501</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>502</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>662</v>
+        <v>503</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>222</v>
-      </c>
-      <c r="B288" t="s">
-        <v>221</v>
+        <v>658</v>
+      </c>
+      <c r="B288" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>496</v>
-      </c>
-      <c r="B289" t="s">
-        <v>497</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>674</v>
+        <v>222</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>498</v>
-      </c>
-      <c r="B290" t="s">
-        <v>499</v>
-      </c>
-      <c r="C290" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>501</v>
-      </c>
-      <c r="B291" t="s">
-        <v>502</v>
+        <v>496</v>
+      </c>
+      <c r="B291" s="15" t="s">
+        <v>497</v>
       </c>
       <c r="C291" s="2"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>611</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>612</v>
+        <v>499</v>
+      </c>
+      <c r="B292" s="15" t="s">
+        <v>500</v>
       </c>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>613</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>607</v>
       </c>
       <c r="C293" s="2"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>617</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>668</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>619</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>613</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>577</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>578</v>
+        <v>614</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>615</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>610</v>
-      </c>
-      <c r="B297" t="s">
-        <v>583</v>
+        <v>572</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>573</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>584</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>585</v>
+        <v>605</v>
+      </c>
+      <c r="B298" s="15" t="s">
+        <v>578</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>581</v>
-      </c>
-      <c r="B299" t="s">
-        <v>582</v>
-      </c>
-      <c r="C299" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="B299" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>545</v>
-      </c>
-      <c r="B300" t="s">
-        <v>546</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>553</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="B300" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>547</v>
-      </c>
-      <c r="B301" t="s">
-        <v>548</v>
+        <v>543</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>544</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>549</v>
-      </c>
-      <c r="B302" t="s">
+        <v>545</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>647</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>648</v>
+        <v>547</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>548</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>664</v>
+        <v>549</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>608</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C304" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="B304" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>615</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>673</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="C305" s="2"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>579</v>
-      </c>
-      <c r="B306" t="s">
-        <v>580</v>
+        <v>610</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>611</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>574</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>223</v>
       </c>
-      <c r="B307" t="s">
-        <v>500</v>
-      </c>
-      <c r="C307" s="2" t="s">
+      <c r="B308" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C309" s="2"/>
+      <c r="A309" t="s">
+        <v>854</v>
+      </c>
+      <c r="B309" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5845,13 +6054,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,7 +6074,7 @@
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>60</v>
@@ -5873,39 +6082,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>693</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>695</v>
+        <v>688</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>690</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B5" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -5914,19 +6123,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B8" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -5935,10 +6144,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B10" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -5947,24 +6156,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B12" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5972,31 +6181,31 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B15" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B16" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B17" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6004,226 +6213,226 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B19" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B20" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B25" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B26" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B27" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B28" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B29" t="s">
-        <v>711</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>844</v>
+        <v>706</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B30" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B31" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B33" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B36" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B40" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B41" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -6232,13 +6441,13 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B43" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6246,39 +6455,39 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B45" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B46" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B47" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -6287,19 +6496,19 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B50" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -6308,19 +6517,19 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B53" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>803</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>814</v>
+        <v>798</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>809</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -6330,24 +6539,24 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B57" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6355,35 +6564,35 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B60" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B61" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6391,24 +6600,24 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B63" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B64" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6416,54 +6625,60 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B66" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>807</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>802</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>820</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>815</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>818</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>813</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B71" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6471,42 +6686,42 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B73" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B74" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B75" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B76" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6514,10 +6729,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>805</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>806</v>
+        <v>800</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>801</v>
       </c>
       <c r="C78" s="2"/>
     </row>
@@ -6526,96 +6741,106 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>823</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>818</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B81" t="s">
-        <v>755</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="2"/>
+      <c r="A82" t="s">
+        <v>842</v>
+      </c>
+      <c r="B82" t="s">
+        <v>843</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>746</v>
-      </c>
-      <c r="B83" t="s">
-        <v>747</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>748</v>
-      </c>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="2"/>
+      <c r="A84" t="s">
+        <v>741</v>
+      </c>
+      <c r="B84" t="s">
+        <v>742</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>716</v>
-      </c>
-      <c r="B85" t="s">
-        <v>717</v>
-      </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>711</v>
+      </c>
+      <c r="B86" t="s">
+        <v>712</v>
+      </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>838</v>
-      </c>
-      <c r="B87" t="s">
-        <v>839</v>
-      </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B88" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>831</v>
+      </c>
+      <c r="B89" t="s">
+        <v>832</v>
+      </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>685</v>
-      </c>
-      <c r="B90" t="s">
-        <v>686</v>
-      </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
+      <c r="A91" t="s">
+        <v>680</v>
+      </c>
+      <c r="B91" t="s">
+        <v>681</v>
+      </c>
+      <c r="C91" s="6"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>703</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>704</v>
-      </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>698</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,6 +6875,9 @@
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air units" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="886">
   <si>
     <t>A0039</t>
   </si>
@@ -2328,9 +2328,6 @@
     <t>SdKfz-222 Armored Car</t>
   </si>
   <si>
-    <t>1941 shot, Eastern Front</t>
-  </si>
-  <si>
     <t>GP0124</t>
   </si>
   <si>
@@ -2626,6 +2623,57 @@
   </si>
   <si>
     <t>** Placeholder **</t>
+  </si>
+  <si>
+    <t>GP0031</t>
+  </si>
+  <si>
+    <t>Stug IIIG</t>
+  </si>
+  <si>
+    <t>GP0029</t>
+  </si>
+  <si>
+    <t>StuH 42</t>
+  </si>
+  <si>
+    <t>GP0030</t>
+  </si>
+  <si>
+    <t>Stug IIIF</t>
+  </si>
+  <si>
+    <t>GP0012</t>
+  </si>
+  <si>
+    <t>Flammpanzer III</t>
+  </si>
+  <si>
+    <t>1941 shot, Eastern Front. Image GP0054 is also used for SdKfz-223 - patch 1.08.08</t>
+  </si>
+  <si>
+    <t>GP0065</t>
+  </si>
+  <si>
+    <t>Sd.Kfz. 251/1 Ausf. D MG carrier</t>
+  </si>
+  <si>
+    <t>Image is actually a SdKz 251/1 C model (as does Vanilla). It seems the regular D model is reffered to, rather than the infrared equipped version</t>
+  </si>
+  <si>
+    <t>GP0461</t>
+  </si>
+  <si>
+    <t>GP0126</t>
+  </si>
+  <si>
+    <t>Sd.Kfz. 251/9 Ausf. D  (early)</t>
+  </si>
+  <si>
+    <t>Sd.Kfz. 251/9 Ausf. D (late)</t>
+  </si>
+  <si>
+    <t>Note the upper side shields surrounding the K51 gun, in contrast to the early version carrying an L/24 gun</t>
   </si>
 </sst>
 </file>
@@ -2719,7 +2767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2727,10 +2775,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3049,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B232" sqref="B232"/>
@@ -3059,7 +3106,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="14" customWidth="1"/>
     <col min="3" max="3" width="136.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3067,7 +3114,7 @@
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3078,7 +3125,7 @@
       <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3086,7 +3133,7 @@
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>407</v>
       </c>
       <c r="C3" s="2"/>
@@ -3095,7 +3142,7 @@
       <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="2"/>
@@ -3104,7 +3151,7 @@
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C5" s="2"/>
@@ -3113,7 +3160,7 @@
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3124,7 +3171,7 @@
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C7" s="2"/>
@@ -3133,7 +3180,7 @@
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>428</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3144,7 +3191,7 @@
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>262</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3155,7 +3202,7 @@
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3166,7 +3213,7 @@
       <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3177,7 +3224,7 @@
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>259</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3188,18 +3235,18 @@
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>867</v>
+      <c r="B13" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>430</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3210,7 +3257,7 @@
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>451</v>
       </c>
       <c r="C15" s="2"/>
@@ -3219,7 +3266,7 @@
       <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C16" s="2"/>
@@ -3228,7 +3275,7 @@
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>418</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3239,18 +3286,18 @@
       <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>867</v>
+      <c r="B18" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>455</v>
       </c>
       <c r="C19" s="2"/>
@@ -3259,7 +3306,7 @@
       <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>258</v>
       </c>
       <c r="C20" s="2"/>
@@ -3268,7 +3315,7 @@
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>236</v>
       </c>
       <c r="C21" s="2"/>
@@ -3277,7 +3324,7 @@
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>454</v>
       </c>
       <c r="C22" s="2"/>
@@ -3286,7 +3333,7 @@
       <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>387</v>
       </c>
       <c r="C23" s="2"/>
@@ -3295,10 +3342,10 @@
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>480</v>
       </c>
     </row>
@@ -3306,7 +3353,7 @@
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>393</v>
       </c>
       <c r="C25" s="2"/>
@@ -3315,7 +3362,7 @@
       <c r="A26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>392</v>
       </c>
       <c r="C26" s="2"/>
@@ -3324,18 +3371,18 @@
       <c r="A27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>867</v>
+      <c r="B27" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>457</v>
       </c>
       <c r="C28" s="2"/>
@@ -3344,7 +3391,7 @@
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>408</v>
       </c>
       <c r="C29" s="2"/>
@@ -3353,7 +3400,7 @@
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>401</v>
       </c>
       <c r="C30" s="2"/>
@@ -3362,7 +3409,7 @@
       <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>390</v>
       </c>
       <c r="C31" s="2"/>
@@ -3371,7 +3418,7 @@
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>391</v>
       </c>
       <c r="C32" s="2"/>
@@ -3380,7 +3427,7 @@
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
@@ -3389,7 +3436,7 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2"/>
@@ -3398,7 +3445,7 @@
       <c r="A35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>271</v>
       </c>
       <c r="C35" s="2"/>
@@ -3407,29 +3454,29 @@
       <c r="A36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>867</v>
+      <c r="B36" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>867</v>
+      <c r="B37" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>399</v>
       </c>
       <c r="C38" s="2"/>
@@ -3438,10 +3485,10 @@
       <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>432</v>
       </c>
     </row>
@@ -3449,7 +3496,7 @@
       <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>272</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3460,19 +3507,19 @@
       <c r="A41" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>867</v>
+      <c r="B41" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>858</v>
+      <c r="B42" s="15" t="s">
+        <v>857</v>
       </c>
       <c r="C42" s="2"/>
     </row>
@@ -3480,7 +3527,7 @@
       <c r="A43" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>437</v>
       </c>
       <c r="C43" s="2"/>
@@ -3489,8 +3536,8 @@
       <c r="A44" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>852</v>
+      <c r="B44" s="14" t="s">
+        <v>851</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -3498,7 +3545,7 @@
       <c r="A45" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>436</v>
       </c>
       <c r="C45" s="2"/>
@@ -3507,7 +3554,7 @@
       <c r="A46" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>239</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3518,7 +3565,7 @@
       <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C47" s="2"/>
@@ -3527,18 +3574,18 @@
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>867</v>
+      <c r="B48" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>447</v>
       </c>
       <c r="C49" s="2"/>
@@ -3547,7 +3594,7 @@
       <c r="A50" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>438</v>
       </c>
       <c r="C50" s="2"/>
@@ -3556,18 +3603,18 @@
       <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>867</v>
+      <c r="B51" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>468</v>
       </c>
       <c r="C52" s="2"/>
@@ -3576,7 +3623,7 @@
       <c r="A53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>389</v>
       </c>
       <c r="C53" s="2"/>
@@ -3585,8 +3632,8 @@
       <c r="A54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>867</v>
+      <c r="B54" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -3594,7 +3641,7 @@
       <c r="A55" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>274</v>
       </c>
       <c r="C55" s="2"/>
@@ -3603,7 +3650,7 @@
       <c r="A56" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>261</v>
       </c>
       <c r="C56" s="2"/>
@@ -3612,7 +3659,7 @@
       <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>478</v>
       </c>
       <c r="C57" s="2"/>
@@ -3621,7 +3668,7 @@
       <c r="A58" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>409</v>
       </c>
       <c r="C58" s="2"/>
@@ -3630,7 +3677,7 @@
       <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="2"/>
@@ -3639,18 +3686,18 @@
       <c r="A60" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>867</v>
+      <c r="B60" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>395</v>
       </c>
       <c r="C61" s="2"/>
@@ -3659,8 +3706,8 @@
       <c r="A62" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="20" t="s">
-        <v>867</v>
+      <c r="B62" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C62" s="2"/>
     </row>
@@ -3668,7 +3715,7 @@
       <c r="A63" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="2"/>
@@ -3677,7 +3724,7 @@
       <c r="A64" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>461</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3688,7 +3735,7 @@
       <c r="A65" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C65" s="2"/>
@@ -3697,7 +3744,7 @@
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="2"/>
@@ -3706,7 +3753,7 @@
       <c r="A67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>458</v>
       </c>
       <c r="C67" s="2"/>
@@ -3715,7 +3762,7 @@
       <c r="A68" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>394</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3726,7 +3773,7 @@
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C69" s="2"/>
@@ -3735,7 +3782,7 @@
       <c r="A70" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>402</v>
       </c>
       <c r="C70" s="2"/>
@@ -3744,7 +3791,7 @@
       <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>386</v>
       </c>
       <c r="C71" s="2"/>
@@ -3753,7 +3800,7 @@
       <c r="A72" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>275</v>
       </c>
       <c r="C72" s="2"/>
@@ -3762,7 +3809,7 @@
       <c r="A73" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>439</v>
       </c>
       <c r="C73" s="2"/>
@@ -3771,7 +3818,7 @@
       <c r="A74" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>270</v>
       </c>
       <c r="C74" s="2"/>
@@ -3780,7 +3827,7 @@
       <c r="A75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>276</v>
       </c>
       <c r="C75" s="2"/>
@@ -3789,7 +3836,7 @@
       <c r="A76" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>267</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3800,7 +3847,7 @@
       <c r="A77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>369</v>
       </c>
       <c r="C77" s="2"/>
@@ -3809,7 +3856,7 @@
       <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>269</v>
       </c>
       <c r="C78" s="2"/>
@@ -3818,7 +3865,7 @@
       <c r="A79" t="s">
         <v>148</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>400</v>
       </c>
       <c r="C79" s="2"/>
@@ -3827,8 +3874,8 @@
       <c r="A80" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>852</v>
+      <c r="B80" s="14" t="s">
+        <v>851</v>
       </c>
       <c r="C80" s="2"/>
     </row>
@@ -3836,7 +3883,7 @@
       <c r="A81" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>406</v>
       </c>
       <c r="C81" s="2"/>
@@ -3845,7 +3892,7 @@
       <c r="A82" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>388</v>
       </c>
       <c r="C82" s="2"/>
@@ -3854,18 +3901,18 @@
       <c r="A83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>465</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>462</v>
       </c>
       <c r="C84" s="2"/>
@@ -3874,7 +3921,7 @@
       <c r="A85" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>420</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -3885,7 +3932,7 @@
       <c r="A86" t="s">
         <v>433</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>434</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3896,7 +3943,7 @@
       <c r="A87" t="s">
         <v>469</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>470</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3907,7 +3954,7 @@
       <c r="A88" t="s">
         <v>421</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>422</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3918,7 +3965,7 @@
       <c r="A89" t="s">
         <v>445</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>446</v>
       </c>
       <c r="C89" s="2"/>
@@ -3927,7 +3974,7 @@
       <c r="A90" t="s">
         <v>452</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>453</v>
       </c>
       <c r="C90" s="2"/>
@@ -3936,7 +3983,7 @@
       <c r="A91" t="s">
         <v>425</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>426</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -3947,7 +3994,7 @@
       <c r="A92" t="s">
         <v>410</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>411</v>
       </c>
       <c r="C92" s="2"/>
@@ -3956,7 +4003,7 @@
       <c r="A93" t="s">
         <v>448</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>449</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3967,7 +4014,7 @@
       <c r="A94" t="s">
         <v>466</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>467</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3978,7 +4025,7 @@
       <c r="A95" t="s">
         <v>460</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>459</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3989,10 +4036,10 @@
       <c r="A96" t="s">
         <v>443</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>481</v>
       </c>
     </row>
@@ -4000,7 +4047,7 @@
       <c r="A97" t="s">
         <v>396</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="14" t="s">
         <v>397</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -4011,7 +4058,7 @@
       <c r="A98" t="s">
         <v>440</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>441</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -4022,7 +4069,7 @@
       <c r="A99" t="s">
         <v>412</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>413</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -4033,7 +4080,7 @@
       <c r="A100" t="s">
         <v>403</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>404</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -4044,7 +4091,7 @@
       <c r="A101" t="s">
         <v>414</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>415</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -4055,17 +4102,17 @@
       <c r="A102" t="s">
         <v>463</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>464</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>853</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>867</v>
+        <v>852</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C103" s="2"/>
     </row>
@@ -4076,7 +4123,7 @@
       <c r="A105" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4084,7 +4131,7 @@
       <c r="A106" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="14" t="s">
         <v>165</v>
       </c>
       <c r="C106" s="2"/>
@@ -4093,7 +4140,7 @@
       <c r="A107" t="s">
         <v>160</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="14" t="s">
         <v>201</v>
       </c>
       <c r="C107" s="2"/>
@@ -4102,7 +4149,7 @@
       <c r="A108" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C108" s="2"/>
@@ -4111,7 +4158,7 @@
       <c r="A109" t="s">
         <v>76</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C109" s="2"/>
@@ -4120,7 +4167,7 @@
       <c r="A110" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="14" t="s">
         <v>196</v>
       </c>
       <c r="C110" s="2"/>
@@ -4129,7 +4176,7 @@
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="2"/>
@@ -4138,7 +4185,7 @@
       <c r="A112" t="s">
         <v>162</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C112" s="2"/>
@@ -4147,7 +4194,7 @@
       <c r="A113" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C113" s="2"/>
@@ -4156,7 +4203,7 @@
       <c r="A114" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="14" t="s">
         <v>197</v>
       </c>
       <c r="C114" s="2"/>
@@ -4165,7 +4212,7 @@
       <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C115" s="2"/>
@@ -4174,7 +4221,7 @@
       <c r="A116" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="2"/>
@@ -4183,7 +4230,7 @@
       <c r="A117" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="2"/>
@@ -4192,7 +4239,7 @@
       <c r="A118" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="2"/>
@@ -4209,7 +4256,7 @@
       <c r="A120" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C120" s="2"/>
@@ -4218,7 +4265,7 @@
       <c r="A121" t="s">
         <v>164</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="14" t="s">
         <v>200</v>
       </c>
       <c r="C121" s="2"/>
@@ -4227,7 +4274,7 @@
       <c r="A122" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="2"/>
@@ -4236,7 +4283,7 @@
       <c r="A123" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="2"/>
@@ -4245,7 +4292,7 @@
       <c r="A124" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="2"/>
@@ -4254,7 +4301,7 @@
       <c r="A125" t="s">
         <v>25</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="2"/>
@@ -4263,7 +4310,7 @@
       <c r="A126" t="s">
         <v>66</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C126" s="2"/>
@@ -4272,7 +4319,7 @@
       <c r="A127" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C127" s="2"/>
@@ -4281,7 +4328,7 @@
       <c r="A128" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C128" s="2"/>
@@ -4290,7 +4337,7 @@
       <c r="A129" t="s">
         <v>182</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="14" t="s">
         <v>192</v>
       </c>
       <c r="C129" s="2"/>
@@ -4302,7 +4349,7 @@
       <c r="A131" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4310,7 +4357,7 @@
       <c r="A132" t="s">
         <v>199</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>325</v>
       </c>
       <c r="C132" s="2"/>
@@ -4319,8 +4366,8 @@
       <c r="A133" t="s">
         <v>309</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>867</v>
+      <c r="B133" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>371</v>
@@ -4330,7 +4377,7 @@
       <c r="A134" t="s">
         <v>194</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="14" t="s">
         <v>324</v>
       </c>
       <c r="C134" s="2"/>
@@ -4339,7 +4386,7 @@
       <c r="A135" t="s">
         <v>310</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
         <v>323</v>
       </c>
       <c r="C135" s="2"/>
@@ -4348,7 +4395,7 @@
       <c r="A136" t="s">
         <v>311</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="14" t="s">
         <v>322</v>
       </c>
       <c r="C136" s="2"/>
@@ -4357,7 +4404,7 @@
       <c r="A137" t="s">
         <v>312</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="14" t="s">
         <v>472</v>
       </c>
       <c r="C137" s="2"/>
@@ -4366,7 +4413,7 @@
       <c r="A138" t="s">
         <v>313</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="14" t="s">
         <v>319</v>
       </c>
       <c r="C138" s="2"/>
@@ -4375,7 +4422,7 @@
       <c r="A139" t="s">
         <v>314</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="14" t="s">
         <v>326</v>
       </c>
       <c r="C139" s="2"/>
@@ -4384,7 +4431,7 @@
       <c r="A140" t="s">
         <v>315</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="14" t="s">
         <v>317</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4395,7 +4442,7 @@
       <c r="A141" t="s">
         <v>316</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="15" t="s">
         <v>329</v>
       </c>
       <c r="C141" s="2"/>
@@ -4404,7 +4451,7 @@
       <c r="A142" t="s">
         <v>308</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="14" t="s">
         <v>320</v>
       </c>
       <c r="C142" s="2"/>
@@ -4413,7 +4460,7 @@
       <c r="A143" t="s">
         <v>307</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="15" t="s">
         <v>330</v>
       </c>
       <c r="C143" s="2"/>
@@ -4422,7 +4469,7 @@
       <c r="A144" t="s">
         <v>306</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="14" t="s">
         <v>328</v>
       </c>
       <c r="C144" s="2"/>
@@ -4431,7 +4478,7 @@
       <c r="A145" t="s">
         <v>293</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="14" t="s">
         <v>294</v>
       </c>
       <c r="C145" s="2"/>
@@ -4440,7 +4487,7 @@
       <c r="A146" t="s">
         <v>303</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="15" t="s">
         <v>331</v>
       </c>
       <c r="C146" s="2"/>
@@ -4449,7 +4496,7 @@
       <c r="A147" t="s">
         <v>304</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="14" t="s">
         <v>327</v>
       </c>
       <c r="C147" s="2"/>
@@ -4458,7 +4505,7 @@
       <c r="A148" t="s">
         <v>305</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="14" t="s">
         <v>372</v>
       </c>
       <c r="C148" s="2"/>
@@ -4467,7 +4514,7 @@
       <c r="A149" t="s">
         <v>299</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="14" t="s">
         <v>300</v>
       </c>
       <c r="C149" s="2"/>
@@ -4476,7 +4523,7 @@
       <c r="A150" t="s">
         <v>301</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="14" t="s">
         <v>370</v>
       </c>
       <c r="C150" s="2"/>
@@ -4485,7 +4532,7 @@
       <c r="A151" t="s">
         <v>302</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="14" t="s">
         <v>321</v>
       </c>
       <c r="C151" s="2"/>
@@ -4494,7 +4541,7 @@
       <c r="A152" t="s">
         <v>297</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="14" t="s">
         <v>298</v>
       </c>
       <c r="C152" s="2"/>
@@ -4503,7 +4550,7 @@
       <c r="A153" t="s">
         <v>295</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="14" t="s">
         <v>296</v>
       </c>
       <c r="C153" s="2"/>
@@ -4515,7 +4562,7 @@
       <c r="A155" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="12" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4523,7 +4570,7 @@
       <c r="A156" t="s">
         <v>249</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C156" s="2"/>
@@ -4532,7 +4579,7 @@
       <c r="A157" t="s">
         <v>245</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C157" s="2"/>
@@ -4541,7 +4588,7 @@
       <c r="A158" t="s">
         <v>247</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="14" t="s">
         <v>248</v>
       </c>
       <c r="C158" s="2"/>
@@ -4550,7 +4597,7 @@
       <c r="A159" t="s">
         <v>287</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="14" t="s">
         <v>288</v>
       </c>
       <c r="C159" s="2"/>
@@ -4559,8 +4606,8 @@
       <c r="A160" t="s">
         <v>374</v>
       </c>
-      <c r="B160" s="20" t="s">
-        <v>869</v>
+      <c r="B160" s="19" t="s">
+        <v>868</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>375</v>
@@ -4570,7 +4617,7 @@
       <c r="A161" t="s">
         <v>36</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C161" s="2"/>
@@ -4579,7 +4626,7 @@
       <c r="A162" t="s">
         <v>291</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="14" t="s">
         <v>292</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -4590,8 +4637,8 @@
       <c r="A163" t="s">
         <v>333</v>
       </c>
-      <c r="B163" s="20" t="s">
-        <v>867</v>
+      <c r="B163" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C163" s="2"/>
     </row>
@@ -4599,7 +4646,7 @@
       <c r="A164" t="s">
         <v>334</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="15" t="s">
         <v>471</v>
       </c>
       <c r="C164" s="2"/>
@@ -4608,8 +4655,8 @@
       <c r="A165" t="s">
         <v>335</v>
       </c>
-      <c r="B165" s="20" t="s">
-        <v>867</v>
+      <c r="B165" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>383</v>
@@ -4619,7 +4666,7 @@
       <c r="A166" t="s">
         <v>283</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="14" t="s">
         <v>284</v>
       </c>
       <c r="C166" s="2"/>
@@ -4628,7 +4675,7 @@
       <c r="A167" t="s">
         <v>336</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C167" s="2"/>
@@ -4637,7 +4684,7 @@
       <c r="A168" t="s">
         <v>243</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="14" t="s">
         <v>244</v>
       </c>
       <c r="C168" s="2"/>
@@ -4646,7 +4693,7 @@
       <c r="A169" t="s">
         <v>337</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="14" t="s">
         <v>380</v>
       </c>
       <c r="C169" s="2"/>
@@ -4655,7 +4702,7 @@
       <c r="A170" t="s">
         <v>277</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="14" t="s">
         <v>278</v>
       </c>
       <c r="C170" s="2"/>
@@ -4664,10 +4711,10 @@
       <c r="A171" t="s">
         <v>281</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="9" t="s">
         <v>533</v>
       </c>
     </row>
@@ -4675,7 +4722,7 @@
       <c r="A172" t="s">
         <v>280</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="14" t="s">
         <v>279</v>
       </c>
       <c r="C172" s="2"/>
@@ -4684,7 +4731,7 @@
       <c r="A173" t="s">
         <v>251</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="B173" s="14" t="s">
         <v>252</v>
       </c>
       <c r="C173" s="2"/>
@@ -4693,7 +4740,7 @@
       <c r="A174" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="15" t="s">
         <v>254</v>
       </c>
       <c r="C174" s="2"/>
@@ -4702,7 +4749,7 @@
       <c r="A175" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B175" s="15" t="s">
         <v>256</v>
       </c>
       <c r="C175" s="2"/>
@@ -4711,7 +4758,7 @@
       <c r="A176" t="s">
         <v>338</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="14" t="s">
         <v>376</v>
       </c>
       <c r="C176" s="2"/>
@@ -4720,7 +4767,7 @@
       <c r="A177" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -4731,7 +4778,7 @@
       <c r="A178" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="15" t="s">
         <v>290</v>
       </c>
       <c r="C178" s="2"/>
@@ -4740,7 +4787,7 @@
       <c r="A179" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B179" s="15" t="s">
         <v>286</v>
       </c>
       <c r="C179" s="2"/>
@@ -4749,7 +4796,7 @@
       <c r="A180" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B180" s="15" t="s">
         <v>385</v>
       </c>
       <c r="C180" s="2"/>
@@ -4758,7 +4805,7 @@
       <c r="A181" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="15" t="s">
         <v>384</v>
       </c>
       <c r="C181" s="2"/>
@@ -4767,8 +4814,8 @@
       <c r="A182" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B182" s="16" t="s">
-        <v>847</v>
+      <c r="B182" s="15" t="s">
+        <v>846</v>
       </c>
       <c r="C182" s="2"/>
     </row>
@@ -4776,7 +4823,7 @@
       <c r="A183" t="s">
         <v>228</v>
       </c>
-      <c r="B183" s="15" t="s">
+      <c r="B183" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C183" s="2"/>
@@ -4785,7 +4832,7 @@
       <c r="A184" t="s">
         <v>230</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="B184" s="14" t="s">
         <v>231</v>
       </c>
       <c r="C184" s="2"/>
@@ -4794,7 +4841,7 @@
       <c r="A185" t="s">
         <v>343</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="14" t="s">
         <v>379</v>
       </c>
       <c r="C185" s="2"/>
@@ -4803,7 +4850,7 @@
       <c r="A186" t="s">
         <v>344</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="14" t="s">
         <v>378</v>
       </c>
       <c r="C186" s="2"/>
@@ -4812,7 +4859,7 @@
       <c r="A187" t="s">
         <v>345</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="14" t="s">
         <v>377</v>
       </c>
       <c r="C187" s="2"/>
@@ -4821,7 +4868,7 @@
       <c r="A188" t="s">
         <v>346</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="14" t="s">
         <v>381</v>
       </c>
       <c r="C188" s="2"/>
@@ -4833,7 +4880,7 @@
       <c r="A190" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="12" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4841,16 +4888,16 @@
       <c r="A191" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B191" s="20" t="s">
-        <v>867</v>
+      <c r="B191" s="19" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B192" s="20" t="s">
-        <v>869</v>
+      <c r="B192" s="19" t="s">
+        <v>868</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>560</v>
@@ -4860,7 +4907,7 @@
       <c r="A193" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="B193" s="14" t="s">
         <v>558</v>
       </c>
     </row>
@@ -4868,7 +4915,7 @@
       <c r="A194" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B194" s="16" t="s">
+      <c r="B194" s="15" t="s">
         <v>559</v>
       </c>
     </row>
@@ -4876,7 +4923,7 @@
       <c r="A195" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B195" s="15" t="s">
+      <c r="B195" s="14" t="s">
         <v>557</v>
       </c>
     </row>
@@ -4884,8 +4931,8 @@
       <c r="A196" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B196" s="20" t="s">
-        <v>867</v>
+      <c r="B196" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>714</v>
@@ -4895,7 +4942,7 @@
       <c r="A197" t="s">
         <v>209</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="14" t="s">
         <v>210</v>
       </c>
       <c r="C197" s="2"/>
@@ -4904,7 +4951,7 @@
       <c r="A198" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B198" s="15" t="s">
+      <c r="B198" s="14" t="s">
         <v>490</v>
       </c>
       <c r="C198" s="2"/>
@@ -4913,7 +4960,7 @@
       <c r="A199" t="s">
         <v>354</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="14" t="s">
         <v>485</v>
       </c>
       <c r="C199" s="2"/>
@@ -4922,7 +4969,7 @@
       <c r="A200" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B200" s="15" t="s">
+      <c r="B200" s="14" t="s">
         <v>486</v>
       </c>
       <c r="C200" s="2"/>
@@ -4931,18 +4978,18 @@
       <c r="A201" t="s">
         <v>356</v>
       </c>
-      <c r="B201" s="16" t="s">
-        <v>850</v>
+      <c r="B201" s="15" t="s">
+        <v>849</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="B202" s="14" t="s">
         <v>204</v>
       </c>
       <c r="C202" s="2"/>
@@ -4951,18 +4998,18 @@
       <c r="A203" t="s">
         <v>357</v>
       </c>
-      <c r="B203" s="16" t="s">
-        <v>851</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>857</v>
+      <c r="B203" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>358</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="B204" s="14" t="s">
         <v>487</v>
       </c>
       <c r="C204" s="2"/>
@@ -4971,7 +5018,7 @@
       <c r="A205" t="s">
         <v>359</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="B205" s="15" t="s">
         <v>473</v>
       </c>
       <c r="C205" s="2"/>
@@ -4980,8 +5027,8 @@
       <c r="A206" t="s">
         <v>360</v>
       </c>
-      <c r="B206" s="17" t="s">
-        <v>849</v>
+      <c r="B206" s="16" t="s">
+        <v>848</v>
       </c>
       <c r="C206" s="2"/>
     </row>
@@ -4989,7 +5036,7 @@
       <c r="A207" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="B207" s="14" t="s">
         <v>483</v>
       </c>
       <c r="C207" s="2"/>
@@ -4998,8 +5045,8 @@
       <c r="A208" t="s">
         <v>362</v>
       </c>
-      <c r="B208" s="16" t="s">
-        <v>848</v>
+      <c r="B208" s="15" t="s">
+        <v>847</v>
       </c>
       <c r="C208" s="2"/>
     </row>
@@ -5007,7 +5054,7 @@
       <c r="A209" t="s">
         <v>363</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="B209" s="14" t="s">
         <v>484</v>
       </c>
       <c r="C209" s="2"/>
@@ -5016,7 +5063,7 @@
       <c r="A210" t="s">
         <v>364</v>
       </c>
-      <c r="B210" s="15" t="s">
+      <c r="B210" s="14" t="s">
         <v>538</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -5027,8 +5074,8 @@
       <c r="A211" t="s">
         <v>365</v>
       </c>
-      <c r="B211" s="20" t="s">
-        <v>869</v>
+      <c r="B211" s="19" t="s">
+        <v>868</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>561</v>
@@ -5038,7 +5085,7 @@
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="15" t="s">
+      <c r="B212" s="14" t="s">
         <v>212</v>
       </c>
       <c r="C212" s="2"/>
@@ -5047,7 +5094,7 @@
       <c r="A213" t="s">
         <v>205</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="B213" s="14" t="s">
         <v>208</v>
       </c>
       <c r="C213" s="2"/>
@@ -5056,8 +5103,8 @@
       <c r="A214" t="s">
         <v>366</v>
       </c>
-      <c r="B214" s="20" t="s">
-        <v>867</v>
+      <c r="B214" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C214" t="s">
         <v>562</v>
@@ -5067,7 +5114,7 @@
       <c r="A215" t="s">
         <v>367</v>
       </c>
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="14" t="s">
         <v>488</v>
       </c>
       <c r="C215" s="2"/>
@@ -5076,7 +5123,7 @@
       <c r="A216" t="s">
         <v>368</v>
       </c>
-      <c r="B216" s="15" t="s">
+      <c r="B216" s="14" t="s">
         <v>489</v>
       </c>
       <c r="C216" s="2"/>
@@ -5085,7 +5132,7 @@
       <c r="A217" t="s">
         <v>207</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C217" s="2"/>
@@ -5097,7 +5144,7 @@
       <c r="A219" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="B219" s="12" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5105,7 +5152,7 @@
       <c r="A220" t="s">
         <v>172</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C220" s="2"/>
@@ -5114,7 +5161,7 @@
       <c r="A221" t="s">
         <v>175</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="14" t="s">
         <v>184</v>
       </c>
       <c r="C221" s="2"/>
@@ -5123,7 +5170,7 @@
       <c r="A222" t="s">
         <v>176</v>
       </c>
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="14" t="s">
         <v>186</v>
       </c>
       <c r="C222" s="2"/>
@@ -5132,7 +5179,7 @@
       <c r="A223" t="s">
         <v>177</v>
       </c>
-      <c r="B223" s="15" t="s">
+      <c r="B223" s="14" t="s">
         <v>185</v>
       </c>
       <c r="C223" s="2"/>
@@ -5141,7 +5188,7 @@
       <c r="A224" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="15" t="s">
+      <c r="B224" s="14" t="s">
         <v>173</v>
       </c>
       <c r="C224" s="2"/>
@@ -5150,7 +5197,7 @@
       <c r="A225" t="s">
         <v>178</v>
       </c>
-      <c r="B225" s="15" t="s">
+      <c r="B225" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -5161,7 +5208,7 @@
       <c r="A226" t="s">
         <v>179</v>
       </c>
-      <c r="B226" s="15" t="s">
+      <c r="B226" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C226" s="2"/>
@@ -5170,7 +5217,7 @@
       <c r="A227" t="s">
         <v>180</v>
       </c>
-      <c r="B227" s="15" t="s">
+      <c r="B227" s="14" t="s">
         <v>190</v>
       </c>
       <c r="C227" s="2"/>
@@ -5179,7 +5226,7 @@
       <c r="A228" t="s">
         <v>181</v>
       </c>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="14" t="s">
         <v>191</v>
       </c>
       <c r="C228" s="2"/>
@@ -5188,7 +5235,7 @@
       <c r="A229" t="s">
         <v>169</v>
       </c>
-      <c r="B229" s="15" t="s">
+      <c r="B229" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C229" s="2"/>
@@ -5200,7 +5247,7 @@
       <c r="A231" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B231" s="13" t="s">
+      <c r="B231" s="12" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5208,8 +5255,8 @@
       <c r="A232" t="s">
         <v>644</v>
       </c>
-      <c r="B232" s="20" t="s">
-        <v>869</v>
+      <c r="B232" s="19" t="s">
+        <v>868</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>645</v>
@@ -5219,7 +5266,7 @@
       <c r="A233" t="s">
         <v>38</v>
       </c>
-      <c r="B233" s="15" t="s">
+      <c r="B233" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -5230,7 +5277,7 @@
       <c r="A234" t="s">
         <v>213</v>
       </c>
-      <c r="B234" s="15" t="s">
+      <c r="B234" s="14" t="s">
         <v>214</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -5241,7 +5288,7 @@
       <c r="A235" t="s">
         <v>216</v>
       </c>
-      <c r="B235" s="15" t="s">
+      <c r="B235" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -5252,7 +5299,7 @@
       <c r="A236" t="s">
         <v>40</v>
       </c>
-      <c r="B236" s="15" t="s">
+      <c r="B236" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -5263,7 +5310,7 @@
       <c r="A237" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="B237" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -5274,7 +5321,7 @@
       <c r="A238" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B238" s="16" t="s">
+      <c r="B238" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C238" s="6" t="s">
@@ -5285,7 +5332,7 @@
       <c r="A239" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B239" s="16" t="s">
+      <c r="B239" s="15" t="s">
         <v>219</v>
       </c>
       <c r="C239" s="6" t="s">
@@ -5296,10 +5343,10 @@
       <c r="A240" t="s">
         <v>42</v>
       </c>
-      <c r="B240" s="15" t="s">
+      <c r="B240" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="C240" s="9" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5307,7 +5354,7 @@
       <c r="A241" t="s">
         <v>625</v>
       </c>
-      <c r="B241" s="15" t="s">
+      <c r="B241" s="14" t="s">
         <v>626</v>
       </c>
       <c r="C241" s="6" t="s">
@@ -5318,7 +5365,7 @@
       <c r="A242" t="s">
         <v>628</v>
       </c>
-      <c r="B242" s="16" t="s">
+      <c r="B242" s="15" t="s">
         <v>629</v>
       </c>
       <c r="C242" s="6" t="s">
@@ -5329,7 +5376,7 @@
       <c r="A243" t="s">
         <v>563</v>
       </c>
-      <c r="B243" s="15" t="s">
+      <c r="B243" s="14" t="s">
         <v>564</v>
       </c>
       <c r="C243" s="6" t="s">
@@ -5340,7 +5387,7 @@
       <c r="A244" t="s">
         <v>566</v>
       </c>
-      <c r="B244" s="15" t="s">
+      <c r="B244" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C244" s="6" t="s">
@@ -5351,7 +5398,7 @@
       <c r="A245" t="s">
         <v>527</v>
       </c>
-      <c r="B245" s="15" t="s">
+      <c r="B245" s="14" t="s">
         <v>528</v>
       </c>
       <c r="C245" s="6" t="s">
@@ -5362,7 +5409,7 @@
       <c r="A246" t="s">
         <v>530</v>
       </c>
-      <c r="B246" s="15" t="s">
+      <c r="B246" s="14" t="s">
         <v>531</v>
       </c>
       <c r="C246" s="6" t="s">
@@ -5373,7 +5420,7 @@
       <c r="A247" t="s">
         <v>637</v>
       </c>
-      <c r="B247" s="16" t="s">
+      <c r="B247" s="15" t="s">
         <v>638</v>
       </c>
       <c r="C247" s="6" t="s">
@@ -5384,7 +5431,7 @@
       <c r="A248" t="s">
         <v>583</v>
       </c>
-      <c r="B248" s="15" t="s">
+      <c r="B248" s="14" t="s">
         <v>581</v>
       </c>
       <c r="C248" s="6" t="s">
@@ -5395,7 +5442,7 @@
       <c r="A249" t="s">
         <v>569</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="B249" s="14" t="s">
         <v>570</v>
       </c>
       <c r="C249" s="6" t="s">
@@ -5406,7 +5453,7 @@
       <c r="A250" t="s">
         <v>635</v>
       </c>
-      <c r="B250" s="16" t="s">
+      <c r="B250" s="15" t="s">
         <v>636</v>
       </c>
       <c r="C250" s="6" t="s">
@@ -5417,7 +5464,7 @@
       <c r="A251" t="s">
         <v>504</v>
       </c>
-      <c r="B251" s="15" t="s">
+      <c r="B251" s="14" t="s">
         <v>505</v>
       </c>
       <c r="C251" s="6" t="s">
@@ -5428,7 +5475,7 @@
       <c r="A252" t="s">
         <v>622</v>
       </c>
-      <c r="B252" s="16" t="s">
+      <c r="B252" s="15" t="s">
         <v>623</v>
       </c>
       <c r="C252" s="6" t="s">
@@ -5439,7 +5486,7 @@
       <c r="A253" t="s">
         <v>513</v>
       </c>
-      <c r="B253" s="15" t="s">
+      <c r="B253" s="14" t="s">
         <v>514</v>
       </c>
       <c r="C253" s="6" t="s">
@@ -5450,10 +5497,10 @@
       <c r="A254" t="s">
         <v>44</v>
       </c>
-      <c r="B254" s="15" t="s">
+      <c r="B254" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="9" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5461,7 +5508,7 @@
       <c r="A255" t="s">
         <v>631</v>
       </c>
-      <c r="B255" s="16" t="s">
+      <c r="B255" s="15" t="s">
         <v>632</v>
       </c>
       <c r="C255" s="6" t="s">
@@ -5472,7 +5519,7 @@
       <c r="A256" t="s">
         <v>633</v>
       </c>
-      <c r="B256" s="16" t="s">
+      <c r="B256" s="15" t="s">
         <v>634</v>
       </c>
       <c r="C256" s="6" t="s">
@@ -5483,7 +5530,7 @@
       <c r="A257" t="s">
         <v>587</v>
       </c>
-      <c r="B257" s="16" t="s">
+      <c r="B257" s="15" t="s">
         <v>585</v>
       </c>
       <c r="C257" s="6" t="s">
@@ -5494,7 +5541,7 @@
       <c r="A258" t="s">
         <v>584</v>
       </c>
-      <c r="B258" s="15" t="s">
+      <c r="B258" s="14" t="s">
         <v>588</v>
       </c>
       <c r="C258" s="6" t="s">
@@ -5505,7 +5552,7 @@
       <c r="A259" t="s">
         <v>590</v>
       </c>
-      <c r="B259" s="16" t="s">
+      <c r="B259" s="15" t="s">
         <v>591</v>
       </c>
       <c r="C259" s="6" t="s">
@@ -5516,7 +5563,7 @@
       <c r="A260" t="s">
         <v>592</v>
       </c>
-      <c r="B260" s="16" t="s">
+      <c r="B260" s="15" t="s">
         <v>593</v>
       </c>
       <c r="C260" s="6" t="s">
@@ -5527,7 +5574,7 @@
       <c r="A261" t="s">
         <v>524</v>
       </c>
-      <c r="B261" s="15" t="s">
+      <c r="B261" s="14" t="s">
         <v>525</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -5538,7 +5585,7 @@
       <c r="A262" t="s">
         <v>540</v>
       </c>
-      <c r="B262" s="15" t="s">
+      <c r="B262" s="14" t="s">
         <v>541</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -5549,7 +5596,7 @@
       <c r="A263" t="s">
         <v>521</v>
       </c>
-      <c r="B263" s="15" t="s">
+      <c r="B263" s="14" t="s">
         <v>522</v>
       </c>
       <c r="C263" s="2" t="s">
@@ -5560,7 +5607,7 @@
       <c r="A264" t="s">
         <v>491</v>
       </c>
-      <c r="B264" s="15" t="s">
+      <c r="B264" s="14" t="s">
         <v>492</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -5571,7 +5618,7 @@
       <c r="A265" t="s">
         <v>46</v>
       </c>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -5582,7 +5629,7 @@
       <c r="A266" t="s">
         <v>48</v>
       </c>
-      <c r="B266" s="15" t="s">
+      <c r="B266" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -5593,7 +5640,7 @@
       <c r="A267" t="s">
         <v>620</v>
       </c>
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="15" t="s">
         <v>621</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -5604,7 +5651,7 @@
       <c r="A268" t="s">
         <v>594</v>
       </c>
-      <c r="B268" s="16" t="s">
+      <c r="B268" s="15" t="s">
         <v>595</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -5615,7 +5662,7 @@
       <c r="A269" t="s">
         <v>596</v>
       </c>
-      <c r="B269" s="16" t="s">
+      <c r="B269" s="15" t="s">
         <v>597</v>
       </c>
       <c r="C269" s="2"/>
@@ -5624,7 +5671,7 @@
       <c r="A270" t="s">
         <v>599</v>
       </c>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="15" t="s">
         <v>598</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -5635,7 +5682,7 @@
       <c r="A271" t="s">
         <v>600</v>
       </c>
-      <c r="B271" s="16" t="s">
+      <c r="B271" s="15" t="s">
         <v>601</v>
       </c>
       <c r="C271" s="2"/>
@@ -5644,7 +5691,7 @@
       <c r="A272" t="s">
         <v>616</v>
       </c>
-      <c r="B272" s="16" t="s">
+      <c r="B272" s="15" t="s">
         <v>617</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -5655,7 +5702,7 @@
       <c r="A273" t="s">
         <v>618</v>
       </c>
-      <c r="B273" s="16" t="s">
+      <c r="B273" s="15" t="s">
         <v>619</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -5666,7 +5713,7 @@
       <c r="A274" t="s">
         <v>653</v>
       </c>
-      <c r="B274" s="15" t="s">
+      <c r="B274" s="14" t="s">
         <v>655</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -5677,7 +5724,7 @@
       <c r="A275" t="s">
         <v>510</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="B275" s="14" t="s">
         <v>512</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -5688,7 +5735,7 @@
       <c r="A276" t="s">
         <v>652</v>
       </c>
-      <c r="B276" s="16" t="s">
+      <c r="B276" s="15" t="s">
         <v>602</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -5699,7 +5746,7 @@
       <c r="A277" t="s">
         <v>49</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -5710,10 +5757,10 @@
       <c r="A278" t="s">
         <v>519</v>
       </c>
-      <c r="B278" s="15" t="s">
+      <c r="B278" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C278" s="8" t="s">
+      <c r="C278" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5721,7 +5768,7 @@
       <c r="A279" t="s">
         <v>507</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="B279" s="14" t="s">
         <v>509</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -5732,7 +5779,7 @@
       <c r="A280" t="s">
         <v>640</v>
       </c>
-      <c r="B280" s="16" t="s">
+      <c r="B280" s="15" t="s">
         <v>641</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -5743,7 +5790,7 @@
       <c r="A281" t="s">
         <v>555</v>
       </c>
-      <c r="B281" s="15" t="s">
+      <c r="B281" s="14" t="s">
         <v>556</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -5754,7 +5801,7 @@
       <c r="A282" t="s">
         <v>552</v>
       </c>
-      <c r="B282" s="15" t="s">
+      <c r="B282" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C282" s="2" t="s">
@@ -5765,7 +5812,7 @@
       <c r="A283" t="s">
         <v>51</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -5776,10 +5823,10 @@
       <c r="A284" t="s">
         <v>52</v>
       </c>
-      <c r="B284" s="15" t="s">
+      <c r="B284" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="9" t="s">
         <v>537</v>
       </c>
     </row>
@@ -5787,7 +5834,7 @@
       <c r="A285" t="s">
         <v>516</v>
       </c>
-      <c r="B285" s="16" t="s">
+      <c r="B285" s="15" t="s">
         <v>518</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -5798,7 +5845,7 @@
       <c r="A286" t="s">
         <v>225</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B286" s="14" t="s">
         <v>226</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -5809,7 +5856,7 @@
       <c r="A287" t="s">
         <v>501</v>
       </c>
-      <c r="B287" s="16" t="s">
+      <c r="B287" s="15" t="s">
         <v>502</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -5820,8 +5867,8 @@
       <c r="A288" t="s">
         <v>658</v>
       </c>
-      <c r="B288" s="20" t="s">
-        <v>867</v>
+      <c r="B288" s="19" t="s">
+        <v>866</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>657</v>
@@ -5831,7 +5878,7 @@
       <c r="A289" t="s">
         <v>222</v>
       </c>
-      <c r="B289" s="15" t="s">
+      <c r="B289" s="14" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5839,7 +5886,7 @@
       <c r="A290" t="s">
         <v>494</v>
       </c>
-      <c r="B290" s="16" t="s">
+      <c r="B290" s="15" t="s">
         <v>495</v>
       </c>
       <c r="C290" s="2" t="s">
@@ -5850,7 +5897,7 @@
       <c r="A291" t="s">
         <v>496</v>
       </c>
-      <c r="B291" s="15" t="s">
+      <c r="B291" s="14" t="s">
         <v>497</v>
       </c>
       <c r="C291" s="2"/>
@@ -5859,7 +5906,7 @@
       <c r="A292" t="s">
         <v>499</v>
       </c>
-      <c r="B292" s="15" t="s">
+      <c r="B292" s="14" t="s">
         <v>500</v>
       </c>
       <c r="C292" s="2"/>
@@ -5868,7 +5915,7 @@
       <c r="A293" t="s">
         <v>606</v>
       </c>
-      <c r="B293" s="16" t="s">
+      <c r="B293" s="15" t="s">
         <v>607</v>
       </c>
       <c r="C293" s="2"/>
@@ -5877,7 +5924,7 @@
       <c r="A294" t="s">
         <v>608</v>
       </c>
-      <c r="B294" s="16" t="s">
+      <c r="B294" s="15" t="s">
         <v>609</v>
       </c>
       <c r="C294" s="2"/>
@@ -5886,7 +5933,7 @@
       <c r="A295" t="s">
         <v>612</v>
       </c>
-      <c r="B295" s="16" t="s">
+      <c r="B295" s="15" t="s">
         <v>613</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -5897,7 +5944,7 @@
       <c r="A296" t="s">
         <v>614</v>
       </c>
-      <c r="B296" s="16" t="s">
+      <c r="B296" s="15" t="s">
         <v>615</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -5908,7 +5955,7 @@
       <c r="A297" t="s">
         <v>572</v>
       </c>
-      <c r="B297" s="16" t="s">
+      <c r="B297" s="15" t="s">
         <v>573</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -5919,7 +5966,7 @@
       <c r="A298" t="s">
         <v>605</v>
       </c>
-      <c r="B298" s="15" t="s">
+      <c r="B298" s="14" t="s">
         <v>578</v>
       </c>
       <c r="C298" s="2" t="s">
@@ -5930,7 +5977,7 @@
       <c r="A299" t="s">
         <v>579</v>
       </c>
-      <c r="B299" s="16" t="s">
+      <c r="B299" s="15" t="s">
         <v>580</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -5941,7 +5988,7 @@
       <c r="A300" t="s">
         <v>576</v>
       </c>
-      <c r="B300" s="15" t="s">
+      <c r="B300" s="14" t="s">
         <v>577</v>
       </c>
       <c r="C300" s="2"/>
@@ -5950,7 +5997,7 @@
       <c r="A301" t="s">
         <v>543</v>
       </c>
-      <c r="B301" s="15" t="s">
+      <c r="B301" s="14" t="s">
         <v>544</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -5961,7 +6008,7 @@
       <c r="A302" t="s">
         <v>545</v>
       </c>
-      <c r="B302" s="15" t="s">
+      <c r="B302" s="14" t="s">
         <v>546</v>
       </c>
       <c r="C302" s="2" t="s">
@@ -5972,7 +6019,7 @@
       <c r="A303" t="s">
         <v>547</v>
       </c>
-      <c r="B303" s="16" t="s">
+      <c r="B303" s="15" t="s">
         <v>548</v>
       </c>
       <c r="C303" s="2" t="s">
@@ -5983,7 +6030,7 @@
       <c r="A304" t="s">
         <v>642</v>
       </c>
-      <c r="B304" s="16" t="s">
+      <c r="B304" s="15" t="s">
         <v>643</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -5994,7 +6041,7 @@
       <c r="A305" t="s">
         <v>603</v>
       </c>
-      <c r="B305" s="16" t="s">
+      <c r="B305" s="15" t="s">
         <v>604</v>
       </c>
       <c r="C305" s="2"/>
@@ -6003,7 +6050,7 @@
       <c r="A306" t="s">
         <v>610</v>
       </c>
-      <c r="B306" s="16" t="s">
+      <c r="B306" s="15" t="s">
         <v>611</v>
       </c>
       <c r="C306" s="2" t="s">
@@ -6014,7 +6061,7 @@
       <c r="A307" t="s">
         <v>574</v>
       </c>
-      <c r="B307" s="15" t="s">
+      <c r="B307" s="14" t="s">
         <v>575</v>
       </c>
       <c r="C307" s="2" t="s">
@@ -6025,7 +6072,7 @@
       <c r="A308" t="s">
         <v>223</v>
       </c>
-      <c r="B308" s="15" t="s">
+      <c r="B308" s="14" t="s">
         <v>498</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -6034,13 +6081,13 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>854</v>
-      </c>
-      <c r="B309" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="B309" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -6054,13 +6101,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6104,7 +6151,7 @@
       <c r="A4" t="s">
         <v>688</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>690</v>
       </c>
       <c r="C4" s="2"/>
@@ -6123,31 +6170,31 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B7" t="s">
+        <v>876</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" t="s">
         <v>774</v>
       </c>
-      <c r="B7" t="s">
-        <v>775</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>776</v>
-      </c>
-      <c r="B8" t="s">
-        <v>777</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -6156,338 +6203,336 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>767</v>
+        <v>871</v>
       </c>
       <c r="B12" t="s">
-        <v>768</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>770</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>715</v>
+        <v>873</v>
       </c>
       <c r="B13" t="s">
-        <v>769</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>716</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>869</v>
+      </c>
+      <c r="B14" t="s">
+        <v>870</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>760</v>
-      </c>
-      <c r="B15" t="s">
-        <v>761</v>
-      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B16" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>764</v>
-      </c>
-      <c r="B17" t="s">
-        <v>765</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>766</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
+      <c r="A18" t="s">
+        <v>767</v>
+      </c>
+      <c r="B18" t="s">
+        <v>768</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B19" t="s">
-        <v>708</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>709</v>
-      </c>
-      <c r="B20" t="s">
-        <v>710</v>
-      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>820</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>821</v>
+        <v>760</v>
+      </c>
+      <c r="B21" t="s">
+        <v>761</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>822</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>837</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="B22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>824</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>825</v>
+        <v>764</v>
+      </c>
+      <c r="B23" t="s">
+        <v>765</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>838</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>727</v>
+        <v>878</v>
       </c>
       <c r="B24" t="s">
-        <v>728</v>
+        <v>879</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>729</v>
+        <v>880</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>720</v>
-      </c>
-      <c r="B25" t="s">
-        <v>722</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>721</v>
-      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="B26" t="s">
-        <v>739</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>740</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="B27" t="s">
-        <v>736</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>737</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>703</v>
-      </c>
-      <c r="B28" t="s">
-        <v>704</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>705</v>
-      </c>
-      <c r="B29" t="s">
-        <v>706</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>839</v>
+        <v>821</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>826</v>
-      </c>
-      <c r="B30" t="s">
-        <v>835</v>
+        <v>823</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>824</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="B31" t="s">
-        <v>792</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>728</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>790</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>720</v>
+      </c>
+      <c r="B32" t="s">
+        <v>722</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>682</v>
+        <v>738</v>
       </c>
       <c r="B33" t="s">
-        <v>683</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>739</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>786</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>735</v>
+      </c>
+      <c r="B34" t="s">
+        <v>736</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>827</v>
+        <v>703</v>
+      </c>
+      <c r="B35" t="s">
+        <v>704</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>828</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="B36" t="s">
-        <v>687</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>788</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>825</v>
+      </c>
+      <c r="B37" t="s">
+        <v>834</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>829</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>830</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="B38" t="s">
+        <v>791</v>
+      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B40" t="s">
-        <v>685</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>692</v>
-      </c>
-      <c r="B41" t="s">
-        <v>693</v>
+        <v>785</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>786</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
+      <c r="A42" t="s">
+        <v>826</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
       <c r="B43" t="s">
-        <v>718</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>719</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>787</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>733</v>
-      </c>
-      <c r="B45" t="s">
-        <v>734</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>828</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>694</v>
-      </c>
-      <c r="B46" t="s">
-        <v>695</v>
+        <v>795</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="B47" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>794</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>795</v>
+        <v>692</v>
+      </c>
+      <c r="B48" t="s">
+        <v>693</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -6496,128 +6541,122 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>754</v>
+        <v>717</v>
       </c>
       <c r="B50" t="s">
-        <v>812</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>718</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>799</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>811</v>
-      </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>733</v>
+      </c>
+      <c r="B52" t="s">
+        <v>734</v>
+      </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>755</v>
+        <v>694</v>
       </c>
       <c r="B53" t="s">
-        <v>810</v>
+        <v>695</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>798</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>697</v>
+      </c>
+      <c r="B54" t="s">
+        <v>696</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
+      <c r="A55" t="s">
+        <v>793</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>758</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>781</v>
-      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="B57" t="s">
-        <v>731</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>732</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>798</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>810</v>
+      </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>782</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>783</v>
-      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="B60" t="s">
-        <v>778</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>779</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>723</v>
-      </c>
-      <c r="B61" t="s">
-        <v>806</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>724</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>725</v>
-      </c>
-      <c r="B63" t="s">
-        <v>805</v>
+        <v>758</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>807</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="B64" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6625,60 +6664,60 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>784</v>
-      </c>
-      <c r="B66" t="s">
-        <v>804</v>
+        <v>781</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>806</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>802</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>803</v>
+        <v>779</v>
+      </c>
+      <c r="B67" t="s">
+        <v>777</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>845</v>
+        <v>778</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
+      <c r="A68" t="s">
+        <v>723</v>
+      </c>
+      <c r="B68" t="s">
+        <v>805</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>815</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>844</v>
-      </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>813</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>814</v>
+        <v>725</v>
+      </c>
+      <c r="B70" t="s">
+        <v>804</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>846</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="B71" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6686,104 +6725,112 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="B73" t="s">
-        <v>757</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>803</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>679</v>
-      </c>
-      <c r="B74" t="s">
-        <v>713</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>700</v>
-      </c>
-      <c r="B75" t="s">
-        <v>701</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>702</v>
-      </c>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>744</v>
-      </c>
-      <c r="B76" t="s">
-        <v>745</v>
+        <v>814</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>815</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
+      <c r="A77" t="s">
+        <v>812</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>800</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="B78" t="s">
+        <v>771</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>818</v>
+        <v>882</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>840</v>
-      </c>
+        <v>883</v>
+      </c>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>817</v>
+        <v>756</v>
       </c>
       <c r="B81" t="s">
-        <v>750</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>751</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>842</v>
+        <v>679</v>
       </c>
       <c r="B82" t="s">
-        <v>843</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>841</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
+      <c r="A83" t="s">
+        <v>700</v>
+      </c>
+      <c r="B83" t="s">
+        <v>701</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B84" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6791,10 +6838,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>711</v>
-      </c>
-      <c r="B86" t="s">
-        <v>712</v>
+        <v>799</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>800</v>
       </c>
       <c r="C86" s="2"/>
     </row>
@@ -6803,81 +6850,157 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>833</v>
-      </c>
-      <c r="B88" t="s">
-        <v>834</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>817</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="B89" t="s">
-        <v>832</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>750</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
+      <c r="A90" t="s">
+        <v>841</v>
+      </c>
+      <c r="B90" t="s">
+        <v>842</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>680</v>
-      </c>
-      <c r="B91" t="s">
-        <v>681</v>
-      </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
+      <c r="A92" t="s">
+        <v>741</v>
+      </c>
+      <c r="B92" t="s">
+        <v>742</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>698</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>711</v>
+      </c>
+      <c r="B94" t="s">
+        <v>712</v>
+      </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>832</v>
+      </c>
+      <c r="B96" t="s">
+        <v>833</v>
+      </c>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>830</v>
+      </c>
+      <c r="B97" t="s">
+        <v>831</v>
+      </c>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>881</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>680</v>
+      </c>
+      <c r="B101" t="s">
+        <v>681</v>
+      </c>
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>698</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="963">
   <si>
     <t>A0039</t>
   </si>
@@ -2337,6 +2337,9 @@
     <t>3.7 cm FlaK 36</t>
   </si>
   <si>
+    <t>GP0014</t>
+  </si>
+  <si>
     <t>GP0016</t>
   </si>
   <si>
@@ -2505,9 +2508,6 @@
     <t>GP0086</t>
   </si>
   <si>
-    <t>some form of infantry (AT?)</t>
-  </si>
-  <si>
     <t>GP0458</t>
   </si>
   <si>
@@ -2674,6 +2674,237 @@
   </si>
   <si>
     <t>Note the upper side shields surrounding the K51 gun, in contrast to the early version carrying an L/24 gun</t>
+  </si>
+  <si>
+    <t>GP0013</t>
+  </si>
+  <si>
+    <t>Panzer 35(t)</t>
+  </si>
+  <si>
+    <t>Panzer 38(t)</t>
+  </si>
+  <si>
+    <t>Panzer 38(t) Ausf. E</t>
+  </si>
+  <si>
+    <t>GP0015</t>
+  </si>
+  <si>
+    <t>GP0038</t>
+  </si>
+  <si>
+    <t>Panzerjäger 38(t)</t>
+  </si>
+  <si>
+    <t>Earliers model of the Marder IIIs</t>
+  </si>
+  <si>
+    <t>GP0006</t>
+  </si>
+  <si>
+    <t>Panzer III Ausf. E</t>
+  </si>
+  <si>
+    <t>GP0005</t>
+  </si>
+  <si>
+    <t>Flammpanzer II</t>
+  </si>
+  <si>
+    <t>Image depicts a model D - though it's difficult to spot at this angle - i.e. the curved frontal armor of the early 38(t) models isn't showing</t>
+  </si>
+  <si>
+    <t>Panzer III Ausf. G</t>
+  </si>
+  <si>
+    <t>GP0007</t>
+  </si>
+  <si>
+    <t>GP0008</t>
+  </si>
+  <si>
+    <t>Panzer III Ausf. H</t>
+  </si>
+  <si>
+    <t>GP0056</t>
+  </si>
+  <si>
+    <t>GP0057</t>
+  </si>
+  <si>
+    <t>SdKfz-234/1 Armored Car</t>
+  </si>
+  <si>
+    <t>SdKfz-231 Armored Car</t>
+  </si>
+  <si>
+    <t>GP0058</t>
+  </si>
+  <si>
+    <t>SdKfz-234/2 Armored Car</t>
+  </si>
+  <si>
+    <t>GP0066</t>
+  </si>
+  <si>
+    <t>SdKfz-233 Armored Car</t>
+  </si>
+  <si>
+    <t>GP0090</t>
+  </si>
+  <si>
+    <t>GP0092</t>
+  </si>
+  <si>
+    <t>GP0097</t>
+  </si>
+  <si>
+    <t>GP0100</t>
+  </si>
+  <si>
+    <t>GP0053</t>
+  </si>
+  <si>
+    <t>GP0059</t>
+  </si>
+  <si>
+    <t>GP0060</t>
+  </si>
+  <si>
+    <t>GP0061</t>
+  </si>
+  <si>
+    <t>GP0103</t>
+  </si>
+  <si>
+    <t>GP0104</t>
+  </si>
+  <si>
+    <t>GP0107</t>
+  </si>
+  <si>
+    <t>GP0111</t>
+  </si>
+  <si>
+    <t>GP0121</t>
+  </si>
+  <si>
+    <t>GP0125</t>
+  </si>
+  <si>
+    <t>GP0131</t>
+  </si>
+  <si>
+    <t>GP0039</t>
+  </si>
+  <si>
+    <t>Jagdpanzer 38(t)</t>
+  </si>
+  <si>
+    <t>GP0217</t>
+  </si>
+  <si>
+    <t>Aufklärungspanzer 38(t)</t>
+  </si>
+  <si>
+    <t>GP0049</t>
+  </si>
+  <si>
+    <t>Flakpanzer 38(t)</t>
+  </si>
+  <si>
+    <t>GP0216</t>
+  </si>
+  <si>
+    <t>Panzerjäger 38(t) Ausf. H</t>
+  </si>
+  <si>
+    <t>Marder III variant. Image is Eastern Front</t>
+  </si>
+  <si>
+    <t>GP0035</t>
+  </si>
+  <si>
+    <t>Marder II</t>
+  </si>
+  <si>
+    <t>GP0037</t>
+  </si>
+  <si>
+    <t>GP0036</t>
+  </si>
+  <si>
+    <t>Marder III</t>
+  </si>
+  <si>
+    <t>Panzerjäger 38(t) Ausf. M</t>
+  </si>
+  <si>
+    <t>GP0020</t>
+  </si>
+  <si>
+    <t>Pz IV Ausf. G</t>
+  </si>
+  <si>
+    <t>Image GP0020 is also used for Pz IV Ausf G 1943 - patch 1.08.08</t>
+  </si>
+  <si>
+    <t>GP0021</t>
+  </si>
+  <si>
+    <t>Pz IV Ausf. H</t>
+  </si>
+  <si>
+    <t>Pz IV Ausf. J</t>
+  </si>
+  <si>
+    <t>Panzerschreck</t>
+  </si>
+  <si>
+    <t>Raketenpanzerbüchse</t>
+  </si>
+  <si>
+    <t>some form of infantry (AT?) Or pionier squad 1944?</t>
+  </si>
+  <si>
+    <t>GP0114</t>
+  </si>
+  <si>
+    <t>GP0115</t>
+  </si>
+  <si>
+    <t>GP0116</t>
+  </si>
+  <si>
+    <t>GP0117</t>
+  </si>
+  <si>
+    <t>GP0118</t>
+  </si>
+  <si>
+    <t>Fallschirmjäger Squad 1943</t>
+  </si>
+  <si>
+    <t>Fallschirmjäger Squad 1944</t>
+  </si>
+  <si>
+    <t>GP0141</t>
+  </si>
+  <si>
+    <t>Ski Jäger Squad</t>
+  </si>
+  <si>
+    <t>GP0142</t>
+  </si>
+  <si>
+    <t>Ski Sturm Squad</t>
+  </si>
+  <si>
+    <t>Cavalry squad (-) (Ger)</t>
+  </si>
+  <si>
+    <t>Confirmation needed this is the right slot! Though the source image Vanilla uses seems to match paras, and there is a 1944 slot</t>
   </si>
 </sst>
 </file>
@@ -2767,7 +2998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2778,6 +3009,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3100,13 +3333,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B232" sqref="B232"/>
+      <selection pane="bottomRight" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="16" customWidth="1"/>
     <col min="3" max="3" width="136.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3114,7 +3347,7 @@
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3125,7 +3358,7 @@
       <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3133,7 +3366,7 @@
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>407</v>
       </c>
       <c r="C3" s="2"/>
@@ -3142,7 +3375,7 @@
       <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="2"/>
@@ -3151,7 +3384,7 @@
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>237</v>
       </c>
       <c r="C5" s="2"/>
@@ -3160,7 +3393,7 @@
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3171,7 +3404,7 @@
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>257</v>
       </c>
       <c r="C7" s="2"/>
@@ -3180,7 +3413,7 @@
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>428</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3191,7 +3424,7 @@
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>262</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3202,7 +3435,7 @@
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3213,7 +3446,7 @@
       <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3224,7 +3457,7 @@
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>259</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3235,7 +3468,7 @@
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3246,7 +3479,7 @@
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>430</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3257,7 +3490,7 @@
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>451</v>
       </c>
       <c r="C15" s="2"/>
@@ -3266,7 +3499,7 @@
       <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C16" s="2"/>
@@ -3275,7 +3508,7 @@
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>418</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3286,7 +3519,7 @@
       <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3297,7 +3530,7 @@
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>455</v>
       </c>
       <c r="C19" s="2"/>
@@ -3306,7 +3539,7 @@
       <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>258</v>
       </c>
       <c r="C20" s="2"/>
@@ -3315,7 +3548,7 @@
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>236</v>
       </c>
       <c r="C21" s="2"/>
@@ -3324,7 +3557,7 @@
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>454</v>
       </c>
       <c r="C22" s="2"/>
@@ -3333,7 +3566,7 @@
       <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>387</v>
       </c>
       <c r="C23" s="2"/>
@@ -3342,7 +3575,7 @@
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="18" t="s">
         <v>456</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3353,7 +3586,7 @@
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>393</v>
       </c>
       <c r="C25" s="2"/>
@@ -3362,7 +3595,7 @@
       <c r="A26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>392</v>
       </c>
       <c r="C26" s="2"/>
@@ -3371,7 +3604,7 @@
       <c r="A27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3382,7 +3615,7 @@
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>457</v>
       </c>
       <c r="C28" s="2"/>
@@ -3391,7 +3624,7 @@
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>408</v>
       </c>
       <c r="C29" s="2"/>
@@ -3400,7 +3633,7 @@
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>401</v>
       </c>
       <c r="C30" s="2"/>
@@ -3409,7 +3642,7 @@
       <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="16" t="s">
         <v>390</v>
       </c>
       <c r="C31" s="2"/>
@@ -3418,7 +3651,7 @@
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>391</v>
       </c>
       <c r="C32" s="2"/>
@@ -3427,7 +3660,7 @@
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
@@ -3436,7 +3669,7 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2"/>
@@ -3445,7 +3678,7 @@
       <c r="A35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="17" t="s">
         <v>271</v>
       </c>
       <c r="C35" s="2"/>
@@ -3454,7 +3687,7 @@
       <c r="A36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -3465,7 +3698,7 @@
       <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -3476,7 +3709,7 @@
       <c r="A38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="16" t="s">
         <v>399</v>
       </c>
       <c r="C38" s="2"/>
@@ -3485,7 +3718,7 @@
       <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="16" t="s">
         <v>242</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -3496,7 +3729,7 @@
       <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="16" t="s">
         <v>272</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3507,7 +3740,7 @@
       <c r="A41" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3518,7 +3751,7 @@
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="17" t="s">
         <v>857</v>
       </c>
       <c r="C42" s="2"/>
@@ -3527,7 +3760,7 @@
       <c r="A43" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="16" t="s">
         <v>437</v>
       </c>
       <c r="C43" s="2"/>
@@ -3536,7 +3769,7 @@
       <c r="A44" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="16" t="s">
         <v>851</v>
       </c>
       <c r="C44" s="2"/>
@@ -3545,7 +3778,7 @@
       <c r="A45" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="16" t="s">
         <v>436</v>
       </c>
       <c r="C45" s="2"/>
@@ -3554,7 +3787,7 @@
       <c r="A46" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="16" t="s">
         <v>239</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3565,7 +3798,7 @@
       <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="16" t="s">
         <v>241</v>
       </c>
       <c r="C47" s="2"/>
@@ -3574,7 +3807,7 @@
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3585,7 +3818,7 @@
       <c r="A49" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="17" t="s">
         <v>447</v>
       </c>
       <c r="C49" s="2"/>
@@ -3594,7 +3827,7 @@
       <c r="A50" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="16" t="s">
         <v>438</v>
       </c>
       <c r="C50" s="2"/>
@@ -3603,7 +3836,7 @@
       <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3614,7 +3847,7 @@
       <c r="A52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="17" t="s">
         <v>468</v>
       </c>
       <c r="C52" s="2"/>
@@ -3623,7 +3856,7 @@
       <c r="A53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="16" t="s">
         <v>389</v>
       </c>
       <c r="C53" s="2"/>
@@ -3632,7 +3865,7 @@
       <c r="A54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C54" s="2"/>
@@ -3641,7 +3874,7 @@
       <c r="A55" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="16" t="s">
         <v>274</v>
       </c>
       <c r="C55" s="2"/>
@@ -3650,7 +3883,7 @@
       <c r="A56" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="16" t="s">
         <v>261</v>
       </c>
       <c r="C56" s="2"/>
@@ -3659,7 +3892,7 @@
       <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="17" t="s">
         <v>478</v>
       </c>
       <c r="C57" s="2"/>
@@ -3668,7 +3901,7 @@
       <c r="A58" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="16" t="s">
         <v>409</v>
       </c>
       <c r="C58" s="2"/>
@@ -3677,7 +3910,7 @@
       <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="2"/>
@@ -3686,7 +3919,7 @@
       <c r="A60" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3697,7 +3930,7 @@
       <c r="A61" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="16" t="s">
         <v>395</v>
       </c>
       <c r="C61" s="2"/>
@@ -3706,7 +3939,7 @@
       <c r="A62" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C62" s="2"/>
@@ -3715,7 +3948,7 @@
       <c r="A63" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="2"/>
@@ -3724,7 +3957,7 @@
       <c r="A64" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="17" t="s">
         <v>461</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3735,7 +3968,7 @@
       <c r="A65" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="16" t="s">
         <v>266</v>
       </c>
       <c r="C65" s="2"/>
@@ -3744,7 +3977,7 @@
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="2"/>
@@ -3753,7 +3986,7 @@
       <c r="A67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="17" t="s">
         <v>458</v>
       </c>
       <c r="C67" s="2"/>
@@ -3762,7 +3995,7 @@
       <c r="A68" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>394</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3773,7 +4006,7 @@
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C69" s="2"/>
@@ -3782,7 +4015,7 @@
       <c r="A70" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="19" t="s">
         <v>402</v>
       </c>
       <c r="C70" s="2"/>
@@ -3791,7 +4024,7 @@
       <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="16" t="s">
         <v>386</v>
       </c>
       <c r="C71" s="2"/>
@@ -3800,7 +4033,7 @@
       <c r="A72" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="16" t="s">
         <v>275</v>
       </c>
       <c r="C72" s="2"/>
@@ -3809,7 +4042,7 @@
       <c r="A73" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="16" t="s">
         <v>439</v>
       </c>
       <c r="C73" s="2"/>
@@ -3818,7 +4051,7 @@
       <c r="A74" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="16" t="s">
         <v>270</v>
       </c>
       <c r="C74" s="2"/>
@@ -3827,7 +4060,7 @@
       <c r="A75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="16" t="s">
         <v>276</v>
       </c>
       <c r="C75" s="2"/>
@@ -3836,7 +4069,7 @@
       <c r="A76" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="16" t="s">
         <v>267</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3847,7 +4080,7 @@
       <c r="A77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="16" t="s">
         <v>369</v>
       </c>
       <c r="C77" s="2"/>
@@ -3856,7 +4089,7 @@
       <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="16" t="s">
         <v>269</v>
       </c>
       <c r="C78" s="2"/>
@@ -3865,7 +4098,7 @@
       <c r="A79" t="s">
         <v>148</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="16" t="s">
         <v>400</v>
       </c>
       <c r="C79" s="2"/>
@@ -3874,7 +4107,7 @@
       <c r="A80" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="16" t="s">
         <v>851</v>
       </c>
       <c r="C80" s="2"/>
@@ -3883,7 +4116,7 @@
       <c r="A81" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="16" t="s">
         <v>406</v>
       </c>
       <c r="C81" s="2"/>
@@ -3892,7 +4125,7 @@
       <c r="A82" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="16" t="s">
         <v>388</v>
       </c>
       <c r="C82" s="2"/>
@@ -3901,7 +4134,7 @@
       <c r="A83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="17" t="s">
         <v>465</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3912,7 +4145,7 @@
       <c r="A84" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="17" t="s">
         <v>462</v>
       </c>
       <c r="C84" s="2"/>
@@ -3921,7 +4154,7 @@
       <c r="A85" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="17" t="s">
         <v>420</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -3932,7 +4165,7 @@
       <c r="A86" t="s">
         <v>433</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="17" t="s">
         <v>434</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3943,7 +4176,7 @@
       <c r="A87" t="s">
         <v>469</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="17" t="s">
         <v>470</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3954,7 +4187,7 @@
       <c r="A88" t="s">
         <v>421</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="16" t="s">
         <v>422</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3965,7 +4198,7 @@
       <c r="A89" t="s">
         <v>445</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="16" t="s">
         <v>446</v>
       </c>
       <c r="C89" s="2"/>
@@ -3974,7 +4207,7 @@
       <c r="A90" t="s">
         <v>452</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="17" t="s">
         <v>453</v>
       </c>
       <c r="C90" s="2"/>
@@ -3983,7 +4216,7 @@
       <c r="A91" t="s">
         <v>425</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="16" t="s">
         <v>426</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -3994,7 +4227,7 @@
       <c r="A92" t="s">
         <v>410</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="16" t="s">
         <v>411</v>
       </c>
       <c r="C92" s="2"/>
@@ -4003,7 +4236,7 @@
       <c r="A93" t="s">
         <v>448</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="16" t="s">
         <v>449</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -4014,7 +4247,7 @@
       <c r="A94" t="s">
         <v>466</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="17" t="s">
         <v>467</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -4025,7 +4258,7 @@
       <c r="A95" t="s">
         <v>460</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="17" t="s">
         <v>459</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -4036,7 +4269,7 @@
       <c r="A96" t="s">
         <v>443</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="20" t="s">
         <v>444</v>
       </c>
       <c r="C96" s="9" t="s">
@@ -4047,7 +4280,7 @@
       <c r="A97" t="s">
         <v>396</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="16" t="s">
         <v>397</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -4058,7 +4291,7 @@
       <c r="A98" t="s">
         <v>440</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="16" t="s">
         <v>441</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -4069,7 +4302,7 @@
       <c r="A99" t="s">
         <v>412</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="16" t="s">
         <v>413</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -4080,7 +4313,7 @@
       <c r="A100" t="s">
         <v>403</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="16" t="s">
         <v>404</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -4091,7 +4324,7 @@
       <c r="A101" t="s">
         <v>414</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="16" t="s">
         <v>415</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -4102,7 +4335,7 @@
       <c r="A102" t="s">
         <v>463</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="17" t="s">
         <v>464</v>
       </c>
       <c r="C102" s="2"/>
@@ -4111,7 +4344,7 @@
       <c r="A103" t="s">
         <v>852</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C103" s="2"/>
@@ -4123,7 +4356,7 @@
       <c r="A105" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="14" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4131,7 +4364,7 @@
       <c r="A106" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="16" t="s">
         <v>165</v>
       </c>
       <c r="C106" s="2"/>
@@ -4140,7 +4373,7 @@
       <c r="A107" t="s">
         <v>160</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="16" t="s">
         <v>201</v>
       </c>
       <c r="C107" s="2"/>
@@ -4149,7 +4382,7 @@
       <c r="A108" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C108" s="2"/>
@@ -4158,7 +4391,7 @@
       <c r="A109" t="s">
         <v>76</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C109" s="2"/>
@@ -4167,7 +4400,7 @@
       <c r="A110" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="16" t="s">
         <v>196</v>
       </c>
       <c r="C110" s="2"/>
@@ -4176,7 +4409,7 @@
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="2"/>
@@ -4185,7 +4418,7 @@
       <c r="A112" t="s">
         <v>162</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="16" t="s">
         <v>167</v>
       </c>
       <c r="C112" s="2"/>
@@ -4194,7 +4427,7 @@
       <c r="A113" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C113" s="2"/>
@@ -4203,7 +4436,7 @@
       <c r="A114" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="16" t="s">
         <v>197</v>
       </c>
       <c r="C114" s="2"/>
@@ -4212,7 +4445,7 @@
       <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="16" t="s">
         <v>198</v>
       </c>
       <c r="C115" s="2"/>
@@ -4221,7 +4454,7 @@
       <c r="A116" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="2"/>
@@ -4230,7 +4463,7 @@
       <c r="A117" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="2"/>
@@ -4239,7 +4472,7 @@
       <c r="A118" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="2"/>
@@ -4256,7 +4489,7 @@
       <c r="A120" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C120" s="2"/>
@@ -4265,7 +4498,7 @@
       <c r="A121" t="s">
         <v>164</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C121" s="2"/>
@@ -4274,7 +4507,7 @@
       <c r="A122" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="2"/>
@@ -4283,7 +4516,7 @@
       <c r="A123" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="2"/>
@@ -4292,7 +4525,7 @@
       <c r="A124" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="2"/>
@@ -4301,7 +4534,7 @@
       <c r="A125" t="s">
         <v>25</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="2"/>
@@ -4310,7 +4543,7 @@
       <c r="A126" t="s">
         <v>66</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C126" s="2"/>
@@ -4319,7 +4552,7 @@
       <c r="A127" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="16" t="s">
         <v>193</v>
       </c>
       <c r="C127" s="2"/>
@@ -4328,7 +4561,7 @@
       <c r="A128" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C128" s="2"/>
@@ -4337,7 +4570,7 @@
       <c r="A129" t="s">
         <v>182</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C129" s="2"/>
@@ -4349,7 +4582,7 @@
       <c r="A131" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4357,7 +4590,7 @@
       <c r="A132" t="s">
         <v>199</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="16" t="s">
         <v>325</v>
       </c>
       <c r="C132" s="2"/>
@@ -4366,7 +4599,7 @@
       <c r="A133" t="s">
         <v>309</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -4377,7 +4610,7 @@
       <c r="A134" t="s">
         <v>194</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="16" t="s">
         <v>324</v>
       </c>
       <c r="C134" s="2"/>
@@ -4386,7 +4619,7 @@
       <c r="A135" t="s">
         <v>310</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="16" t="s">
         <v>323</v>
       </c>
       <c r="C135" s="2"/>
@@ -4395,7 +4628,7 @@
       <c r="A136" t="s">
         <v>311</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="16" t="s">
         <v>322</v>
       </c>
       <c r="C136" s="2"/>
@@ -4404,7 +4637,7 @@
       <c r="A137" t="s">
         <v>312</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="16" t="s">
         <v>472</v>
       </c>
       <c r="C137" s="2"/>
@@ -4413,7 +4646,7 @@
       <c r="A138" t="s">
         <v>313</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="16" t="s">
         <v>319</v>
       </c>
       <c r="C138" s="2"/>
@@ -4422,7 +4655,7 @@
       <c r="A139" t="s">
         <v>314</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="16" t="s">
         <v>326</v>
       </c>
       <c r="C139" s="2"/>
@@ -4431,7 +4664,7 @@
       <c r="A140" t="s">
         <v>315</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="16" t="s">
         <v>317</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4442,7 +4675,7 @@
       <c r="A141" t="s">
         <v>316</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="17" t="s">
         <v>329</v>
       </c>
       <c r="C141" s="2"/>
@@ -4451,7 +4684,7 @@
       <c r="A142" t="s">
         <v>308</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="16" t="s">
         <v>320</v>
       </c>
       <c r="C142" s="2"/>
@@ -4460,7 +4693,7 @@
       <c r="A143" t="s">
         <v>307</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="17" t="s">
         <v>330</v>
       </c>
       <c r="C143" s="2"/>
@@ -4469,7 +4702,7 @@
       <c r="A144" t="s">
         <v>306</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="16" t="s">
         <v>328</v>
       </c>
       <c r="C144" s="2"/>
@@ -4478,7 +4711,7 @@
       <c r="A145" t="s">
         <v>293</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="16" t="s">
         <v>294</v>
       </c>
       <c r="C145" s="2"/>
@@ -4487,7 +4720,7 @@
       <c r="A146" t="s">
         <v>303</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="17" t="s">
         <v>331</v>
       </c>
       <c r="C146" s="2"/>
@@ -4496,7 +4729,7 @@
       <c r="A147" t="s">
         <v>304</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="16" t="s">
         <v>327</v>
       </c>
       <c r="C147" s="2"/>
@@ -4505,7 +4738,7 @@
       <c r="A148" t="s">
         <v>305</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="16" t="s">
         <v>372</v>
       </c>
       <c r="C148" s="2"/>
@@ -4514,7 +4747,7 @@
       <c r="A149" t="s">
         <v>299</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="16" t="s">
         <v>300</v>
       </c>
       <c r="C149" s="2"/>
@@ -4523,7 +4756,7 @@
       <c r="A150" t="s">
         <v>301</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="16" t="s">
         <v>370</v>
       </c>
       <c r="C150" s="2"/>
@@ -4532,7 +4765,7 @@
       <c r="A151" t="s">
         <v>302</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="16" t="s">
         <v>321</v>
       </c>
       <c r="C151" s="2"/>
@@ -4541,7 +4774,7 @@
       <c r="A152" t="s">
         <v>297</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="16" t="s">
         <v>298</v>
       </c>
       <c r="C152" s="2"/>
@@ -4550,7 +4783,7 @@
       <c r="A153" t="s">
         <v>295</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="16" t="s">
         <v>296</v>
       </c>
       <c r="C153" s="2"/>
@@ -4562,7 +4795,7 @@
       <c r="A155" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="14" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4570,7 +4803,7 @@
       <c r="A156" t="s">
         <v>249</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="16" t="s">
         <v>250</v>
       </c>
       <c r="C156" s="2"/>
@@ -4579,7 +4812,7 @@
       <c r="A157" t="s">
         <v>245</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="16" t="s">
         <v>246</v>
       </c>
       <c r="C157" s="2"/>
@@ -4588,7 +4821,7 @@
       <c r="A158" t="s">
         <v>247</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="16" t="s">
         <v>248</v>
       </c>
       <c r="C158" s="2"/>
@@ -4597,7 +4830,7 @@
       <c r="A159" t="s">
         <v>287</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="16" t="s">
         <v>288</v>
       </c>
       <c r="C159" s="2"/>
@@ -4606,7 +4839,7 @@
       <c r="A160" t="s">
         <v>374</v>
       </c>
-      <c r="B160" s="19" t="s">
+      <c r="B160" s="21" t="s">
         <v>868</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -4617,7 +4850,7 @@
       <c r="A161" t="s">
         <v>36</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C161" s="2"/>
@@ -4626,7 +4859,7 @@
       <c r="A162" t="s">
         <v>291</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="16" t="s">
         <v>292</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -4637,7 +4870,7 @@
       <c r="A163" t="s">
         <v>333</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C163" s="2"/>
@@ -4646,7 +4879,7 @@
       <c r="A164" t="s">
         <v>334</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="17" t="s">
         <v>471</v>
       </c>
       <c r="C164" s="2"/>
@@ -4655,7 +4888,7 @@
       <c r="A165" t="s">
         <v>335</v>
       </c>
-      <c r="B165" s="19" t="s">
+      <c r="B165" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -4666,7 +4899,7 @@
       <c r="A166" t="s">
         <v>283</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="16" t="s">
         <v>284</v>
       </c>
       <c r="C166" s="2"/>
@@ -4675,7 +4908,7 @@
       <c r="A167" t="s">
         <v>336</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="16" t="s">
         <v>373</v>
       </c>
       <c r="C167" s="2"/>
@@ -4684,7 +4917,7 @@
       <c r="A168" t="s">
         <v>243</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="16" t="s">
         <v>244</v>
       </c>
       <c r="C168" s="2"/>
@@ -4693,7 +4926,7 @@
       <c r="A169" t="s">
         <v>337</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="16" t="s">
         <v>380</v>
       </c>
       <c r="C169" s="2"/>
@@ -4702,7 +4935,7 @@
       <c r="A170" t="s">
         <v>277</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="16" t="s">
         <v>278</v>
       </c>
       <c r="C170" s="2"/>
@@ -4711,7 +4944,7 @@
       <c r="A171" t="s">
         <v>281</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="16" t="s">
         <v>282</v>
       </c>
       <c r="C171" s="9" t="s">
@@ -4722,7 +4955,7 @@
       <c r="A172" t="s">
         <v>280</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="16" t="s">
         <v>279</v>
       </c>
       <c r="C172" s="2"/>
@@ -4731,7 +4964,7 @@
       <c r="A173" t="s">
         <v>251</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="16" t="s">
         <v>252</v>
       </c>
       <c r="C173" s="2"/>
@@ -4740,7 +4973,7 @@
       <c r="A174" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="17" t="s">
         <v>254</v>
       </c>
       <c r="C174" s="2"/>
@@ -4749,7 +4982,7 @@
       <c r="A175" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B175" s="15" t="s">
+      <c r="B175" s="17" t="s">
         <v>256</v>
       </c>
       <c r="C175" s="2"/>
@@ -4758,7 +4991,7 @@
       <c r="A176" t="s">
         <v>338</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="16" t="s">
         <v>376</v>
       </c>
       <c r="C176" s="2"/>
@@ -4767,7 +5000,7 @@
       <c r="A177" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="17" t="s">
         <v>382</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -4778,7 +5011,7 @@
       <c r="A178" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B178" s="17" t="s">
         <v>290</v>
       </c>
       <c r="C178" s="2"/>
@@ -4787,7 +5020,7 @@
       <c r="A179" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="B179" s="17" t="s">
         <v>286</v>
       </c>
       <c r="C179" s="2"/>
@@ -4796,7 +5029,7 @@
       <c r="A180" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="17" t="s">
         <v>385</v>
       </c>
       <c r="C180" s="2"/>
@@ -4805,7 +5038,7 @@
       <c r="A181" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="B181" s="17" t="s">
         <v>384</v>
       </c>
       <c r="C181" s="2"/>
@@ -4814,7 +5047,7 @@
       <c r="A182" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B182" s="15" t="s">
+      <c r="B182" s="17" t="s">
         <v>846</v>
       </c>
       <c r="C182" s="2"/>
@@ -4823,7 +5056,7 @@
       <c r="A183" t="s">
         <v>228</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="16" t="s">
         <v>229</v>
       </c>
       <c r="C183" s="2"/>
@@ -4832,7 +5065,7 @@
       <c r="A184" t="s">
         <v>230</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B184" s="16" t="s">
         <v>231</v>
       </c>
       <c r="C184" s="2"/>
@@ -4841,7 +5074,7 @@
       <c r="A185" t="s">
         <v>343</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="16" t="s">
         <v>379</v>
       </c>
       <c r="C185" s="2"/>
@@ -4850,7 +5083,7 @@
       <c r="A186" t="s">
         <v>344</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B186" s="16" t="s">
         <v>378</v>
       </c>
       <c r="C186" s="2"/>
@@ -4859,7 +5092,7 @@
       <c r="A187" t="s">
         <v>345</v>
       </c>
-      <c r="B187" s="14" t="s">
+      <c r="B187" s="16" t="s">
         <v>377</v>
       </c>
       <c r="C187" s="2"/>
@@ -4868,7 +5101,7 @@
       <c r="A188" t="s">
         <v>346</v>
       </c>
-      <c r="B188" s="14" t="s">
+      <c r="B188" s="16" t="s">
         <v>381</v>
       </c>
       <c r="C188" s="2"/>
@@ -4880,7 +5113,7 @@
       <c r="A190" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="14" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4888,7 +5121,7 @@
       <c r="A191" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B191" s="19" t="s">
+      <c r="B191" s="21" t="s">
         <v>866</v>
       </c>
     </row>
@@ -4896,7 +5129,7 @@
       <c r="A192" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B192" s="19" t="s">
+      <c r="B192" s="21" t="s">
         <v>868</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -4907,7 +5140,7 @@
       <c r="A193" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B193" s="14" t="s">
+      <c r="B193" s="16" t="s">
         <v>558</v>
       </c>
     </row>
@@ -4915,7 +5148,7 @@
       <c r="A194" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B194" s="15" t="s">
+      <c r="B194" s="17" t="s">
         <v>559</v>
       </c>
     </row>
@@ -4923,7 +5156,7 @@
       <c r="A195" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B195" s="16" t="s">
         <v>557</v>
       </c>
     </row>
@@ -4931,7 +5164,7 @@
       <c r="A196" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B196" s="19" t="s">
+      <c r="B196" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -4942,7 +5175,7 @@
       <c r="A197" t="s">
         <v>209</v>
       </c>
-      <c r="B197" s="14" t="s">
+      <c r="B197" s="16" t="s">
         <v>210</v>
       </c>
       <c r="C197" s="2"/>
@@ -4951,7 +5184,7 @@
       <c r="A198" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B198" s="14" t="s">
+      <c r="B198" s="16" t="s">
         <v>490</v>
       </c>
       <c r="C198" s="2"/>
@@ -4960,7 +5193,7 @@
       <c r="A199" t="s">
         <v>354</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B199" s="16" t="s">
         <v>485</v>
       </c>
       <c r="C199" s="2"/>
@@ -4969,7 +5202,7 @@
       <c r="A200" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B200" s="16" t="s">
         <v>486</v>
       </c>
       <c r="C200" s="2"/>
@@ -4978,7 +5211,7 @@
       <c r="A201" t="s">
         <v>356</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="B201" s="17" t="s">
         <v>849</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -4989,7 +5222,7 @@
       <c r="A202" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="14" t="s">
+      <c r="B202" s="16" t="s">
         <v>204</v>
       </c>
       <c r="C202" s="2"/>
@@ -4998,10 +5231,10 @@
       <c r="A203" t="s">
         <v>357</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="12" t="s">
         <v>856</v>
       </c>
     </row>
@@ -5009,7 +5242,7 @@
       <c r="A204" t="s">
         <v>358</v>
       </c>
-      <c r="B204" s="14" t="s">
+      <c r="B204" s="16" t="s">
         <v>487</v>
       </c>
       <c r="C204" s="2"/>
@@ -5018,7 +5251,7 @@
       <c r="A205" t="s">
         <v>359</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="17" t="s">
         <v>473</v>
       </c>
       <c r="C205" s="2"/>
@@ -5027,7 +5260,7 @@
       <c r="A206" t="s">
         <v>360</v>
       </c>
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="18" t="s">
         <v>848</v>
       </c>
       <c r="C206" s="2"/>
@@ -5036,7 +5269,7 @@
       <c r="A207" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="14" t="s">
+      <c r="B207" s="16" t="s">
         <v>483</v>
       </c>
       <c r="C207" s="2"/>
@@ -5045,7 +5278,7 @@
       <c r="A208" t="s">
         <v>362</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="B208" s="17" t="s">
         <v>847</v>
       </c>
       <c r="C208" s="2"/>
@@ -5054,7 +5287,7 @@
       <c r="A209" t="s">
         <v>363</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="16" t="s">
         <v>484</v>
       </c>
       <c r="C209" s="2"/>
@@ -5063,7 +5296,7 @@
       <c r="A210" t="s">
         <v>364</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B210" s="16" t="s">
         <v>538</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -5074,7 +5307,7 @@
       <c r="A211" t="s">
         <v>365</v>
       </c>
-      <c r="B211" s="19" t="s">
+      <c r="B211" s="21" t="s">
         <v>868</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -5085,7 +5318,7 @@
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B212" s="16" t="s">
         <v>212</v>
       </c>
       <c r="C212" s="2"/>
@@ -5094,7 +5327,7 @@
       <c r="A213" t="s">
         <v>205</v>
       </c>
-      <c r="B213" s="14" t="s">
+      <c r="B213" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C213" s="2"/>
@@ -5103,7 +5336,7 @@
       <c r="A214" t="s">
         <v>366</v>
       </c>
-      <c r="B214" s="19" t="s">
+      <c r="B214" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C214" t="s">
@@ -5114,7 +5347,7 @@
       <c r="A215" t="s">
         <v>367</v>
       </c>
-      <c r="B215" s="14" t="s">
+      <c r="B215" s="16" t="s">
         <v>488</v>
       </c>
       <c r="C215" s="2"/>
@@ -5123,7 +5356,7 @@
       <c r="A216" t="s">
         <v>368</v>
       </c>
-      <c r="B216" s="14" t="s">
+      <c r="B216" s="16" t="s">
         <v>489</v>
       </c>
       <c r="C216" s="2"/>
@@ -5132,7 +5365,7 @@
       <c r="A217" t="s">
         <v>207</v>
       </c>
-      <c r="B217" s="14" t="s">
+      <c r="B217" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C217" s="2"/>
@@ -5144,7 +5377,7 @@
       <c r="A219" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B219" s="12" t="s">
+      <c r="B219" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5152,7 +5385,7 @@
       <c r="A220" t="s">
         <v>172</v>
       </c>
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C220" s="2"/>
@@ -5161,7 +5394,7 @@
       <c r="A221" t="s">
         <v>175</v>
       </c>
-      <c r="B221" s="14" t="s">
+      <c r="B221" s="16" t="s">
         <v>184</v>
       </c>
       <c r="C221" s="2"/>
@@ -5170,7 +5403,7 @@
       <c r="A222" t="s">
         <v>176</v>
       </c>
-      <c r="B222" s="14" t="s">
+      <c r="B222" s="16" t="s">
         <v>186</v>
       </c>
       <c r="C222" s="2"/>
@@ -5179,7 +5412,7 @@
       <c r="A223" t="s">
         <v>177</v>
       </c>
-      <c r="B223" s="14" t="s">
+      <c r="B223" s="16" t="s">
         <v>185</v>
       </c>
       <c r="C223" s="2"/>
@@ -5188,7 +5421,7 @@
       <c r="A224" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="14" t="s">
+      <c r="B224" s="16" t="s">
         <v>173</v>
       </c>
       <c r="C224" s="2"/>
@@ -5197,7 +5430,7 @@
       <c r="A225" t="s">
         <v>178</v>
       </c>
-      <c r="B225" s="14" t="s">
+      <c r="B225" s="16" t="s">
         <v>187</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -5208,7 +5441,7 @@
       <c r="A226" t="s">
         <v>179</v>
       </c>
-      <c r="B226" s="14" t="s">
+      <c r="B226" s="16" t="s">
         <v>188</v>
       </c>
       <c r="C226" s="2"/>
@@ -5217,7 +5450,7 @@
       <c r="A227" t="s">
         <v>180</v>
       </c>
-      <c r="B227" s="14" t="s">
+      <c r="B227" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C227" s="2"/>
@@ -5226,7 +5459,7 @@
       <c r="A228" t="s">
         <v>181</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C228" s="2"/>
@@ -5235,7 +5468,7 @@
       <c r="A229" t="s">
         <v>169</v>
       </c>
-      <c r="B229" s="14" t="s">
+      <c r="B229" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C229" s="2"/>
@@ -5247,7 +5480,7 @@
       <c r="A231" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B231" s="12" t="s">
+      <c r="B231" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5255,7 +5488,7 @@
       <c r="A232" t="s">
         <v>644</v>
       </c>
-      <c r="B232" s="19" t="s">
+      <c r="B232" s="21" t="s">
         <v>868</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -5266,7 +5499,7 @@
       <c r="A233" t="s">
         <v>38</v>
       </c>
-      <c r="B233" s="14" t="s">
+      <c r="B233" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -5277,7 +5510,7 @@
       <c r="A234" t="s">
         <v>213</v>
       </c>
-      <c r="B234" s="14" t="s">
+      <c r="B234" s="16" t="s">
         <v>214</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -5288,7 +5521,7 @@
       <c r="A235" t="s">
         <v>216</v>
       </c>
-      <c r="B235" s="14" t="s">
+      <c r="B235" s="16" t="s">
         <v>217</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -5299,7 +5532,7 @@
       <c r="A236" t="s">
         <v>40</v>
       </c>
-      <c r="B236" s="14" t="s">
+      <c r="B236" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -5310,7 +5543,7 @@
       <c r="A237" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -5321,7 +5554,7 @@
       <c r="A238" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B238" s="15" t="s">
+      <c r="B238" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C238" s="6" t="s">
@@ -5332,7 +5565,7 @@
       <c r="A239" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="B239" s="17" t="s">
         <v>219</v>
       </c>
       <c r="C239" s="6" t="s">
@@ -5343,7 +5576,7 @@
       <c r="A240" t="s">
         <v>42</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C240" s="9" t="s">
@@ -5354,7 +5587,7 @@
       <c r="A241" t="s">
         <v>625</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="16" t="s">
         <v>626</v>
       </c>
       <c r="C241" s="6" t="s">
@@ -5365,7 +5598,7 @@
       <c r="A242" t="s">
         <v>628</v>
       </c>
-      <c r="B242" s="15" t="s">
+      <c r="B242" s="17" t="s">
         <v>629</v>
       </c>
       <c r="C242" s="6" t="s">
@@ -5376,7 +5609,7 @@
       <c r="A243" t="s">
         <v>563</v>
       </c>
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="16" t="s">
         <v>564</v>
       </c>
       <c r="C243" s="6" t="s">
@@ -5387,7 +5620,7 @@
       <c r="A244" t="s">
         <v>566</v>
       </c>
-      <c r="B244" s="14" t="s">
+      <c r="B244" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C244" s="6" t="s">
@@ -5398,7 +5631,7 @@
       <c r="A245" t="s">
         <v>527</v>
       </c>
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="16" t="s">
         <v>528</v>
       </c>
       <c r="C245" s="6" t="s">
@@ -5409,7 +5642,7 @@
       <c r="A246" t="s">
         <v>530</v>
       </c>
-      <c r="B246" s="14" t="s">
+      <c r="B246" s="16" t="s">
         <v>531</v>
       </c>
       <c r="C246" s="6" t="s">
@@ -5420,7 +5653,7 @@
       <c r="A247" t="s">
         <v>637</v>
       </c>
-      <c r="B247" s="15" t="s">
+      <c r="B247" s="17" t="s">
         <v>638</v>
       </c>
       <c r="C247" s="6" t="s">
@@ -5431,7 +5664,7 @@
       <c r="A248" t="s">
         <v>583</v>
       </c>
-      <c r="B248" s="14" t="s">
+      <c r="B248" s="16" t="s">
         <v>581</v>
       </c>
       <c r="C248" s="6" t="s">
@@ -5442,7 +5675,7 @@
       <c r="A249" t="s">
         <v>569</v>
       </c>
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="16" t="s">
         <v>570</v>
       </c>
       <c r="C249" s="6" t="s">
@@ -5453,7 +5686,7 @@
       <c r="A250" t="s">
         <v>635</v>
       </c>
-      <c r="B250" s="15" t="s">
+      <c r="B250" s="17" t="s">
         <v>636</v>
       </c>
       <c r="C250" s="6" t="s">
@@ -5464,7 +5697,7 @@
       <c r="A251" t="s">
         <v>504</v>
       </c>
-      <c r="B251" s="14" t="s">
+      <c r="B251" s="16" t="s">
         <v>505</v>
       </c>
       <c r="C251" s="6" t="s">
@@ -5475,7 +5708,7 @@
       <c r="A252" t="s">
         <v>622</v>
       </c>
-      <c r="B252" s="15" t="s">
+      <c r="B252" s="17" t="s">
         <v>623</v>
       </c>
       <c r="C252" s="6" t="s">
@@ -5486,7 +5719,7 @@
       <c r="A253" t="s">
         <v>513</v>
       </c>
-      <c r="B253" s="14" t="s">
+      <c r="B253" s="16" t="s">
         <v>514</v>
       </c>
       <c r="C253" s="6" t="s">
@@ -5497,7 +5730,7 @@
       <c r="A254" t="s">
         <v>44</v>
       </c>
-      <c r="B254" s="14" t="s">
+      <c r="B254" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C254" s="9" t="s">
@@ -5508,7 +5741,7 @@
       <c r="A255" t="s">
         <v>631</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="B255" s="17" t="s">
         <v>632</v>
       </c>
       <c r="C255" s="6" t="s">
@@ -5519,7 +5752,7 @@
       <c r="A256" t="s">
         <v>633</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="B256" s="17" t="s">
         <v>634</v>
       </c>
       <c r="C256" s="6" t="s">
@@ -5530,7 +5763,7 @@
       <c r="A257" t="s">
         <v>587</v>
       </c>
-      <c r="B257" s="15" t="s">
+      <c r="B257" s="17" t="s">
         <v>585</v>
       </c>
       <c r="C257" s="6" t="s">
@@ -5541,7 +5774,7 @@
       <c r="A258" t="s">
         <v>584</v>
       </c>
-      <c r="B258" s="14" t="s">
+      <c r="B258" s="16" t="s">
         <v>588</v>
       </c>
       <c r="C258" s="6" t="s">
@@ -5552,7 +5785,7 @@
       <c r="A259" t="s">
         <v>590</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="17" t="s">
         <v>591</v>
       </c>
       <c r="C259" s="6" t="s">
@@ -5563,7 +5796,7 @@
       <c r="A260" t="s">
         <v>592</v>
       </c>
-      <c r="B260" s="15" t="s">
+      <c r="B260" s="17" t="s">
         <v>593</v>
       </c>
       <c r="C260" s="6" t="s">
@@ -5574,7 +5807,7 @@
       <c r="A261" t="s">
         <v>524</v>
       </c>
-      <c r="B261" s="14" t="s">
+      <c r="B261" s="16" t="s">
         <v>525</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -5585,7 +5818,7 @@
       <c r="A262" t="s">
         <v>540</v>
       </c>
-      <c r="B262" s="14" t="s">
+      <c r="B262" s="16" t="s">
         <v>541</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -5596,7 +5829,7 @@
       <c r="A263" t="s">
         <v>521</v>
       </c>
-      <c r="B263" s="14" t="s">
+      <c r="B263" s="16" t="s">
         <v>522</v>
       </c>
       <c r="C263" s="2" t="s">
@@ -5607,7 +5840,7 @@
       <c r="A264" t="s">
         <v>491</v>
       </c>
-      <c r="B264" s="14" t="s">
+      <c r="B264" s="16" t="s">
         <v>492</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -5618,7 +5851,7 @@
       <c r="A265" t="s">
         <v>46</v>
       </c>
-      <c r="B265" s="14" t="s">
+      <c r="B265" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -5629,7 +5862,7 @@
       <c r="A266" t="s">
         <v>48</v>
       </c>
-      <c r="B266" s="14" t="s">
+      <c r="B266" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -5640,7 +5873,7 @@
       <c r="A267" t="s">
         <v>620</v>
       </c>
-      <c r="B267" s="15" t="s">
+      <c r="B267" s="17" t="s">
         <v>621</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -5651,7 +5884,7 @@
       <c r="A268" t="s">
         <v>594</v>
       </c>
-      <c r="B268" s="15" t="s">
+      <c r="B268" s="17" t="s">
         <v>595</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -5662,7 +5895,7 @@
       <c r="A269" t="s">
         <v>596</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="B269" s="17" t="s">
         <v>597</v>
       </c>
       <c r="C269" s="2"/>
@@ -5671,7 +5904,7 @@
       <c r="A270" t="s">
         <v>599</v>
       </c>
-      <c r="B270" s="15" t="s">
+      <c r="B270" s="17" t="s">
         <v>598</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -5682,7 +5915,7 @@
       <c r="A271" t="s">
         <v>600</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="B271" s="17" t="s">
         <v>601</v>
       </c>
       <c r="C271" s="2"/>
@@ -5691,7 +5924,7 @@
       <c r="A272" t="s">
         <v>616</v>
       </c>
-      <c r="B272" s="15" t="s">
+      <c r="B272" s="17" t="s">
         <v>617</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -5702,7 +5935,7 @@
       <c r="A273" t="s">
         <v>618</v>
       </c>
-      <c r="B273" s="15" t="s">
+      <c r="B273" s="17" t="s">
         <v>619</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -5713,7 +5946,7 @@
       <c r="A274" t="s">
         <v>653</v>
       </c>
-      <c r="B274" s="14" t="s">
+      <c r="B274" s="16" t="s">
         <v>655</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -5724,7 +5957,7 @@
       <c r="A275" t="s">
         <v>510</v>
       </c>
-      <c r="B275" s="14" t="s">
+      <c r="B275" s="16" t="s">
         <v>512</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -5735,7 +5968,7 @@
       <c r="A276" t="s">
         <v>652</v>
       </c>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="17" t="s">
         <v>602</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -5746,7 +5979,7 @@
       <c r="A277" t="s">
         <v>49</v>
       </c>
-      <c r="B277" s="14" t="s">
+      <c r="B277" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -5757,7 +5990,7 @@
       <c r="A278" t="s">
         <v>519</v>
       </c>
-      <c r="B278" s="14" t="s">
+      <c r="B278" s="16" t="s">
         <v>520</v>
       </c>
       <c r="C278" s="9" t="s">
@@ -5768,7 +6001,7 @@
       <c r="A279" t="s">
         <v>507</v>
       </c>
-      <c r="B279" s="14" t="s">
+      <c r="B279" s="16" t="s">
         <v>509</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -5779,7 +6012,7 @@
       <c r="A280" t="s">
         <v>640</v>
       </c>
-      <c r="B280" s="15" t="s">
+      <c r="B280" s="17" t="s">
         <v>641</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -5790,7 +6023,7 @@
       <c r="A281" t="s">
         <v>555</v>
       </c>
-      <c r="B281" s="14" t="s">
+      <c r="B281" s="16" t="s">
         <v>556</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -5801,7 +6034,7 @@
       <c r="A282" t="s">
         <v>552</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="16" t="s">
         <v>553</v>
       </c>
       <c r="C282" s="2" t="s">
@@ -5812,7 +6045,7 @@
       <c r="A283" t="s">
         <v>51</v>
       </c>
-      <c r="B283" s="14" t="s">
+      <c r="B283" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -5823,7 +6056,7 @@
       <c r="A284" t="s">
         <v>52</v>
       </c>
-      <c r="B284" s="14" t="s">
+      <c r="B284" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C284" s="9" t="s">
@@ -5834,7 +6067,7 @@
       <c r="A285" t="s">
         <v>516</v>
       </c>
-      <c r="B285" s="15" t="s">
+      <c r="B285" s="17" t="s">
         <v>518</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -5845,7 +6078,7 @@
       <c r="A286" t="s">
         <v>225</v>
       </c>
-      <c r="B286" s="14" t="s">
+      <c r="B286" s="16" t="s">
         <v>226</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -5856,7 +6089,7 @@
       <c r="A287" t="s">
         <v>501</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="17" t="s">
         <v>502</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -5867,7 +6100,7 @@
       <c r="A288" t="s">
         <v>658</v>
       </c>
-      <c r="B288" s="19" t="s">
+      <c r="B288" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C288" s="2" t="s">
@@ -5878,7 +6111,7 @@
       <c r="A289" t="s">
         <v>222</v>
       </c>
-      <c r="B289" s="14" t="s">
+      <c r="B289" s="16" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5886,7 +6119,7 @@
       <c r="A290" t="s">
         <v>494</v>
       </c>
-      <c r="B290" s="15" t="s">
+      <c r="B290" s="17" t="s">
         <v>495</v>
       </c>
       <c r="C290" s="2" t="s">
@@ -5897,7 +6130,7 @@
       <c r="A291" t="s">
         <v>496</v>
       </c>
-      <c r="B291" s="14" t="s">
+      <c r="B291" s="16" t="s">
         <v>497</v>
       </c>
       <c r="C291" s="2"/>
@@ -5906,7 +6139,7 @@
       <c r="A292" t="s">
         <v>499</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="B292" s="16" t="s">
         <v>500</v>
       </c>
       <c r="C292" s="2"/>
@@ -5915,7 +6148,7 @@
       <c r="A293" t="s">
         <v>606</v>
       </c>
-      <c r="B293" s="15" t="s">
+      <c r="B293" s="17" t="s">
         <v>607</v>
       </c>
       <c r="C293" s="2"/>
@@ -5924,7 +6157,7 @@
       <c r="A294" t="s">
         <v>608</v>
       </c>
-      <c r="B294" s="15" t="s">
+      <c r="B294" s="17" t="s">
         <v>609</v>
       </c>
       <c r="C294" s="2"/>
@@ -5933,7 +6166,7 @@
       <c r="A295" t="s">
         <v>612</v>
       </c>
-      <c r="B295" s="15" t="s">
+      <c r="B295" s="17" t="s">
         <v>613</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -5944,7 +6177,7 @@
       <c r="A296" t="s">
         <v>614</v>
       </c>
-      <c r="B296" s="15" t="s">
+      <c r="B296" s="17" t="s">
         <v>615</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -5955,7 +6188,7 @@
       <c r="A297" t="s">
         <v>572</v>
       </c>
-      <c r="B297" s="15" t="s">
+      <c r="B297" s="17" t="s">
         <v>573</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -5966,7 +6199,7 @@
       <c r="A298" t="s">
         <v>605</v>
       </c>
-      <c r="B298" s="14" t="s">
+      <c r="B298" s="16" t="s">
         <v>578</v>
       </c>
       <c r="C298" s="2" t="s">
@@ -5977,7 +6210,7 @@
       <c r="A299" t="s">
         <v>579</v>
       </c>
-      <c r="B299" s="15" t="s">
+      <c r="B299" s="17" t="s">
         <v>580</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -5988,7 +6221,7 @@
       <c r="A300" t="s">
         <v>576</v>
       </c>
-      <c r="B300" s="14" t="s">
+      <c r="B300" s="16" t="s">
         <v>577</v>
       </c>
       <c r="C300" s="2"/>
@@ -5997,7 +6230,7 @@
       <c r="A301" t="s">
         <v>543</v>
       </c>
-      <c r="B301" s="14" t="s">
+      <c r="B301" s="16" t="s">
         <v>544</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -6008,7 +6241,7 @@
       <c r="A302" t="s">
         <v>545</v>
       </c>
-      <c r="B302" s="14" t="s">
+      <c r="B302" s="16" t="s">
         <v>546</v>
       </c>
       <c r="C302" s="2" t="s">
@@ -6019,7 +6252,7 @@
       <c r="A303" t="s">
         <v>547</v>
       </c>
-      <c r="B303" s="15" t="s">
+      <c r="B303" s="17" t="s">
         <v>548</v>
       </c>
       <c r="C303" s="2" t="s">
@@ -6030,7 +6263,7 @@
       <c r="A304" t="s">
         <v>642</v>
       </c>
-      <c r="B304" s="15" t="s">
+      <c r="B304" s="17" t="s">
         <v>643</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -6041,7 +6274,7 @@
       <c r="A305" t="s">
         <v>603</v>
       </c>
-      <c r="B305" s="15" t="s">
+      <c r="B305" s="17" t="s">
         <v>604</v>
       </c>
       <c r="C305" s="2"/>
@@ -6050,7 +6283,7 @@
       <c r="A306" t="s">
         <v>610</v>
       </c>
-      <c r="B306" s="15" t="s">
+      <c r="B306" s="17" t="s">
         <v>611</v>
       </c>
       <c r="C306" s="2" t="s">
@@ -6061,7 +6294,7 @@
       <c r="A307" t="s">
         <v>574</v>
       </c>
-      <c r="B307" s="14" t="s">
+      <c r="B307" s="16" t="s">
         <v>575</v>
       </c>
       <c r="C307" s="2" t="s">
@@ -6072,7 +6305,7 @@
       <c r="A308" t="s">
         <v>223</v>
       </c>
-      <c r="B308" s="14" t="s">
+      <c r="B308" s="16" t="s">
         <v>498</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -6083,7 +6316,7 @@
       <c r="A309" t="s">
         <v>853</v>
       </c>
-      <c r="B309" s="19" t="s">
+      <c r="B309" s="21" t="s">
         <v>866</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -6101,13 +6334,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6166,77 +6399,97 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B6" t="s">
+        <v>897</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="B7" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>900</v>
+      </c>
+      <c r="B8" t="s">
+        <v>899</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>773</v>
+        <v>901</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>902</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>775</v>
-      </c>
-      <c r="B10" t="s">
-        <v>776</v>
-      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>875</v>
+      </c>
+      <c r="B11" t="s">
+        <v>876</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="B12" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>873</v>
+        <v>773</v>
       </c>
       <c r="B13" t="s">
-        <v>874</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>888</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="B14" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>774</v>
+      </c>
+      <c r="B15" t="s">
+        <v>775</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="B16" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -6245,762 +6498,1118 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>767</v>
+        <v>941</v>
       </c>
       <c r="B18" t="s">
-        <v>768</v>
+        <v>942</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>877</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>715</v>
+        <v>944</v>
       </c>
       <c r="B19" t="s">
-        <v>769</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>716</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>760</v>
+        <v>871</v>
       </c>
       <c r="B21" t="s">
-        <v>761</v>
+        <v>872</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>762</v>
+        <v>873</v>
       </c>
       <c r="B22" t="s">
-        <v>763</v>
+        <v>874</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>764</v>
+        <v>869</v>
       </c>
       <c r="B23" t="s">
-        <v>765</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>766</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>878</v>
-      </c>
-      <c r="B24" t="s">
-        <v>879</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>880</v>
-      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>935</v>
+      </c>
+      <c r="B25" t="s">
+        <v>936</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>707</v>
+        <v>938</v>
       </c>
       <c r="B26" t="s">
-        <v>708</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>939</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>709</v>
+        <v>937</v>
       </c>
       <c r="B27" t="s">
-        <v>710</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>892</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>819</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>820</v>
+        <v>891</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>821</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>836</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="B29" t="s">
+        <v>927</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>823</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>837</v>
-      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>727</v>
+        <v>930</v>
       </c>
       <c r="B31" t="s">
-        <v>728</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>729</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>720</v>
-      </c>
-      <c r="B32" t="s">
-        <v>722</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>721</v>
-      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="B33" t="s">
-        <v>739</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>740</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>735</v>
-      </c>
-      <c r="B34" t="s">
-        <v>736</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>737</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>703</v>
+        <v>767</v>
       </c>
       <c r="B35" t="s">
-        <v>704</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>702</v>
+        <v>768</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B36" t="s">
-        <v>706</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>838</v>
+        <v>769</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>825</v>
+        <v>903</v>
       </c>
       <c r="B37" t="s">
-        <v>834</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>835</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>790</v>
+        <v>904</v>
       </c>
       <c r="B38" t="s">
-        <v>791</v>
+        <v>905</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>789</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>792</v>
+        <v>907</v>
+      </c>
+      <c r="B39" t="s">
+        <v>908</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>682</v>
-      </c>
-      <c r="B40" t="s">
-        <v>683</v>
+        <v>916</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>785</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>786</v>
+        <v>917</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>826</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>827</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>686</v>
+        <v>760</v>
       </c>
       <c r="B43" t="s">
-        <v>687</v>
+        <v>761</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>787</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>788</v>
+        <v>762</v>
+      </c>
+      <c r="B44" t="s">
+        <v>763</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>828</v>
+        <v>764</v>
+      </c>
+      <c r="B45" t="s">
+        <v>765</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>829</v>
+        <v>766</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>795</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>878</v>
+      </c>
+      <c r="B46" t="s">
+        <v>879</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>684</v>
+        <v>909</v>
       </c>
       <c r="B47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="B48" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>709</v>
+      </c>
+      <c r="B49" t="s">
+        <v>710</v>
+      </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>717</v>
-      </c>
-      <c r="B50" t="s">
-        <v>718</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>719</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
+      <c r="A51" t="s">
+        <v>822</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>733</v>
-      </c>
-      <c r="B52" t="s">
-        <v>734</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>824</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="B53" t="s">
-        <v>695</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>728</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
       <c r="B54" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>759</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>793</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>738</v>
+      </c>
+      <c r="B55" t="s">
+        <v>739</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
+      <c r="A56" t="s">
+        <v>735</v>
+      </c>
+      <c r="B56" t="s">
+        <v>736</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>754</v>
+        <v>703</v>
       </c>
       <c r="B57" t="s">
-        <v>811</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>704</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>798</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="B58" t="s">
+        <v>706</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
+      <c r="A59" t="s">
+        <v>826</v>
+      </c>
+      <c r="B59" t="s">
+        <v>834</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>755</v>
+        <v>791</v>
       </c>
       <c r="B60" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
+      <c r="A62" t="s">
+        <v>682</v>
+      </c>
+      <c r="B62" t="s">
+        <v>683</v>
+      </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>758</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>780</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>730</v>
-      </c>
-      <c r="B64" t="s">
-        <v>731</v>
+        <v>827</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>732</v>
+        <v>828</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>686</v>
+      </c>
+      <c r="B65" t="s">
+        <v>687</v>
+      </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>781</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>782</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>779</v>
-      </c>
-      <c r="B67" t="s">
-        <v>777</v>
+        <v>829</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>778</v>
+        <v>949</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>723</v>
-      </c>
-      <c r="B68" t="s">
-        <v>805</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>724</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
+      <c r="A69" t="s">
+        <v>684</v>
+      </c>
+      <c r="B69" t="s">
+        <v>685</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
       <c r="B70" t="s">
-        <v>804</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>726</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>747</v>
-      </c>
-      <c r="B71" t="s">
-        <v>748</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>749</v>
-      </c>
+        <v>911</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
+      <c r="A72" t="s">
+        <v>717</v>
+      </c>
+      <c r="B72" t="s">
+        <v>718</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>783</v>
+        <v>912</v>
       </c>
       <c r="B73" t="s">
-        <v>803</v>
+        <v>947</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>784</v>
+        <v>948</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>801</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>844</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="B74" t="s">
+        <v>734</v>
+      </c>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>694</v>
+      </c>
+      <c r="B75" t="s">
+        <v>695</v>
+      </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>814</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>815</v>
+        <v>697</v>
+      </c>
+      <c r="B76" t="s">
+        <v>696</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>812</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>845</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>770</v>
-      </c>
-      <c r="B78" t="s">
-        <v>771</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>772</v>
-      </c>
+        <v>913</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>754</v>
+      </c>
+      <c r="B79" t="s">
+        <v>812</v>
+      </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>882</v>
+        <v>799</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>883</v>
+        <v>811</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>756</v>
-      </c>
-      <c r="B81" t="s">
-        <v>757</v>
+        <v>914</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>679</v>
+        <v>755</v>
       </c>
       <c r="B82" t="s">
-        <v>713</v>
+        <v>810</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>700</v>
-      </c>
-      <c r="B83" t="s">
-        <v>701</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>744</v>
-      </c>
-      <c r="B84" t="s">
-        <v>745</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>746</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>920</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>866</v>
+      </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>799</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>758</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="2"/>
+      <c r="A87" t="s">
+        <v>730</v>
+      </c>
+      <c r="B87" t="s">
+        <v>731</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>817</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>839</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>816</v>
-      </c>
-      <c r="B89" t="s">
-        <v>750</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>751</v>
+        <v>782</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>841</v>
+        <v>780</v>
       </c>
       <c r="B90" t="s">
-        <v>842</v>
+        <v>778</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>840</v>
+        <v>779</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
+      <c r="A91" t="s">
+        <v>723</v>
+      </c>
+      <c r="B91" t="s">
+        <v>806</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>741</v>
-      </c>
-      <c r="B92" t="s">
-        <v>742</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>743</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
+      <c r="A93" t="s">
+        <v>725</v>
+      </c>
+      <c r="B93" t="s">
+        <v>805</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="B94" t="s">
-        <v>712</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>748</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>950</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>866</v>
+      </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>832</v>
+        <v>951</v>
       </c>
       <c r="B96" t="s">
-        <v>833</v>
+        <v>955</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>830</v>
+        <v>952</v>
       </c>
       <c r="B97" t="s">
-        <v>831</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>956</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>953</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>866</v>
+      </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>881</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>885</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>961</v>
+      </c>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="2"/>
+      <c r="A100" t="s">
+        <v>784</v>
+      </c>
+      <c r="B100" t="s">
+        <v>804</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>680</v>
-      </c>
-      <c r="B101" t="s">
-        <v>681</v>
-      </c>
-      <c r="C101" s="6"/>
+        <v>802</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>923</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>866</v>
+      </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>815</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>813</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>770</v>
+      </c>
+      <c r="B105" t="s">
+        <v>771</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>924</v>
+      </c>
+      <c r="B106" t="s">
+        <v>946</v>
+      </c>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>882</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>756</v>
+      </c>
+      <c r="B108" t="s">
+        <v>757</v>
+      </c>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>679</v>
+      </c>
+      <c r="B109" t="s">
+        <v>713</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>700</v>
+      </c>
+      <c r="B110" t="s">
+        <v>701</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>744</v>
+      </c>
+      <c r="B111" t="s">
+        <v>745</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>925</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>800</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>957</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>959</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>818</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>817</v>
+      </c>
+      <c r="B119" t="s">
+        <v>750</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>841</v>
+      </c>
+      <c r="B120" t="s">
+        <v>842</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>932</v>
+      </c>
+      <c r="B122" t="s">
+        <v>933</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>928</v>
+      </c>
+      <c r="B123" t="s">
+        <v>929</v>
+      </c>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>741</v>
+      </c>
+      <c r="B125" t="s">
+        <v>742</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>711</v>
+      </c>
+      <c r="B127" t="s">
+        <v>712</v>
+      </c>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>832</v>
+      </c>
+      <c r="B129" t="s">
+        <v>833</v>
+      </c>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>830</v>
+      </c>
+      <c r="B130" t="s">
+        <v>831</v>
+      </c>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>881</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>680</v>
+      </c>
+      <c r="B134" t="s">
+        <v>681</v>
+      </c>
+      <c r="C134" s="6"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>698</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="2"/>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Air units" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1112">
   <si>
     <t>A0039</t>
   </si>
@@ -735,15 +735,9 @@
     <t>Vanilla image depicts a Gladiator Mk.II (aircraft No. GL-255 of 1/LLv 26) - source image reused for the time being</t>
   </si>
   <si>
-    <t>Heinkel 111 H-3</t>
-  </si>
-  <si>
     <t>1940 photo, so must be H-3 (or earlier H-variant)</t>
   </si>
   <si>
-    <t>Heinkel 111 H-4</t>
-  </si>
-  <si>
     <t>Focke-Wulf Fw 190F</t>
   </si>
   <si>
@@ -1131,9 +1125,6 @@
     <t xml:space="preserve">Savoia-Marchetti SM-81 Pipistrello </t>
   </si>
   <si>
-    <t>Breda Ba.88?</t>
-  </si>
-  <si>
     <t>Savoia-Marchetti S.M.75 Marsupiale</t>
   </si>
   <si>
@@ -1326,9 +1317,6 @@
     <t>Confirmed G-10</t>
   </si>
   <si>
-    <t>Heinkel 111 H-20/R2</t>
-  </si>
-  <si>
     <t>Gotha Go 244</t>
   </si>
   <si>
@@ -1689,24 +1677,9 @@
     <t>Yermolayev Yer-2</t>
   </si>
   <si>
-    <t>Messerschmitt Me 109 G-6 (H)</t>
-  </si>
-  <si>
-    <t>Messerschmitt Me 109 G-14/U4 (H)</t>
-  </si>
-  <si>
-    <t>Messerschmitt Me 109 G-2 (H)</t>
-  </si>
-  <si>
     <t>Replacement image for Vanilla added - BF-109 (H)</t>
   </si>
   <si>
-    <t>He-111(H) - same source image as Vanilla</t>
-  </si>
-  <si>
-    <t>Ju-88?</t>
-  </si>
-  <si>
     <t>A0285</t>
   </si>
   <si>
@@ -1953,15 +1926,9 @@
     <t>A0272</t>
   </si>
   <si>
-    <t>Polikarkov I-15?</t>
-  </si>
-  <si>
     <t>Ла-5ФН</t>
   </si>
   <si>
-    <t>Ла-7</t>
-  </si>
-  <si>
     <t>Ил-2</t>
   </si>
   <si>
@@ -2502,9 +2469,6 @@
     <t>GP0083</t>
   </si>
   <si>
-    <t>Pioneer?</t>
-  </si>
-  <si>
     <t>GP0086</t>
   </si>
   <si>
@@ -2526,9 +2490,6 @@
     <t>12cm Granatwerfer 42</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62cm PAK36(r) </t>
-  </si>
-  <si>
     <t>PAK 43</t>
   </si>
   <si>
@@ -2583,48 +2544,15 @@
     <t>Confirmed Ju 88A-4. Vanilla uses the same source image.</t>
   </si>
   <si>
-    <t>Image is of a German 110G-4</t>
-  </si>
-  <si>
     <t>Though hard to see, it is an actual Hungarian Fw 190 F-8! The number '54' on the front of the nose is the giveaway, as German ones did not have those markings. And it beats the Vanilla image by a mile (though that was the only other plausible Hungarian shot I was able to find)</t>
   </si>
   <si>
     <t>Gotha Go 145C</t>
   </si>
   <si>
-    <t>Condor?</t>
-  </si>
-  <si>
-    <t>Fw 190</t>
-  </si>
-  <si>
-    <t>Do 17</t>
-  </si>
-  <si>
-    <t>Bf 110</t>
-  </si>
-  <si>
-    <t>Bf 109</t>
-  </si>
-  <si>
-    <t>Ju 86</t>
-  </si>
-  <si>
-    <t>He 112?</t>
-  </si>
-  <si>
-    <t>He 111?</t>
-  </si>
-  <si>
-    <t>** Vanilla **</t>
-  </si>
-  <si>
     <t>Depicted is a P-47D</t>
   </si>
   <si>
-    <t>** Placeholder **</t>
-  </si>
-  <si>
     <t>GP0031</t>
   </si>
   <si>
@@ -2865,9 +2793,6 @@
     <t>Raketenpanzerbüchse</t>
   </si>
   <si>
-    <t>some form of infantry (AT?) Or pionier squad 1944?</t>
-  </si>
-  <si>
     <t>GP0114</t>
   </si>
   <si>
@@ -2904,7 +2829,529 @@
     <t>Cavalry squad (-) (Ger)</t>
   </si>
   <si>
-    <t>Confirmation needed this is the right slot! Though the source image Vanilla uses seems to match paras, and there is a 1944 slot</t>
+    <t>He-111(H) - same source image as Vanilla. Supposed to be He 111P(H)?</t>
+  </si>
+  <si>
+    <t>Image is of a German 110 G-4</t>
+  </si>
+  <si>
+    <t>Panzer Pionier Squad 1944 (Ger)</t>
+  </si>
+  <si>
+    <t>Panzer Pionier Squad (Ger)</t>
+  </si>
+  <si>
+    <t>1943/10 model, only active for 1 month</t>
+  </si>
+  <si>
+    <t>Panzer Grenadier Squad (-) (Ger)</t>
+  </si>
+  <si>
+    <t>11/44 and onwards</t>
+  </si>
+  <si>
+    <t>Rifle Squad (-) (Ger)</t>
+  </si>
+  <si>
+    <t>Pionier Squad 1944 (Ger)</t>
+  </si>
+  <si>
+    <t>German Motorised rifle squad (-) (Ger)</t>
+  </si>
+  <si>
+    <t>Fallschirmjäger Squad 1939</t>
+  </si>
+  <si>
+    <t>GP0370</t>
+  </si>
+  <si>
+    <t>122mm Field Gun (Ger)</t>
+  </si>
+  <si>
+    <t>GP0369</t>
+  </si>
+  <si>
+    <t>76mm Field Gun F-22 (Ger)</t>
+  </si>
+  <si>
+    <t>Same image used for 76mm Field Gun ZiS</t>
+  </si>
+  <si>
+    <t>GP0362</t>
+  </si>
+  <si>
+    <t>75mm anti-tank gun (Ger)</t>
+  </si>
+  <si>
+    <t>PAK 38</t>
+  </si>
+  <si>
+    <t>GP0338</t>
+  </si>
+  <si>
+    <t>Theodor 240mm gun (Ger)</t>
+  </si>
+  <si>
+    <t>GP0356</t>
+  </si>
+  <si>
+    <t>45mm anti-tank gun (Ger)</t>
+  </si>
+  <si>
+    <t>M37/38 gun</t>
+  </si>
+  <si>
+    <t>7.62cm PAK36(r) . Same image used for 76mm anti-tank gun ZiS</t>
+  </si>
+  <si>
+    <t>240mm Siege Gun (Ger)</t>
+  </si>
+  <si>
+    <t>355 mm howitzer (Ger)</t>
+  </si>
+  <si>
+    <t>HM1</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>GP0365</t>
+  </si>
+  <si>
+    <t>IG 37</t>
+  </si>
+  <si>
+    <t>122mm howitzer (Ger)</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>GP0048</t>
+  </si>
+  <si>
+    <t>SdKfz-10/4 SP Flak</t>
+  </si>
+  <si>
+    <t>GP0050</t>
+  </si>
+  <si>
+    <t>Wirbelwind</t>
+  </si>
+  <si>
+    <t>GP0051</t>
+  </si>
+  <si>
+    <t>Ostwind</t>
+  </si>
+  <si>
+    <t>SdKfz-250/7 mortar carrier</t>
+  </si>
+  <si>
+    <t>SdKfz-251/17 SP Flak</t>
+  </si>
+  <si>
+    <t>SdKfz-251/22 halftrack</t>
+  </si>
+  <si>
+    <t>Möbelwagen</t>
+  </si>
+  <si>
+    <t>GP0209</t>
+  </si>
+  <si>
+    <t>SdKfz-7/1 SP Flak</t>
+  </si>
+  <si>
+    <t>GP0210</t>
+  </si>
+  <si>
+    <t>SdKfz-7/2 SP Flak</t>
+  </si>
+  <si>
+    <t>GP0220</t>
+  </si>
+  <si>
+    <t>SdKfz-251/2D mortar carrier</t>
+  </si>
+  <si>
+    <t>GP0421</t>
+  </si>
+  <si>
+    <t>GP0456</t>
+  </si>
+  <si>
+    <t>SdKfz-10/5 SP Flak</t>
+  </si>
+  <si>
+    <t>GP0472</t>
+  </si>
+  <si>
+    <t>SdKfz-250/8 Halftrack</t>
+  </si>
+  <si>
+    <t>GP0455</t>
+  </si>
+  <si>
+    <t>Sdkfz-232 Armored Car</t>
+  </si>
+  <si>
+    <t>GP0454</t>
+  </si>
+  <si>
+    <t>SdKfz-222B Armored Car</t>
+  </si>
+  <si>
+    <t>GP0349</t>
+  </si>
+  <si>
+    <t>SdKfz-250/9 Halftrack</t>
+  </si>
+  <si>
+    <t>SdKfz-234/4 Armored Car</t>
+  </si>
+  <si>
+    <t>SdKfz-234/3 Armored Car</t>
+  </si>
+  <si>
+    <t>GP0471</t>
+  </si>
+  <si>
+    <t>SdKfz-251 Panzerwerfer</t>
+  </si>
+  <si>
+    <t>GP0410</t>
+  </si>
+  <si>
+    <t>sIG33/2 Grille</t>
+  </si>
+  <si>
+    <t>GP0218</t>
+  </si>
+  <si>
+    <t>sIG33 Grille H</t>
+  </si>
+  <si>
+    <t>GP0174</t>
+  </si>
+  <si>
+    <t>SdKfz-4 Panzerwerfer</t>
+  </si>
+  <si>
+    <t>sIG33 Grille K</t>
+  </si>
+  <si>
+    <t>GP0047</t>
+  </si>
+  <si>
+    <t>SdKfz-135/1 Lorraine</t>
+  </si>
+  <si>
+    <t>GP0046</t>
+  </si>
+  <si>
+    <t>Hummel</t>
+  </si>
+  <si>
+    <t>GP0045</t>
+  </si>
+  <si>
+    <t>Wespe</t>
+  </si>
+  <si>
+    <t>GP0422</t>
+  </si>
+  <si>
+    <t>SdKfz-8 Flak-18</t>
+  </si>
+  <si>
+    <t>SdKfz-251/21 SP Flak</t>
+  </si>
+  <si>
+    <t>GP0409</t>
+  </si>
+  <si>
+    <t>StuG M43 853(i)</t>
+  </si>
+  <si>
+    <t>GP0407</t>
+  </si>
+  <si>
+    <t>StuG M42 851(i)</t>
+  </si>
+  <si>
+    <t>GP0397</t>
+  </si>
+  <si>
+    <t>Panzer M15/42 738(i)</t>
+  </si>
+  <si>
+    <t>GP0396</t>
+  </si>
+  <si>
+    <t>Panzer 35R 731(f)</t>
+  </si>
+  <si>
+    <t>GP0394</t>
+  </si>
+  <si>
+    <t>Panzer 39H 735(f)</t>
+  </si>
+  <si>
+    <t>GP0393</t>
+  </si>
+  <si>
+    <t>Panzer 35H 735(f)</t>
+  </si>
+  <si>
+    <t>GP0392</t>
+  </si>
+  <si>
+    <t>Panzer 35-S 739(f)</t>
+  </si>
+  <si>
+    <t>GP0391</t>
+  </si>
+  <si>
+    <t>Flammpanzer B-2(f)</t>
+  </si>
+  <si>
+    <t>GP0390</t>
+  </si>
+  <si>
+    <t>Panzer B-2 740(f)</t>
+  </si>
+  <si>
+    <t>GP0043</t>
+  </si>
+  <si>
+    <t>GP0219</t>
+  </si>
+  <si>
+    <t>Panzer IIIj</t>
+  </si>
+  <si>
+    <t>GP0044</t>
+  </si>
+  <si>
+    <t>Jagdtiger</t>
+  </si>
+  <si>
+    <t>Ferdinand/Elefant</t>
+  </si>
+  <si>
+    <t>Image GP0043 is also used for Elefant (patch 1.08.08)</t>
+  </si>
+  <si>
+    <t>GP0042</t>
+  </si>
+  <si>
+    <t>Jagdpanther</t>
+  </si>
+  <si>
+    <t>GP0040</t>
+  </si>
+  <si>
+    <t>GP0041</t>
+  </si>
+  <si>
+    <t>Jagdpanzer IV/70(v)</t>
+  </si>
+  <si>
+    <t>Flammpanzer 38</t>
+  </si>
+  <si>
+    <t>Nashorn</t>
+  </si>
+  <si>
+    <t>GP0034</t>
+  </si>
+  <si>
+    <t>Panzerjäger II</t>
+  </si>
+  <si>
+    <t>GP0033</t>
+  </si>
+  <si>
+    <t>GP0032</t>
+  </si>
+  <si>
+    <t>Jagdpanzer IV</t>
+  </si>
+  <si>
+    <t>Panzerjäger I</t>
+  </si>
+  <si>
+    <t>GP0028</t>
+  </si>
+  <si>
+    <t>Stug IIIb</t>
+  </si>
+  <si>
+    <t>GP0027</t>
+  </si>
+  <si>
+    <t>Sturmpanzer IV</t>
+  </si>
+  <si>
+    <t>GP0026</t>
+  </si>
+  <si>
+    <t>Königstiger</t>
+  </si>
+  <si>
+    <t>GP0025</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>GP0024</t>
+  </si>
+  <si>
+    <t>Panther G</t>
+  </si>
+  <si>
+    <t>GP0023</t>
+  </si>
+  <si>
+    <t>Panther A</t>
+  </si>
+  <si>
+    <t>GP0022</t>
+  </si>
+  <si>
+    <t>Panther D</t>
+  </si>
+  <si>
+    <t>GP0018</t>
+  </si>
+  <si>
+    <t>GP0019</t>
+  </si>
+  <si>
+    <t>Pz IV Ausf. F2</t>
+  </si>
+  <si>
+    <t>Pz IV Ausf. F</t>
+  </si>
+  <si>
+    <t>GP0009</t>
+  </si>
+  <si>
+    <t>GP0010</t>
+  </si>
+  <si>
+    <t>GP0011</t>
+  </si>
+  <si>
+    <t>Panzer III Ausf. N</t>
+  </si>
+  <si>
+    <t>Panzer III Ausf. M</t>
+  </si>
+  <si>
+    <t>Panzer III Ausf. L</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf-109G-6/N</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf-110D-1/R2</t>
+  </si>
+  <si>
+    <t>Dornier Do 215B-1</t>
+  </si>
+  <si>
+    <t>Focke Wulf Fw 190A-5/U2</t>
+  </si>
+  <si>
+    <t>Focke Wulf Fw 190A-8/R8</t>
+  </si>
+  <si>
+    <t>Focke Wulf 200C-3/U4</t>
+  </si>
+  <si>
+    <t>Heinkel He 111 H-20/R2</t>
+  </si>
+  <si>
+    <t>Heinkel He 111 H-3</t>
+  </si>
+  <si>
+    <t>Heinkel He 111 H-4</t>
+  </si>
+  <si>
+    <t>Heinkel He 111P</t>
+  </si>
+  <si>
+    <t>Heinkel He 70F</t>
+  </si>
+  <si>
+    <t>Heinkel He 46C</t>
+  </si>
+  <si>
+    <t>Junkers Ju 86C</t>
+  </si>
+  <si>
+    <t>Junkers Ju 86P-2</t>
+  </si>
+  <si>
+    <t>Henschel Hs 126B-2</t>
+  </si>
+  <si>
+    <t>Gloster Gladiator Mk.II Recon (F)</t>
+  </si>
+  <si>
+    <t>Caproni Ca.135bis</t>
+  </si>
+  <si>
+    <t>Bristol Blenheim Mk.I Recon (Rom)</t>
+  </si>
+  <si>
+    <t>Dornier Do 17M (Rom)</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf 109 G-14/U4 (H)</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf 109 G-2 (H)</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf 109 G-6 (H)</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf 109F-4 (H)</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf 109G10/U4 (H)</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf 109 G-8 (H)</t>
+  </si>
+  <si>
+    <t>Heinkel He 111P (H)</t>
+  </si>
+  <si>
+    <t>Dornier Do 215B-4 (H)</t>
+  </si>
+  <si>
+    <t>Ла-7. Same image A0305 used for La-7 1945</t>
+  </si>
+  <si>
+    <t>** Vanilla - not used? **</t>
+  </si>
+  <si>
+    <t>Note the Dackelbauch tank on the lower fuselage, as well as both the droptanks of the D-1/R2, clearly visible</t>
+  </si>
+  <si>
+    <t>Vanilla image is NOT of a P-2, but of a civilian C-variant, which is A0068</t>
+  </si>
+  <si>
+    <t>The Ju86 C-1 was a civilian Lufthansa version</t>
+  </si>
+  <si>
+    <t>Polikarkov I-15bis has two slots with slightly different stats</t>
   </si>
 </sst>
 </file>
@@ -2998,7 +3445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3009,7 +3456,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3329,17 +3775,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B214" sqref="B214"/>
+      <selection pane="bottomRight" activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="15" customWidth="1"/>
     <col min="3" max="3" width="136.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3347,7 +3793,7 @@
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3358,7 +3804,7 @@
       <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3366,8 +3812,8 @@
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>407</v>
+      <c r="B3" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3375,7 +3821,7 @@
       <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="2"/>
@@ -3384,7 +3830,7 @@
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C5" s="2"/>
@@ -3393,7 +3839,7 @@
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3404,8 +3850,8 @@
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>257</v>
+      <c r="B7" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -3413,85 +3859,83 @@
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>428</v>
+      <c r="B8" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>262</v>
+      <c r="B9" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>259</v>
+      <c r="B12" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>862</v>
-      </c>
+      <c r="B13" s="20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>430</v>
+      <c r="B14" s="16" t="s">
+        <v>427</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>451</v>
+      <c r="B15" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -3499,7 +3943,7 @@
       <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C16" s="2"/>
@@ -3508,30 +3952,30 @@
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>418</v>
+      <c r="B17" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>866</v>
+      <c r="B18" s="17" t="s">
+        <v>1080</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>861</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>455</v>
+      <c r="B19" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -3539,8 +3983,8 @@
       <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>258</v>
+      <c r="B20" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -3548,7 +3992,7 @@
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>236</v>
       </c>
       <c r="C21" s="2"/>
@@ -3557,8 +4001,8 @@
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>454</v>
+      <c r="B22" s="16" t="s">
+        <v>450</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -3566,8 +4010,8 @@
       <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>387</v>
+      <c r="B23" s="15" t="s">
+        <v>384</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -3575,19 +4019,19 @@
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>456</v>
+      <c r="B24" s="17" t="s">
+        <v>452</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>393</v>
+      <c r="B25" s="14" t="s">
+        <v>390</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -3595,8 +4039,8 @@
       <c r="A26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>392</v>
+      <c r="B26" s="14" t="s">
+        <v>389</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -3604,19 +4048,17 @@
       <c r="A27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>860</v>
-      </c>
+      <c r="B27" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>457</v>
+      <c r="B28" s="16" t="s">
+        <v>453</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -3624,8 +4066,8 @@
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>408</v>
+      <c r="B29" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -3633,8 +4075,8 @@
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>401</v>
+      <c r="B30" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -3642,8 +4084,8 @@
       <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>390</v>
+      <c r="B31" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -3651,8 +4093,8 @@
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>391</v>
+      <c r="B32" s="14" t="s">
+        <v>388</v>
       </c>
       <c r="C32" s="2"/>
     </row>
@@ -3660,7 +4102,7 @@
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
@@ -3669,7 +4111,7 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2"/>
@@ -3678,8 +4120,8 @@
       <c r="A35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>271</v>
+      <c r="B35" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -3687,30 +4129,26 @@
       <c r="A36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>859</v>
-      </c>
+      <c r="B36" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>859</v>
-      </c>
+      <c r="B37" s="20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>399</v>
+      <c r="B38" s="15" t="s">
+        <v>396</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -3718,41 +4156,39 @@
       <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>242</v>
+      <c r="B39" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>272</v>
+      <c r="B40" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>858</v>
-      </c>
+      <c r="B41" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>857</v>
+      <c r="B42" s="16" t="s">
+        <v>843</v>
       </c>
       <c r="C42" s="2"/>
     </row>
@@ -3760,8 +4196,8 @@
       <c r="A43" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>437</v>
+      <c r="B43" s="15" t="s">
+        <v>433</v>
       </c>
       <c r="C43" s="2"/>
     </row>
@@ -3769,8 +4205,8 @@
       <c r="A44" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>851</v>
+      <c r="B44" s="15" t="s">
+        <v>838</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -3778,8 +4214,8 @@
       <c r="A45" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>436</v>
+      <c r="B45" s="15" t="s">
+        <v>1085</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -3787,19 +4223,19 @@
       <c r="A46" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>241</v>
+      <c r="B47" s="15" t="s">
+        <v>1087</v>
       </c>
       <c r="C47" s="2"/>
     </row>
@@ -3807,19 +4243,17 @@
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>865</v>
-      </c>
+      <c r="B48" s="20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>447</v>
+      <c r="B49" s="16" t="s">
+        <v>443</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -3827,8 +4261,8 @@
       <c r="A50" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>438</v>
+      <c r="B50" s="15" t="s">
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -3836,19 +4270,17 @@
       <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>864</v>
-      </c>
+      <c r="B51" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>468</v>
+      <c r="B52" s="16" t="s">
+        <v>464</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -3856,8 +4288,8 @@
       <c r="A53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>389</v>
+      <c r="B53" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -3865,8 +4297,8 @@
       <c r="A54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="21" t="s">
-        <v>866</v>
+      <c r="B54" s="17" t="s">
+        <v>1090</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -3874,8 +4306,8 @@
       <c r="A55" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>274</v>
+      <c r="B55" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -3883,8 +4315,8 @@
       <c r="A56" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>261</v>
+      <c r="B56" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -3892,8 +4324,8 @@
       <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>478</v>
+      <c r="B57" s="16" t="s">
+        <v>474</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -3901,8 +4333,8 @@
       <c r="A58" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>409</v>
+      <c r="B58" s="15" t="s">
+        <v>406</v>
       </c>
       <c r="C58" s="2"/>
     </row>
@@ -3910,7 +4342,7 @@
       <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="2"/>
@@ -3919,19 +4351,19 @@
       <c r="A60" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>866</v>
+      <c r="B60" s="19" t="s">
+        <v>1091</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>863</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>395</v>
+      <c r="B61" s="15" t="s">
+        <v>392</v>
       </c>
       <c r="C61" s="2"/>
     </row>
@@ -3939,16 +4371,18 @@
       <c r="A62" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C62" s="2"/>
+      <c r="B62" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="2"/>
@@ -3957,19 +4391,19 @@
       <c r="A64" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>461</v>
+      <c r="B64" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>266</v>
+      <c r="B65" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="C65" s="2"/>
     </row>
@@ -3977,7 +4411,7 @@
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="2"/>
@@ -3986,8 +4420,8 @@
       <c r="A67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>458</v>
+      <c r="B67" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -3995,18 +4429,18 @@
       <c r="A68" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>394</v>
+      <c r="B68" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C69" s="2"/>
@@ -4015,8 +4449,8 @@
       <c r="A70" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>402</v>
+      <c r="B70" s="18" t="s">
+        <v>399</v>
       </c>
       <c r="C70" s="2"/>
     </row>
@@ -4024,8 +4458,8 @@
       <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>386</v>
+      <c r="B71" s="15" t="s">
+        <v>383</v>
       </c>
       <c r="C71" s="2"/>
     </row>
@@ -4033,8 +4467,8 @@
       <c r="A72" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>275</v>
+      <c r="B72" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="C72" s="2"/>
     </row>
@@ -4042,8 +4476,8 @@
       <c r="A73" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>439</v>
+      <c r="B73" s="15" t="s">
+        <v>435</v>
       </c>
       <c r="C73" s="2"/>
     </row>
@@ -4051,8 +4485,8 @@
       <c r="A74" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>270</v>
+      <c r="B74" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="C74" s="2"/>
     </row>
@@ -4060,8 +4494,8 @@
       <c r="A75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>276</v>
+      <c r="B75" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="C75" s="2"/>
     </row>
@@ -4069,19 +4503,19 @@
       <c r="A76" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>267</v>
+      <c r="B76" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>369</v>
+      <c r="B77" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="C77" s="2"/>
     </row>
@@ -4089,8 +4523,8 @@
       <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>269</v>
+      <c r="B78" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="C78" s="2"/>
     </row>
@@ -4098,8 +4532,8 @@
       <c r="A79" t="s">
         <v>148</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>400</v>
+      <c r="B79" s="15" t="s">
+        <v>397</v>
       </c>
       <c r="C79" s="2"/>
     </row>
@@ -4107,8 +4541,8 @@
       <c r="A80" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="16" t="s">
-        <v>851</v>
+      <c r="B80" s="15" t="s">
+        <v>838</v>
       </c>
       <c r="C80" s="2"/>
     </row>
@@ -4116,8 +4550,8 @@
       <c r="A81" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="16" t="s">
-        <v>406</v>
+      <c r="B81" s="15" t="s">
+        <v>403</v>
       </c>
       <c r="C81" s="2"/>
     </row>
@@ -4125,8 +4559,8 @@
       <c r="A82" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>388</v>
+      <c r="B82" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="C82" s="2"/>
     </row>
@@ -4134,19 +4568,19 @@
       <c r="A83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>465</v>
+      <c r="B83" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>462</v>
+      <c r="B84" s="16" t="s">
+        <v>458</v>
       </c>
       <c r="C84" s="2"/>
     </row>
@@ -4154,198 +4588,198 @@
       <c r="A85" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>420</v>
+      <c r="B85" s="16" t="s">
+        <v>417</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>433</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>431</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>469</v>
-      </c>
-      <c r="B87" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>421</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>419</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>445</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>446</v>
+        <v>441</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>442</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>452</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>453</v>
+        <v>448</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>425</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>423</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>410</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>408</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>448</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>445</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>466</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>463</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>460</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>443</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>444</v>
+        <v>439</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>440</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>396</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>440</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>441</v>
+        <v>436</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>437</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>412</v>
-      </c>
-      <c r="B99" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>403</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>401</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>411</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>463</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>852</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>866</v>
+        <v>839</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>1093</v>
       </c>
       <c r="C103" s="2"/>
     </row>
@@ -4356,7 +4790,7 @@
       <c r="A105" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="13" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4364,7 +4798,7 @@
       <c r="A106" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C106" s="2"/>
@@ -4373,7 +4807,7 @@
       <c r="A107" t="s">
         <v>160</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>201</v>
       </c>
       <c r="C107" s="2"/>
@@ -4382,7 +4816,7 @@
       <c r="A108" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C108" s="2"/>
@@ -4391,7 +4825,7 @@
       <c r="A109" t="s">
         <v>76</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C109" s="2"/>
@@ -4400,7 +4834,7 @@
       <c r="A110" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C110" s="2"/>
@@ -4409,7 +4843,7 @@
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="2"/>
@@ -4418,7 +4852,7 @@
       <c r="A112" t="s">
         <v>162</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C112" s="2"/>
@@ -4427,7 +4861,7 @@
       <c r="A113" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C113" s="2"/>
@@ -4436,7 +4870,7 @@
       <c r="A114" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>197</v>
       </c>
       <c r="C114" s="2"/>
@@ -4445,7 +4879,7 @@
       <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>198</v>
       </c>
       <c r="C115" s="2"/>
@@ -4454,7 +4888,7 @@
       <c r="A116" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="2"/>
@@ -4463,7 +4897,7 @@
       <c r="A117" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="2"/>
@@ -4472,7 +4906,7 @@
       <c r="A118" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="2"/>
@@ -4481,6 +4915,9 @@
       <c r="A119" t="s">
         <v>163</v>
       </c>
+      <c r="B119" s="15" t="s">
+        <v>1094</v>
+      </c>
       <c r="C119" s="2" t="s">
         <v>238</v>
       </c>
@@ -4489,7 +4926,7 @@
       <c r="A120" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C120" s="2"/>
@@ -4498,7 +4935,7 @@
       <c r="A121" t="s">
         <v>164</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="15" t="s">
         <v>200</v>
       </c>
       <c r="C121" s="2"/>
@@ -4507,7 +4944,7 @@
       <c r="A122" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="2"/>
@@ -4516,7 +4953,7 @@
       <c r="A123" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="2"/>
@@ -4525,7 +4962,7 @@
       <c r="A124" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="2"/>
@@ -4534,7 +4971,7 @@
       <c r="A125" t="s">
         <v>25</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="2"/>
@@ -4543,7 +4980,7 @@
       <c r="A126" t="s">
         <v>66</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C126" s="2"/>
@@ -4552,7 +4989,7 @@
       <c r="A127" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="15" t="s">
         <v>193</v>
       </c>
       <c r="C127" s="2"/>
@@ -4561,7 +4998,7 @@
       <c r="A128" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C128" s="2"/>
@@ -4570,7 +5007,7 @@
       <c r="A129" t="s">
         <v>182</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="15" t="s">
         <v>192</v>
       </c>
       <c r="C129" s="2"/>
@@ -4582,7 +5019,7 @@
       <c r="A131" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4590,201 +5027,199 @@
       <c r="A132" t="s">
         <v>199</v>
       </c>
-      <c r="B132" s="16" t="s">
-        <v>325</v>
+      <c r="B132" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>309</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>371</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>194</v>
       </c>
-      <c r="B134" s="16" t="s">
-        <v>324</v>
+      <c r="B134" s="15" t="s">
+        <v>322</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>310</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>311</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>322</v>
+        <v>309</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>312</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>472</v>
+        <v>310</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>468</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>313</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>319</v>
+        <v>311</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>317</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>314</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>326</v>
+        <v>312</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>324</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>313</v>
+      </c>
+      <c r="B140" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B140" s="16" t="s">
-        <v>317</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>316</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>329</v>
+        <v>314</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>308</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>320</v>
+        <v>306</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>307</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>330</v>
+        <v>305</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>306</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>328</v>
+        <v>304</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>293</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>303</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>331</v>
+        <v>301</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>304</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>327</v>
+        <v>302</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>305</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>372</v>
+        <v>303</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>299</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>301</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>370</v>
+        <v>299</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>302</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>321</v>
+        <v>300</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>297</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>295</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="C153" s="2"/>
     </row>
@@ -4795,260 +5230,260 @@
       <c r="A155" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>249</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>245</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>247</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>287</v>
-      </c>
-      <c r="B159" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>1096</v>
       </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>374</v>
-      </c>
-      <c r="B160" s="21" t="s">
-        <v>868</v>
+        <v>371</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>36</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>291</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>333</v>
-      </c>
-      <c r="B163" s="21" t="s">
-        <v>866</v>
+        <v>331</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>1107</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>334</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>471</v>
+        <v>332</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="C164" s="2"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>335</v>
-      </c>
-      <c r="B165" s="21" t="s">
-        <v>866</v>
+        <v>333</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>1097</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>283</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>336</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>373</v>
+        <v>334</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>243</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>337</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>380</v>
+        <v>335</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>377</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>277</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="C170" s="2"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>281</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>280</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>277</v>
       </c>
       <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>251</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>254</v>
       </c>
       <c r="C175" s="2"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>338</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>376</v>
+        <v>336</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>373</v>
       </c>
       <c r="C176" s="2"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B177" s="17" t="s">
-        <v>382</v>
+        <v>337</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>379</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="C178" s="2"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B179" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B180" s="17" t="s">
-        <v>385</v>
+        <v>338</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B181" s="17" t="s">
-        <v>384</v>
+        <v>339</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="C181" s="2"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B182" s="17" t="s">
-        <v>846</v>
+        <v>340</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>833</v>
       </c>
       <c r="C182" s="2"/>
     </row>
@@ -5056,7 +5491,7 @@
       <c r="A183" t="s">
         <v>228</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="15" t="s">
         <v>229</v>
       </c>
       <c r="C183" s="2"/>
@@ -5065,44 +5500,44 @@
       <c r="A184" t="s">
         <v>230</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="15" t="s">
         <v>231</v>
       </c>
       <c r="C184" s="2"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>343</v>
-      </c>
-      <c r="B185" s="16" t="s">
-        <v>379</v>
+        <v>341</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>376</v>
       </c>
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>344</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>378</v>
+        <v>342</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>375</v>
       </c>
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>345</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>377</v>
+        <v>343</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>374</v>
       </c>
       <c r="C187" s="2"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>346</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>381</v>
+        <v>344</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C188" s="2"/>
     </row>
@@ -5113,212 +5548,212 @@
       <c r="A190" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B190" s="13" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B191" s="21" t="s">
-        <v>866</v>
+        <v>345</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B192" s="21" t="s">
-        <v>868</v>
+        <v>346</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>1101</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>558</v>
+        <v>347</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B194" s="17" t="s">
-        <v>559</v>
+        <v>348</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B195" s="16" t="s">
-        <v>557</v>
+        <v>349</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B196" s="21" t="s">
-        <v>866</v>
+        <v>350</v>
+      </c>
+      <c r="B196" s="20" t="s">
+        <v>1103</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>209</v>
       </c>
-      <c r="B197" s="16" t="s">
+      <c r="B197" s="15" t="s">
         <v>210</v>
       </c>
       <c r="C197" s="2"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>490</v>
+        <v>351</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>486</v>
       </c>
       <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>354</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>485</v>
+        <v>352</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>481</v>
       </c>
       <c r="C199" s="2"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>486</v>
+        <v>353</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>482</v>
       </c>
       <c r="C200" s="2"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>356</v>
-      </c>
-      <c r="B201" s="17" t="s">
-        <v>849</v>
+        <v>354</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>836</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>855</v>
+        <v>938</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="16" t="s">
+      <c r="B202" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C202" s="2"/>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>357</v>
-      </c>
-      <c r="B203" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>856</v>
+        <v>355</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>358</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>487</v>
+        <v>356</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>483</v>
       </c>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>359</v>
-      </c>
-      <c r="B205" s="17" t="s">
-        <v>473</v>
+        <v>357</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>469</v>
       </c>
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>360</v>
-      </c>
-      <c r="B206" s="18" t="s">
-        <v>848</v>
+        <v>358</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>835</v>
       </c>
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>361</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>483</v>
+        <v>359</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>479</v>
       </c>
       <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>362</v>
-      </c>
-      <c r="B208" s="17" t="s">
-        <v>847</v>
+        <v>360</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>834</v>
       </c>
       <c r="C208" s="2"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>363</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>484</v>
+        <v>361</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>480</v>
       </c>
       <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>364</v>
-      </c>
-      <c r="B210" s="16" t="s">
-        <v>538</v>
+        <v>362</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>534</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>365</v>
-      </c>
-      <c r="B211" s="21" t="s">
-        <v>868</v>
+        <v>363</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>1104</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>561</v>
+        <v>937</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="16" t="s">
+      <c r="B212" s="15" t="s">
         <v>212</v>
       </c>
       <c r="C212" s="2"/>
@@ -5327,37 +5762,34 @@
       <c r="A213" t="s">
         <v>205</v>
       </c>
-      <c r="B213" s="16" t="s">
+      <c r="B213" s="15" t="s">
         <v>208</v>
       </c>
       <c r="C213" s="2"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>366</v>
-      </c>
-      <c r="B214" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C214" t="s">
-        <v>562</v>
+        <v>364</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>367</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>488</v>
+        <v>365</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>484</v>
       </c>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>368</v>
-      </c>
-      <c r="B216" s="16" t="s">
-        <v>489</v>
+        <v>366</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>485</v>
       </c>
       <c r="C216" s="2"/>
     </row>
@@ -5365,7 +5797,7 @@
       <c r="A217" t="s">
         <v>207</v>
       </c>
-      <c r="B217" s="16" t="s">
+      <c r="B217" s="15" t="s">
         <v>206</v>
       </c>
       <c r="C217" s="2"/>
@@ -5377,7 +5809,7 @@
       <c r="A219" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B219" s="14" t="s">
+      <c r="B219" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5385,7 +5817,7 @@
       <c r="A220" t="s">
         <v>172</v>
       </c>
-      <c r="B220" s="16" t="s">
+      <c r="B220" s="15" t="s">
         <v>171</v>
       </c>
       <c r="C220" s="2"/>
@@ -5394,7 +5826,7 @@
       <c r="A221" t="s">
         <v>175</v>
       </c>
-      <c r="B221" s="16" t="s">
+      <c r="B221" s="15" t="s">
         <v>184</v>
       </c>
       <c r="C221" s="2"/>
@@ -5403,7 +5835,7 @@
       <c r="A222" t="s">
         <v>176</v>
       </c>
-      <c r="B222" s="16" t="s">
+      <c r="B222" s="15" t="s">
         <v>186</v>
       </c>
       <c r="C222" s="2"/>
@@ -5412,7 +5844,7 @@
       <c r="A223" t="s">
         <v>177</v>
       </c>
-      <c r="B223" s="16" t="s">
+      <c r="B223" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C223" s="2"/>
@@ -5421,7 +5853,7 @@
       <c r="A224" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="16" t="s">
+      <c r="B224" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C224" s="2"/>
@@ -5430,7 +5862,7 @@
       <c r="A225" t="s">
         <v>178</v>
       </c>
-      <c r="B225" s="16" t="s">
+      <c r="B225" s="15" t="s">
         <v>187</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -5441,7 +5873,7 @@
       <c r="A226" t="s">
         <v>179</v>
       </c>
-      <c r="B226" s="16" t="s">
+      <c r="B226" s="15" t="s">
         <v>188</v>
       </c>
       <c r="C226" s="2"/>
@@ -5450,7 +5882,7 @@
       <c r="A227" t="s">
         <v>180</v>
       </c>
-      <c r="B227" s="16" t="s">
+      <c r="B227" s="15" t="s">
         <v>190</v>
       </c>
       <c r="C227" s="2"/>
@@ -5459,7 +5891,7 @@
       <c r="A228" t="s">
         <v>181</v>
       </c>
-      <c r="B228" s="16" t="s">
+      <c r="B228" s="15" t="s">
         <v>191</v>
       </c>
       <c r="C228" s="2"/>
@@ -5468,7 +5900,7 @@
       <c r="A229" t="s">
         <v>169</v>
       </c>
-      <c r="B229" s="16" t="s">
+      <c r="B229" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C229" s="2"/>
@@ -5480,26 +5912,26 @@
       <c r="A231" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B231" s="14" t="s">
+      <c r="B231" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>644</v>
-      </c>
-      <c r="B232" s="21" t="s">
-        <v>868</v>
+        <v>635</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>645</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>38</v>
       </c>
-      <c r="B233" s="16" t="s">
+      <c r="B233" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -5510,7 +5942,7 @@
       <c r="A234" t="s">
         <v>213</v>
       </c>
-      <c r="B234" s="16" t="s">
+      <c r="B234" s="15" t="s">
         <v>214</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -5521,7 +5953,7 @@
       <c r="A235" t="s">
         <v>216</v>
       </c>
-      <c r="B235" s="16" t="s">
+      <c r="B235" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -5532,7 +5964,7 @@
       <c r="A236" t="s">
         <v>40</v>
       </c>
-      <c r="B236" s="16" t="s">
+      <c r="B236" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -5543,7 +5975,7 @@
       <c r="A237" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="16" t="s">
+      <c r="B237" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -5554,7 +5986,7 @@
       <c r="A238" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B238" s="17" t="s">
+      <c r="B238" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C238" s="6" t="s">
@@ -5565,7 +5997,7 @@
       <c r="A239" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B239" s="17" t="s">
+      <c r="B239" s="16" t="s">
         <v>219</v>
       </c>
       <c r="C239" s="6" t="s">
@@ -5576,282 +6008,282 @@
       <c r="A240" t="s">
         <v>42</v>
       </c>
-      <c r="B240" s="16" t="s">
+      <c r="B240" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>625</v>
-      </c>
-      <c r="B241" s="16" t="s">
-        <v>626</v>
+        <v>616</v>
+      </c>
+      <c r="B241" s="15" t="s">
+        <v>617</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>628</v>
-      </c>
-      <c r="B242" s="17" t="s">
-        <v>629</v>
+        <v>619</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>620</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>563</v>
-      </c>
-      <c r="B243" s="16" t="s">
-        <v>564</v>
+        <v>554</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>566</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>567</v>
+        <v>557</v>
+      </c>
+      <c r="B244" s="15" t="s">
+        <v>558</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>527</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>528</v>
+        <v>523</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>524</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>530</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>531</v>
+        <v>526</v>
+      </c>
+      <c r="B246" s="15" t="s">
+        <v>527</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>637</v>
-      </c>
-      <c r="B247" s="17" t="s">
-        <v>638</v>
+        <v>628</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>629</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>583</v>
-      </c>
-      <c r="B248" s="16" t="s">
-        <v>581</v>
+        <v>574</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>572</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>569</v>
-      </c>
-      <c r="B249" s="16" t="s">
-        <v>570</v>
+        <v>560</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>561</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>635</v>
-      </c>
-      <c r="B250" s="17" t="s">
-        <v>636</v>
+        <v>626</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>627</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>504</v>
-      </c>
-      <c r="B251" s="16" t="s">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>622</v>
-      </c>
-      <c r="B252" s="17" t="s">
-        <v>623</v>
+        <v>613</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>614</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>513</v>
-      </c>
-      <c r="B253" s="16" t="s">
-        <v>514</v>
+        <v>509</v>
+      </c>
+      <c r="B253" s="15" t="s">
+        <v>510</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>44</v>
       </c>
-      <c r="B254" s="16" t="s">
+      <c r="B254" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>631</v>
-      </c>
-      <c r="B255" s="17" t="s">
-        <v>632</v>
+        <v>622</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>623</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>633</v>
-      </c>
-      <c r="B256" s="17" t="s">
-        <v>634</v>
+        <v>624</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>625</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>587</v>
-      </c>
-      <c r="B257" s="17" t="s">
-        <v>585</v>
+        <v>578</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>576</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>584</v>
-      </c>
-      <c r="B258" s="16" t="s">
-        <v>588</v>
+        <v>575</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>579</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>590</v>
-      </c>
-      <c r="B259" s="17" t="s">
-        <v>591</v>
+        <v>581</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>582</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>592</v>
-      </c>
-      <c r="B260" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>647</v>
+        <v>583</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>524</v>
-      </c>
-      <c r="B261" s="16" t="s">
-        <v>525</v>
+        <v>520</v>
+      </c>
+      <c r="B261" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>540</v>
-      </c>
-      <c r="B262" s="16" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="B262" s="15" t="s">
+        <v>537</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>521</v>
-      </c>
-      <c r="B263" s="16" t="s">
-        <v>522</v>
+        <v>517</v>
+      </c>
+      <c r="B263" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>491</v>
-      </c>
-      <c r="B264" s="16" t="s">
-        <v>492</v>
+        <v>487</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>46</v>
       </c>
-      <c r="B265" s="16" t="s">
+      <c r="B265" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -5862,7 +6294,7 @@
       <c r="A266" t="s">
         <v>48</v>
       </c>
-      <c r="B266" s="16" t="s">
+      <c r="B266" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -5871,115 +6303,115 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>620</v>
-      </c>
-      <c r="B267" s="17" t="s">
-        <v>621</v>
+        <v>611</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>594</v>
-      </c>
-      <c r="B268" s="17" t="s">
-        <v>595</v>
+        <v>585</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>586</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>596</v>
-      </c>
-      <c r="B269" s="17" t="s">
-        <v>597</v>
+        <v>587</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>588</v>
       </c>
       <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>599</v>
-      </c>
-      <c r="B270" s="17" t="s">
-        <v>598</v>
+        <v>590</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>589</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>600</v>
-      </c>
-      <c r="B271" s="17" t="s">
-        <v>601</v>
+        <v>591</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>592</v>
       </c>
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>616</v>
-      </c>
-      <c r="B272" s="17" t="s">
-        <v>617</v>
+        <v>607</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>608</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>618</v>
-      </c>
-      <c r="B273" s="17" t="s">
-        <v>619</v>
+        <v>609</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>610</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>653</v>
-      </c>
-      <c r="B274" s="16" t="s">
-        <v>655</v>
+        <v>642</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>644</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>510</v>
-      </c>
-      <c r="B275" s="16" t="s">
-        <v>512</v>
+        <v>506</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>508</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>652</v>
-      </c>
-      <c r="B276" s="17" t="s">
-        <v>602</v>
+        <v>641</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>593</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>49</v>
       </c>
-      <c r="B277" s="16" t="s">
+      <c r="B277" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -5988,64 +6420,64 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>519</v>
-      </c>
-      <c r="B278" s="16" t="s">
-        <v>520</v>
+        <v>515</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>516</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>507</v>
-      </c>
-      <c r="B279" s="16" t="s">
-        <v>509</v>
+        <v>503</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>505</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>640</v>
-      </c>
-      <c r="B280" s="17" t="s">
-        <v>641</v>
+        <v>631</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>632</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>555</v>
-      </c>
-      <c r="B281" s="16" t="s">
-        <v>556</v>
+        <v>551</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>552</v>
-      </c>
-      <c r="B282" s="16" t="s">
-        <v>553</v>
+        <v>548</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>549</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>51</v>
       </c>
-      <c r="B283" s="16" t="s">
+      <c r="B283" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -6056,29 +6488,29 @@
       <c r="A284" t="s">
         <v>52</v>
       </c>
-      <c r="B284" s="16" t="s">
+      <c r="B284" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>516</v>
-      </c>
-      <c r="B285" s="17" t="s">
-        <v>518</v>
+        <v>512</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>514</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>225</v>
       </c>
-      <c r="B286" s="16" t="s">
+      <c r="B286" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -6087,226 +6519,226 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>501</v>
-      </c>
-      <c r="B287" s="17" t="s">
-        <v>502</v>
+        <v>497</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>498</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>658</v>
-      </c>
-      <c r="B288" s="21" t="s">
-        <v>866</v>
+        <v>647</v>
+      </c>
+      <c r="B288" s="20" t="s">
+        <v>1107</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>222</v>
       </c>
-      <c r="B289" s="16" t="s">
+      <c r="B289" s="15" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>494</v>
-      </c>
-      <c r="B290" s="17" t="s">
-        <v>495</v>
+        <v>490</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>491</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>496</v>
-      </c>
-      <c r="B291" s="16" t="s">
-        <v>497</v>
+        <v>492</v>
+      </c>
+      <c r="B291" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="C291" s="2"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>499</v>
-      </c>
-      <c r="B292" s="16" t="s">
-        <v>500</v>
+        <v>495</v>
+      </c>
+      <c r="B292" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>606</v>
-      </c>
-      <c r="B293" s="17" t="s">
-        <v>607</v>
+        <v>597</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>598</v>
       </c>
       <c r="C293" s="2"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>608</v>
-      </c>
-      <c r="B294" s="17" t="s">
-        <v>609</v>
+        <v>599</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>600</v>
       </c>
       <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>612</v>
-      </c>
-      <c r="B295" s="17" t="s">
-        <v>613</v>
+        <v>603</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>604</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>614</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>615</v>
+        <v>605</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>606</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>572</v>
-      </c>
-      <c r="B297" s="17" t="s">
-        <v>573</v>
+        <v>563</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>564</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>605</v>
-      </c>
-      <c r="B298" s="16" t="s">
-        <v>578</v>
+        <v>596</v>
+      </c>
+      <c r="B298" s="15" t="s">
+        <v>569</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>579</v>
-      </c>
-      <c r="B299" s="17" t="s">
-        <v>580</v>
+        <v>570</v>
+      </c>
+      <c r="B299" s="16" t="s">
+        <v>571</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>576</v>
-      </c>
-      <c r="B300" s="16" t="s">
-        <v>577</v>
+        <v>567</v>
+      </c>
+      <c r="B300" s="15" t="s">
+        <v>568</v>
       </c>
       <c r="C300" s="2"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>543</v>
-      </c>
-      <c r="B301" s="16" t="s">
-        <v>544</v>
+        <v>539</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>540</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>545</v>
-      </c>
-      <c r="B302" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>547</v>
-      </c>
-      <c r="B303" s="17" t="s">
-        <v>548</v>
+        <v>543</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>544</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>642</v>
-      </c>
-      <c r="B304" s="17" t="s">
-        <v>643</v>
+        <v>633</v>
+      </c>
+      <c r="B304" s="16" t="s">
+        <v>634</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>603</v>
-      </c>
-      <c r="B305" s="17" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>595</v>
       </c>
       <c r="C305" s="2"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>610</v>
-      </c>
-      <c r="B306" s="17" t="s">
-        <v>611</v>
+        <v>601</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>602</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>574</v>
-      </c>
-      <c r="B307" s="16" t="s">
-        <v>575</v>
+        <v>565</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>566</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>223</v>
       </c>
-      <c r="B308" s="16" t="s">
-        <v>498</v>
+      <c r="B308" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>224</v>
@@ -6314,13 +6746,13 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>853</v>
-      </c>
-      <c r="B309" s="21" t="s">
-        <v>866</v>
+        <v>840</v>
+      </c>
+      <c r="B309" s="20" t="s">
+        <v>1107</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -6334,13 +6766,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6354,7 +6786,7 @@
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>60</v>
@@ -6362,1216 +6794,1296 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B2" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B3" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="B5" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="B6" t="s">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
       <c r="B7" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="B8" t="s">
-        <v>899</v>
+        <v>875</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="B9" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1078</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>875</v>
-      </c>
-      <c r="B11" t="s">
-        <v>876</v>
+        <v>1074</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1077</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>886</v>
-      </c>
-      <c r="B12" t="s">
-        <v>887</v>
+        <v>1075</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1076</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>773</v>
+        <v>851</v>
       </c>
       <c r="B13" t="s">
-        <v>888</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>898</v>
-      </c>
+        <v>852</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>890</v>
+        <v>862</v>
       </c>
       <c r="B14" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="B15" t="s">
-        <v>775</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>864</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>776</v>
+        <v>866</v>
       </c>
       <c r="B16" t="s">
-        <v>777</v>
+        <v>865</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>763</v>
+      </c>
+      <c r="B17" t="s">
+        <v>764</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>941</v>
+        <v>765</v>
       </c>
       <c r="B18" t="s">
-        <v>942</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>943</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>944</v>
-      </c>
-      <c r="B19" t="s">
-        <v>945</v>
+        <v>1069</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1072</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1071</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>871</v>
+        <v>917</v>
       </c>
       <c r="B21" t="s">
-        <v>872</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>918</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>873</v>
+        <v>920</v>
       </c>
       <c r="B22" t="s">
-        <v>874</v>
+        <v>921</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>869</v>
-      </c>
-      <c r="B23" t="s">
-        <v>870</v>
+        <v>1067</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1068</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1066</v>
+      </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>935</v>
-      </c>
-      <c r="B25" t="s">
-        <v>936</v>
+        <v>1063</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1064</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>938</v>
-      </c>
-      <c r="B26" t="s">
-        <v>939</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>940</v>
-      </c>
+        <v>1061</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>937</v>
-      </c>
-      <c r="B27" t="s">
-        <v>892</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>893</v>
-      </c>
+        <v>1059</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>891</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>866</v>
+        <v>1057</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1058</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>926</v>
+        <v>1055</v>
       </c>
       <c r="B29" t="s">
-        <v>927</v>
+        <v>1056</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>847</v>
+      </c>
+      <c r="B30" t="s">
+        <v>848</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>930</v>
+        <v>849</v>
       </c>
       <c r="B31" t="s">
-        <v>931</v>
+        <v>850</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>845</v>
+      </c>
+      <c r="B32" t="s">
+        <v>846</v>
+      </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>752</v>
-      </c>
-      <c r="B33" t="s">
-        <v>753</v>
+        <v>1052</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1053</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>915</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>866</v>
+        <v>1051</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1054</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>767</v>
-      </c>
-      <c r="B35" t="s">
-        <v>768</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>877</v>
-      </c>
+        <v>1049</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>715</v>
+        <v>911</v>
       </c>
       <c r="B36" t="s">
-        <v>769</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>716</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="B37" t="s">
-        <v>906</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>915</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="B38" t="s">
-        <v>905</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>868</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>907</v>
-      </c>
-      <c r="B39" t="s">
-        <v>908</v>
+        <v>867</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>1048</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>916</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>866</v>
+        <v>902</v>
+      </c>
+      <c r="B40" t="s">
+        <v>903</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>917</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>866</v>
+        <v>1044</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>1047</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>918</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>866</v>
+        <v>1045</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>1046</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>760</v>
-      </c>
-      <c r="B43" t="s">
-        <v>761</v>
+        <v>1042</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>1043</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>762</v>
-      </c>
-      <c r="B44" t="s">
-        <v>763</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>1035</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>764</v>
-      </c>
-      <c r="B45" t="s">
-        <v>765</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>766</v>
-      </c>
+        <v>1038</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>878</v>
-      </c>
-      <c r="B46" t="s">
-        <v>879</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>880</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>909</v>
-      </c>
-      <c r="B47" t="s">
-        <v>910</v>
+        <v>1010</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>1011</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>707</v>
-      </c>
-      <c r="B48" t="s">
-        <v>708</v>
+        <v>1008</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>1009</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>709</v>
-      </c>
-      <c r="B49" t="s">
-        <v>710</v>
+        <v>970</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>971</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>820</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>821</v>
+        <v>906</v>
+      </c>
+      <c r="B50" t="s">
+        <v>907</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>822</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>836</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>824</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>837</v>
-      </c>
+        <v>974</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B53" t="s">
-        <v>728</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>729</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>720</v>
-      </c>
-      <c r="B54" t="s">
-        <v>722</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>721</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B55" t="s">
-        <v>739</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>740</v>
+        <v>757</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="B56" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>703</v>
+        <v>879</v>
       </c>
       <c r="B57" t="s">
-        <v>704</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>705</v>
+        <v>880</v>
       </c>
       <c r="B58" t="s">
-        <v>706</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>838</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>826</v>
+        <v>883</v>
       </c>
       <c r="B59" t="s">
-        <v>834</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>835</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>791</v>
-      </c>
-      <c r="B60" t="s">
-        <v>792</v>
+        <v>892</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>998</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>790</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>793</v>
+        <v>893</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>997</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>682</v>
-      </c>
-      <c r="B62" t="s">
-        <v>683</v>
+        <v>894</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>976</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>786</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>787</v>
+        <v>749</v>
+      </c>
+      <c r="B63" t="s">
+        <v>750</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>827</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>828</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="B64" t="s">
+        <v>752</v>
+      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>686</v>
+        <v>753</v>
       </c>
       <c r="B65" t="s">
-        <v>687</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>754</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>788</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>854</v>
+      </c>
+      <c r="B66" t="s">
+        <v>855</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>829</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>949</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="B67" t="s">
+        <v>886</v>
+      </c>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>796</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>797</v>
+        <v>696</v>
+      </c>
+      <c r="B68" t="s">
+        <v>697</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="B69" t="s">
-        <v>685</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>692</v>
-      </c>
-      <c r="B70" t="s">
-        <v>693</v>
+        <v>809</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>810</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>911</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>811</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>717</v>
-      </c>
-      <c r="B72" t="s">
-        <v>718</v>
+        <v>813</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>814</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>719</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>912</v>
+        <v>716</v>
       </c>
       <c r="B73" t="s">
-        <v>947</v>
+        <v>717</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>948</v>
+        <v>718</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="B74" t="s">
-        <v>734</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>711</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="B75" t="s">
-        <v>695</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>728</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="B76" t="s">
-        <v>696</v>
+        <v>725</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>794</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="B77" t="s">
+        <v>693</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>913</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>694</v>
+      </c>
+      <c r="B78" t="s">
+        <v>695</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>754</v>
+        <v>815</v>
       </c>
       <c r="B79" t="s">
-        <v>812</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>822</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>799</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>811</v>
+        <v>780</v>
+      </c>
+      <c r="B80" t="s">
+        <v>781</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>914</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>866</v>
+        <v>779</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>782</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>755</v>
+        <v>671</v>
       </c>
       <c r="B82" t="s">
-        <v>810</v>
+        <v>672</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>919</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>920</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>866</v>
+        <v>675</v>
+      </c>
+      <c r="B85" t="s">
+        <v>676</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>758</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>781</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>730</v>
-      </c>
-      <c r="B87" t="s">
-        <v>731</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>732</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>945</v>
+      </c>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>921</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>866</v>
+        <v>785</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>786</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>782</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>807</v>
+        <v>673</v>
+      </c>
+      <c r="B89" t="s">
+        <v>674</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>783</v>
+        <v>691</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>780</v>
+        <v>681</v>
       </c>
       <c r="B90" t="s">
-        <v>778</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>779</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>723</v>
-      </c>
-      <c r="B91" t="s">
-        <v>806</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>724</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>922</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="B92" t="s">
+        <v>707</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B93" t="s">
-        <v>805</v>
+        <v>923</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>726</v>
+        <v>924</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="B94" t="s">
-        <v>748</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>749</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>950</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>866</v>
+        <v>683</v>
+      </c>
+      <c r="B95" t="s">
+        <v>684</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>951</v>
+        <v>686</v>
       </c>
       <c r="B96" t="s">
-        <v>955</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>685</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>952</v>
-      </c>
-      <c r="B97" t="s">
-        <v>956</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>962</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>953</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>866</v>
+        <v>889</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>946</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>954</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>961</v>
+        <v>743</v>
+      </c>
+      <c r="B99" t="s">
+        <v>801</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>784</v>
-      </c>
-      <c r="B100" t="s">
-        <v>804</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>785</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>802</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>803</v>
+        <v>890</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>942</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>844</v>
+        <v>943</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>923</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>866</v>
+        <v>744</v>
+      </c>
+      <c r="B102" t="s">
+        <v>799</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>843</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>813</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>814</v>
+        <v>895</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>940</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>845</v>
+        <v>941</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>770</v>
-      </c>
-      <c r="B105" t="s">
-        <v>771</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>772</v>
-      </c>
+        <v>896</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>924</v>
-      </c>
-      <c r="B106" t="s">
-        <v>946</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>882</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>719</v>
+      </c>
+      <c r="B107" t="s">
+        <v>720</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>756</v>
-      </c>
-      <c r="B108" t="s">
-        <v>757</v>
+        <v>897</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>978</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>679</v>
-      </c>
-      <c r="B109" t="s">
-        <v>713</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>771</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>700</v>
+        <v>769</v>
       </c>
       <c r="B110" t="s">
-        <v>701</v>
+        <v>767</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>702</v>
+        <v>768</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="B111" t="s">
-        <v>745</v>
+        <v>795</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>925</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>898</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>800</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>714</v>
+      </c>
+      <c r="B113" t="s">
+        <v>794</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="2"/>
+      <c r="A114" t="s">
+        <v>736</v>
+      </c>
+      <c r="B114" t="s">
+        <v>737</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>957</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>958</v>
+        <v>925</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>947</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>959</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>960</v>
+        <v>926</v>
+      </c>
+      <c r="B116" t="s">
+        <v>930</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="2"/>
+      <c r="A117" t="s">
+        <v>927</v>
+      </c>
+      <c r="B117" t="s">
+        <v>931</v>
+      </c>
+      <c r="C117" s="6"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>818</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>839</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>817</v>
-      </c>
-      <c r="B119" t="s">
-        <v>750</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>751</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>841</v>
+        <v>773</v>
       </c>
       <c r="B120" t="s">
-        <v>842</v>
+        <v>793</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>840</v>
+        <v>774</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="2"/>
+      <c r="A121" t="s">
+        <v>791</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>932</v>
-      </c>
-      <c r="B122" t="s">
-        <v>933</v>
+        <v>899</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>963</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>934</v>
+        <v>964</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>928</v>
-      </c>
-      <c r="B123" t="s">
-        <v>929</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="2"/>
+      <c r="A124" t="s">
+        <v>802</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="B125" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>900</v>
+      </c>
+      <c r="B126" t="s">
+        <v>922</v>
+      </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>711</v>
-      </c>
-      <c r="B127" t="s">
-        <v>712</v>
+        <v>858</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>859</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>745</v>
+      </c>
+      <c r="B128" t="s">
+        <v>746</v>
+      </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>832</v>
+        <v>668</v>
       </c>
       <c r="B129" t="s">
-        <v>833</v>
+        <v>702</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>830</v>
+        <v>689</v>
       </c>
       <c r="B130" t="s">
-        <v>831</v>
-      </c>
-      <c r="C130" s="2"/>
+        <v>690</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="2"/>
+      <c r="A131" t="s">
+        <v>733</v>
+      </c>
+      <c r="B131" t="s">
+        <v>734</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>881</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>884</v>
+        <v>901</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>962</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>885</v>
+        <v>965</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>789</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>680</v>
-      </c>
-      <c r="B134" t="s">
-        <v>681</v>
-      </c>
-      <c r="C134" s="6"/>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>932</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>933</v>
+      </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>698</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>699</v>
+        <v>934</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>935</v>
       </c>
       <c r="C136" s="2"/>
     </row>
@@ -7579,37 +8091,490 @@
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="2"/>
+      <c r="A138" t="s">
+        <v>807</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="2"/>
+      <c r="A139" t="s">
+        <v>806</v>
+      </c>
+      <c r="B139" t="s">
+        <v>739</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="2"/>
+      <c r="A140" t="s">
+        <v>828</v>
+      </c>
+      <c r="B140" t="s">
+        <v>829</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>1006</v>
+      </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>980</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>981</v>
+      </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>982</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>983</v>
+      </c>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="2"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>908</v>
+      </c>
+      <c r="B146" t="s">
+        <v>909</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>904</v>
+      </c>
+      <c r="B147" t="s">
+        <v>905</v>
+      </c>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>1004</v>
+      </c>
       <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>984</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>956</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>995</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>958</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>730</v>
+      </c>
+      <c r="B158" t="s">
+        <v>731</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>953</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>966</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>950</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>948</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>700</v>
+      </c>
+      <c r="B178" t="s">
+        <v>701</v>
+      </c>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>986</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>993</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>991</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>987</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>820</v>
+      </c>
+      <c r="B186" t="s">
+        <v>821</v>
+      </c>
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>818</v>
+      </c>
+      <c r="B187" t="s">
+        <v>819</v>
+      </c>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>857</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="3"/>
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>999</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>989</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>669</v>
+      </c>
+      <c r="B194" t="s">
+        <v>670</v>
+      </c>
+      <c r="C194" s="6"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>687</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air units" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1114">
   <si>
     <t>A0039</t>
   </si>
@@ -1134,9 +1134,6 @@
     <t>A0171</t>
   </si>
   <si>
-    <t>Vanilla image shows another Blenheim Mk I</t>
-  </si>
-  <si>
     <t>Ju-52/3m (Rom)</t>
   </si>
   <si>
@@ -1158,9 +1155,6 @@
     <t>Ju-86K (Rom)</t>
   </si>
   <si>
-    <t>do-17?</t>
-  </si>
-  <si>
     <t>PLZ 37B (Rom)</t>
   </si>
   <si>
@@ -1677,9 +1671,6 @@
     <t>Yermolayev Yer-2</t>
   </si>
   <si>
-    <t>Replacement image for Vanilla added - BF-109 (H)</t>
-  </si>
-  <si>
     <t>A0285</t>
   </si>
   <si>
@@ -2127,9 +2118,6 @@
     <t>RAD (Reichsarbeitsdienst) labor service (Ger)</t>
   </si>
   <si>
-    <t>Me-109, depicted is a G-2</t>
-  </si>
-  <si>
     <t>GP0055</t>
   </si>
   <si>
@@ -2829,9 +2817,6 @@
     <t>Cavalry squad (-) (Ger)</t>
   </si>
   <si>
-    <t>He-111(H) - same source image as Vanilla. Supposed to be He 111P(H)?</t>
-  </si>
-  <si>
     <t>Image is of a German 110 G-4</t>
   </si>
   <si>
@@ -2847,9 +2832,6 @@
     <t>Panzer Grenadier Squad (-) (Ger)</t>
   </si>
   <si>
-    <t>11/44 and onwards</t>
-  </si>
-  <si>
     <t>Rifle Squad (-) (Ger)</t>
   </si>
   <si>
@@ -2925,9 +2907,6 @@
     <t>122mm howitzer (Ger)</t>
   </si>
   <si>
-    <t>M30</t>
-  </si>
-  <si>
     <t>GP0048</t>
   </si>
   <si>
@@ -3087,9 +3066,6 @@
     <t>Panzer M15/42 738(i)</t>
   </si>
   <si>
-    <t>GP0396</t>
-  </si>
-  <si>
     <t>Panzer 35R 731(f)</t>
   </si>
   <si>
@@ -3108,9 +3084,6 @@
     <t>GP0392</t>
   </si>
   <si>
-    <t>Panzer 35-S 739(f)</t>
-  </si>
-  <si>
     <t>GP0391</t>
   </si>
   <si>
@@ -3141,9 +3114,6 @@
     <t>Ferdinand/Elefant</t>
   </si>
   <si>
-    <t>Image GP0043 is also used for Elefant (patch 1.08.08)</t>
-  </si>
-  <si>
     <t>GP0042</t>
   </si>
   <si>
@@ -3264,15 +3234,9 @@
     <t>Dornier Do 215B-1</t>
   </si>
   <si>
-    <t>Focke Wulf Fw 190A-5/U2</t>
-  </si>
-  <si>
     <t>Focke Wulf Fw 190A-8/R8</t>
   </si>
   <si>
-    <t>Focke Wulf 200C-3/U4</t>
-  </si>
-  <si>
     <t>Heinkel He 111 H-20/R2</t>
   </si>
   <si>
@@ -3352,13 +3316,67 @@
   </si>
   <si>
     <t>Polikarkov I-15bis has two slots with slightly different stats</t>
+  </si>
+  <si>
+    <t>Focke Wulf Fw 200C-3/U4</t>
+  </si>
+  <si>
+    <t>Image is actually a Bf 109 G-6/R6 night fighter of 1./JG 300. Vanilla also depicts a Me-109 G-6/R6</t>
+  </si>
+  <si>
+    <t>Actually a Hungarian one (though it's markings are not visible in this shot) - all I can find is 135bis with Hungarian markings. The Vanilla image is also Hungarian (which is visible if you look closely).</t>
+  </si>
+  <si>
+    <t>Confirmed A8/R8</t>
+  </si>
+  <si>
+    <r>
+      <t>Focke Wulf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fw 190A-5/U2</t>
+    </r>
+  </si>
+  <si>
+    <t>Confirmed Bf 190G10</t>
+  </si>
+  <si>
+    <t>Depicted is a Bf 190G-6. Vanilla depicts a G-2.</t>
+  </si>
+  <si>
+    <t>Volksgrenadiere, 1944</t>
+  </si>
+  <si>
+    <t>GP0395</t>
+  </si>
+  <si>
+    <t>Panzer S-35 739(f)</t>
+  </si>
+  <si>
+    <t>M30, schwere Feldhaubitze 396(r) - (Ger). Photo is of a German sFH 396, not a Russian-operated M-30.</t>
+  </si>
+  <si>
+    <t>The markings aren't visible from this angle, but this is a German M15/42 from Pz.Abt. 202</t>
+  </si>
+  <si>
+    <t>Image depicts a Ferdinand in Kurskaya. GP0043 is also used for Elefant (patch 1.08.08)</t>
+  </si>
+  <si>
+    <t>11/44 and onwards. Would like a more squad oriented picture, but getting that together with 'Panzer' in one shot is rather a challenge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3397,6 +3415,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3418,7 +3443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3441,11 +3466,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3453,10 +3506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3469,6 +3519,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3775,25 +3838,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B233" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B232" sqref="B232"/>
+      <selection pane="bottomRight" activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="136.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="184.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3804,7 +3867,7 @@
       <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3812,8 +3875,8 @@
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>404</v>
+      <c r="B3" s="11" t="s">
+        <v>402</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3821,7 +3884,7 @@
       <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="2"/>
@@ -3830,7 +3893,7 @@
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>237</v>
       </c>
       <c r="C5" s="2"/>
@@ -3839,7 +3902,7 @@
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3850,7 +3913,7 @@
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>255</v>
       </c>
       <c r="C7" s="2"/>
@@ -3859,18 +3922,18 @@
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>425</v>
+      <c r="B8" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>260</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3881,7 +3944,7 @@
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3892,7 +3955,7 @@
       <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3903,7 +3966,7 @@
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>257</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3914,28 +3977,30 @@
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="B13" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>427</v>
+      <c r="B14" s="13" t="s">
+        <v>425</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>447</v>
+      <c r="B15" s="13" t="s">
+        <v>445</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -3943,7 +4008,7 @@
       <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>235</v>
       </c>
       <c r="C16" s="2"/>
@@ -3952,30 +4017,30 @@
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>415</v>
+      <c r="B17" s="13" t="s">
+        <v>413</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>1080</v>
+      <c r="B18" s="14" t="s">
+        <v>1070</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>451</v>
+      <c r="B19" s="13" t="s">
+        <v>449</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -3983,7 +4048,7 @@
       <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>256</v>
       </c>
       <c r="C20" s="2"/>
@@ -3992,7 +4057,7 @@
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C21" s="2"/>
@@ -4001,8 +4066,8 @@
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>450</v>
+      <c r="B22" s="13" t="s">
+        <v>448</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -4010,8 +4075,8 @@
       <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>384</v>
+      <c r="B23" s="12" t="s">
+        <v>382</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -4019,19 +4084,19 @@
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>476</v>
+      <c r="B24" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>390</v>
+      <c r="B25" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -4039,8 +4104,8 @@
       <c r="A26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>389</v>
+      <c r="B26" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -4048,8 +4113,8 @@
       <c r="A27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>1081</v>
+      <c r="B27" s="14" t="s">
+        <v>1071</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -4057,8 +4122,8 @@
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>453</v>
+      <c r="B28" s="13" t="s">
+        <v>451</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -4066,8 +4131,8 @@
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>405</v>
+      <c r="B29" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -4075,8 +4140,8 @@
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>398</v>
+      <c r="B30" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -4084,8 +4149,8 @@
       <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>387</v>
+      <c r="B31" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -4093,8 +4158,8 @@
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>388</v>
+      <c r="B32" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="C32" s="2"/>
     </row>
@@ -4102,7 +4167,7 @@
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
@@ -4111,7 +4176,7 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2"/>
@@ -4120,7 +4185,7 @@
       <c r="A35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>269</v>
       </c>
       <c r="C35" s="2"/>
@@ -4129,8 +4194,8 @@
       <c r="A36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>1082</v>
+      <c r="B36" s="14" t="s">
+        <v>1104</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -4138,17 +4203,19 @@
       <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C37" s="2"/>
+      <c r="B37" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>396</v>
+      <c r="B38" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -4156,18 +4223,18 @@
       <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>429</v>
+      <c r="C39" s="7" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>270</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4178,8 +4245,8 @@
       <c r="A41" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>1084</v>
+      <c r="B41" s="14" t="s">
+        <v>1100</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -4187,8 +4254,8 @@
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>843</v>
+      <c r="B42" s="13" t="s">
+        <v>839</v>
       </c>
       <c r="C42" s="2"/>
     </row>
@@ -4196,8 +4263,8 @@
       <c r="A43" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>433</v>
+      <c r="B43" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="C43" s="2"/>
     </row>
@@ -4205,8 +4272,8 @@
       <c r="A44" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>838</v>
+      <c r="B44" s="12" t="s">
+        <v>834</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -4214,8 +4281,8 @@
       <c r="A45" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>1085</v>
+      <c r="B45" s="12" t="s">
+        <v>1073</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -4223,8 +4290,8 @@
       <c r="A46" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>1086</v>
+      <c r="B46" s="12" t="s">
+        <v>1074</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>239</v>
@@ -4234,8 +4301,8 @@
       <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>1087</v>
+      <c r="B47" s="12" t="s">
+        <v>1075</v>
       </c>
       <c r="C47" s="2"/>
     </row>
@@ -4243,8 +4310,8 @@
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>1088</v>
+      <c r="B48" s="14" t="s">
+        <v>1076</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -4252,8 +4319,8 @@
       <c r="A49" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>443</v>
+      <c r="B49" s="13" t="s">
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -4261,8 +4328,8 @@
       <c r="A50" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>434</v>
+      <c r="B50" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -4270,8 +4337,8 @@
       <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>1089</v>
+      <c r="B51" s="14" t="s">
+        <v>1077</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -4279,8 +4346,8 @@
       <c r="A52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>464</v>
+      <c r="B52" s="13" t="s">
+        <v>462</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -4288,8 +4355,8 @@
       <c r="A53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>386</v>
+      <c r="B53" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -4297,8 +4364,8 @@
       <c r="A54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>1090</v>
+      <c r="B54" s="14" t="s">
+        <v>1078</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -4306,7 +4373,7 @@
       <c r="A55" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="12" t="s">
         <v>272</v>
       </c>
       <c r="C55" s="2"/>
@@ -4315,7 +4382,7 @@
       <c r="A56" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="12" t="s">
         <v>259</v>
       </c>
       <c r="C56" s="2"/>
@@ -4324,8 +4391,8 @@
       <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>474</v>
+      <c r="B57" s="13" t="s">
+        <v>472</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -4333,8 +4400,8 @@
       <c r="A58" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>406</v>
+      <c r="B58" s="12" t="s">
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
     </row>
@@ -4342,7 +4409,7 @@
       <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="2"/>
@@ -4351,19 +4418,19 @@
       <c r="A60" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>1091</v>
+      <c r="B60" s="16" t="s">
+        <v>1079</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>392</v>
+      <c r="B61" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
     </row>
@@ -4371,18 +4438,18 @@
       <c r="A62" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>1109</v>
+      <c r="B62" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="2"/>
@@ -4391,18 +4458,18 @@
       <c r="A64" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>457</v>
+      <c r="B64" s="13" t="s">
+        <v>455</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="12" t="s">
         <v>264</v>
       </c>
       <c r="C65" s="2"/>
@@ -4411,7 +4478,7 @@
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="2"/>
@@ -4420,8 +4487,8 @@
       <c r="A67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>454</v>
+      <c r="B67" s="13" t="s">
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -4429,18 +4496,18 @@
       <c r="A68" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>391</v>
+      <c r="B68" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C69" s="2"/>
@@ -4449,8 +4516,8 @@
       <c r="A70" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>399</v>
+      <c r="B70" s="15" t="s">
+        <v>397</v>
       </c>
       <c r="C70" s="2"/>
     </row>
@@ -4458,8 +4525,8 @@
       <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>383</v>
+      <c r="B71" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="C71" s="2"/>
     </row>
@@ -4467,7 +4534,7 @@
       <c r="A72" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="12" t="s">
         <v>273</v>
       </c>
       <c r="C72" s="2"/>
@@ -4476,8 +4543,8 @@
       <c r="A73" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>435</v>
+      <c r="B73" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="C73" s="2"/>
     </row>
@@ -4485,7 +4552,7 @@
       <c r="A74" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="12" t="s">
         <v>268</v>
       </c>
       <c r="C74" s="2"/>
@@ -4494,7 +4561,7 @@
       <c r="A75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="12" t="s">
         <v>274</v>
       </c>
       <c r="C75" s="2"/>
@@ -4503,7 +4570,7 @@
       <c r="A76" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="12" t="s">
         <v>265</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -4514,7 +4581,7 @@
       <c r="A77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="12" t="s">
         <v>367</v>
       </c>
       <c r="C77" s="2"/>
@@ -4523,7 +4590,7 @@
       <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C78" s="2"/>
@@ -4532,8 +4599,8 @@
       <c r="A79" t="s">
         <v>148</v>
       </c>
-      <c r="B79" s="15" t="s">
-        <v>397</v>
+      <c r="B79" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="C79" s="2"/>
     </row>
@@ -4541,8 +4608,8 @@
       <c r="A80" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>838</v>
+      <c r="B80" s="12" t="s">
+        <v>834</v>
       </c>
       <c r="C80" s="2"/>
     </row>
@@ -4550,8 +4617,8 @@
       <c r="A81" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>403</v>
+      <c r="B81" s="12" t="s">
+        <v>401</v>
       </c>
       <c r="C81" s="2"/>
     </row>
@@ -4559,8 +4626,8 @@
       <c r="A82" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>385</v>
+      <c r="B82" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="C82" s="2"/>
     </row>
@@ -4568,19 +4635,19 @@
       <c r="A83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>461</v>
+      <c r="B83" s="13" t="s">
+        <v>459</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="16" t="s">
-        <v>458</v>
+      <c r="B84" s="13" t="s">
+        <v>456</v>
       </c>
       <c r="C84" s="2"/>
     </row>
@@ -4588,198 +4655,198 @@
       <c r="A85" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="16" t="s">
-        <v>417</v>
+      <c r="B85" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>428</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>465</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>466</v>
+        <v>463</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>464</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>416</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>441</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>442</v>
+        <v>439</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>440</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>448</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>447</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>420</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>407</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>408</v>
+        <v>405</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>442</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>462</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>463</v>
+        <v>460</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>461</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>456</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>453</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>439</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>477</v>
+        <v>437</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>391</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>409</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>398</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>411</v>
-      </c>
-      <c r="B101" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>459</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>458</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>839</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>1093</v>
+        <v>835</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>1081</v>
       </c>
       <c r="C103" s="2"/>
     </row>
@@ -4790,7 +4857,7 @@
       <c r="A105" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="10" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4798,7 +4865,7 @@
       <c r="A106" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="12" t="s">
         <v>165</v>
       </c>
       <c r="C106" s="2"/>
@@ -4807,7 +4874,7 @@
       <c r="A107" t="s">
         <v>160</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="12" t="s">
         <v>201</v>
       </c>
       <c r="C107" s="2"/>
@@ -4816,7 +4883,7 @@
       <c r="A108" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C108" s="2"/>
@@ -4825,7 +4892,7 @@
       <c r="A109" t="s">
         <v>76</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C109" s="2"/>
@@ -4834,7 +4901,7 @@
       <c r="A110" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="12" t="s">
         <v>196</v>
       </c>
       <c r="C110" s="2"/>
@@ -4843,7 +4910,7 @@
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="2"/>
@@ -4852,7 +4919,7 @@
       <c r="A112" t="s">
         <v>162</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="12" t="s">
         <v>167</v>
       </c>
       <c r="C112" s="2"/>
@@ -4861,7 +4928,7 @@
       <c r="A113" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C113" s="2"/>
@@ -4870,7 +4937,7 @@
       <c r="A114" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="12" t="s">
         <v>197</v>
       </c>
       <c r="C114" s="2"/>
@@ -4879,7 +4946,7 @@
       <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="12" t="s">
         <v>198</v>
       </c>
       <c r="C115" s="2"/>
@@ -4888,7 +4955,7 @@
       <c r="A116" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="2"/>
@@ -4897,7 +4964,7 @@
       <c r="A117" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="2"/>
@@ -4906,7 +4973,7 @@
       <c r="A118" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="2"/>
@@ -4915,8 +4982,8 @@
       <c r="A119" t="s">
         <v>163</v>
       </c>
-      <c r="B119" s="15" t="s">
-        <v>1094</v>
+      <c r="B119" s="12" t="s">
+        <v>1082</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>238</v>
@@ -4926,7 +4993,7 @@
       <c r="A120" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C120" s="2"/>
@@ -4935,7 +5002,7 @@
       <c r="A121" t="s">
         <v>164</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="12" t="s">
         <v>200</v>
       </c>
       <c r="C121" s="2"/>
@@ -4944,7 +5011,7 @@
       <c r="A122" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="2"/>
@@ -4953,7 +5020,7 @@
       <c r="A123" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="2"/>
@@ -4962,7 +5029,7 @@
       <c r="A124" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="2"/>
@@ -4971,7 +5038,7 @@
       <c r="A125" t="s">
         <v>25</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="2"/>
@@ -4980,7 +5047,7 @@
       <c r="A126" t="s">
         <v>66</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C126" s="2"/>
@@ -4989,7 +5056,7 @@
       <c r="A127" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C127" s="2"/>
@@ -4998,7 +5065,7 @@
       <c r="A128" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C128" s="2"/>
@@ -5007,7 +5074,7 @@
       <c r="A129" t="s">
         <v>182</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="12" t="s">
         <v>192</v>
       </c>
       <c r="C129" s="2"/>
@@ -5019,7 +5086,7 @@
       <c r="A131" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="10" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5027,7 +5094,7 @@
       <c r="A132" t="s">
         <v>199</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="12" t="s">
         <v>323</v>
       </c>
       <c r="C132" s="2"/>
@@ -5036,16 +5103,18 @@
       <c r="A133" t="s">
         <v>307</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C133" s="2"/>
+      <c r="B133" s="16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>194</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="12" t="s">
         <v>322</v>
       </c>
       <c r="C134" s="2"/>
@@ -5054,7 +5123,7 @@
       <c r="A135" t="s">
         <v>308</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="12" t="s">
         <v>321</v>
       </c>
       <c r="C135" s="2"/>
@@ -5063,7 +5132,7 @@
       <c r="A136" t="s">
         <v>309</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="12" t="s">
         <v>320</v>
       </c>
       <c r="C136" s="2"/>
@@ -5072,8 +5141,8 @@
       <c r="A137" t="s">
         <v>310</v>
       </c>
-      <c r="B137" s="15" t="s">
-        <v>468</v>
+      <c r="B137" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="C137" s="2"/>
     </row>
@@ -5081,7 +5150,7 @@
       <c r="A138" t="s">
         <v>311</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="12" t="s">
         <v>317</v>
       </c>
       <c r="C138" s="2"/>
@@ -5090,7 +5159,7 @@
       <c r="A139" t="s">
         <v>312</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="12" t="s">
         <v>324</v>
       </c>
       <c r="C139" s="2"/>
@@ -5099,7 +5168,7 @@
       <c r="A140" t="s">
         <v>313</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="12" t="s">
         <v>315</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -5110,7 +5179,7 @@
       <c r="A141" t="s">
         <v>314</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="13" t="s">
         <v>327</v>
       </c>
       <c r="C141" s="2"/>
@@ -5119,7 +5188,7 @@
       <c r="A142" t="s">
         <v>306</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="12" t="s">
         <v>318</v>
       </c>
       <c r="C142" s="2"/>
@@ -5128,7 +5197,7 @@
       <c r="A143" t="s">
         <v>305</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="13" t="s">
         <v>328</v>
       </c>
       <c r="C143" s="2"/>
@@ -5137,7 +5206,7 @@
       <c r="A144" t="s">
         <v>304</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="12" t="s">
         <v>326</v>
       </c>
       <c r="C144" s="2"/>
@@ -5146,7 +5215,7 @@
       <c r="A145" t="s">
         <v>291</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="12" t="s">
         <v>292</v>
       </c>
       <c r="C145" s="2"/>
@@ -5155,7 +5224,7 @@
       <c r="A146" t="s">
         <v>301</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="13" t="s">
         <v>329</v>
       </c>
       <c r="C146" s="2"/>
@@ -5164,7 +5233,7 @@
       <c r="A147" t="s">
         <v>302</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="12" t="s">
         <v>325</v>
       </c>
       <c r="C147" s="2"/>
@@ -5173,7 +5242,7 @@
       <c r="A148" t="s">
         <v>303</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="12" t="s">
         <v>369</v>
       </c>
       <c r="C148" s="2"/>
@@ -5182,7 +5251,7 @@
       <c r="A149" t="s">
         <v>297</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="12" t="s">
         <v>298</v>
       </c>
       <c r="C149" s="2"/>
@@ -5191,7 +5260,7 @@
       <c r="A150" t="s">
         <v>299</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="12" t="s">
         <v>368</v>
       </c>
       <c r="C150" s="2"/>
@@ -5200,7 +5269,7 @@
       <c r="A151" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="12" t="s">
         <v>319</v>
       </c>
       <c r="C151" s="2"/>
@@ -5209,7 +5278,7 @@
       <c r="A152" t="s">
         <v>295</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C152" s="2"/>
@@ -5218,7 +5287,7 @@
       <c r="A153" t="s">
         <v>293</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="12" t="s">
         <v>294</v>
       </c>
       <c r="C153" s="2"/>
@@ -5230,7 +5299,7 @@
       <c r="A155" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5238,7 +5307,7 @@
       <c r="A156" t="s">
         <v>247</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="12" t="s">
         <v>248</v>
       </c>
       <c r="C156" s="2"/>
@@ -5247,7 +5316,7 @@
       <c r="A157" t="s">
         <v>243</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="12" t="s">
         <v>244</v>
       </c>
       <c r="C157" s="2"/>
@@ -5256,7 +5325,7 @@
       <c r="A158" t="s">
         <v>245</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="12" t="s">
         <v>246</v>
       </c>
       <c r="C158" s="2"/>
@@ -5265,8 +5334,8 @@
       <c r="A159" t="s">
         <v>285</v>
       </c>
-      <c r="B159" s="15" t="s">
-        <v>1096</v>
+      <c r="B159" s="12" t="s">
+        <v>1084</v>
       </c>
       <c r="C159" s="2"/>
     </row>
@@ -5274,18 +5343,16 @@
       <c r="A160" t="s">
         <v>371</v>
       </c>
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>372</v>
-      </c>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>36</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C161" s="2"/>
@@ -5294,7 +5361,7 @@
       <c r="A162" t="s">
         <v>289</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="12" t="s">
         <v>290</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -5305,8 +5372,8 @@
       <c r="A163" t="s">
         <v>331</v>
       </c>
-      <c r="B163" s="20" t="s">
-        <v>1107</v>
+      <c r="B163" s="17" t="s">
+        <v>1095</v>
       </c>
       <c r="C163" s="2"/>
     </row>
@@ -5314,8 +5381,8 @@
       <c r="A164" t="s">
         <v>332</v>
       </c>
-      <c r="B164" s="16" t="s">
-        <v>467</v>
+      <c r="B164" s="13" t="s">
+        <v>465</v>
       </c>
       <c r="C164" s="2"/>
     </row>
@@ -5323,18 +5390,16 @@
       <c r="A165" t="s">
         <v>333</v>
       </c>
-      <c r="B165" s="20" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>380</v>
-      </c>
+      <c r="B165" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>281</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="12" t="s">
         <v>282</v>
       </c>
       <c r="C166" s="2"/>
@@ -5343,7 +5408,7 @@
       <c r="A167" t="s">
         <v>334</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="12" t="s">
         <v>370</v>
       </c>
       <c r="C167" s="2"/>
@@ -5352,7 +5417,7 @@
       <c r="A168" t="s">
         <v>241</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="12" t="s">
         <v>242</v>
       </c>
       <c r="C168" s="2"/>
@@ -5361,8 +5426,8 @@
       <c r="A169" t="s">
         <v>335</v>
       </c>
-      <c r="B169" s="15" t="s">
-        <v>377</v>
+      <c r="B169" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="C169" s="2"/>
     </row>
@@ -5370,7 +5435,7 @@
       <c r="A170" t="s">
         <v>275</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="12" t="s">
         <v>276</v>
       </c>
       <c r="C170" s="2"/>
@@ -5379,18 +5444,18 @@
       <c r="A171" t="s">
         <v>279</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C171" s="9" t="s">
-        <v>529</v>
+      <c r="C171" s="7" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>278</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="12" t="s">
         <v>277</v>
       </c>
       <c r="C172" s="2"/>
@@ -5399,7 +5464,7 @@
       <c r="A173" t="s">
         <v>249</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="B173" s="12" t="s">
         <v>250</v>
       </c>
       <c r="C173" s="2"/>
@@ -5408,7 +5473,7 @@
       <c r="A174" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="13" t="s">
         <v>252</v>
       </c>
       <c r="C174" s="2"/>
@@ -5417,7 +5482,7 @@
       <c r="A175" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B175" s="13" t="s">
         <v>254</v>
       </c>
       <c r="C175" s="2"/>
@@ -5426,8 +5491,8 @@
       <c r="A176" t="s">
         <v>336</v>
       </c>
-      <c r="B176" s="15" t="s">
-        <v>373</v>
+      <c r="B176" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="C176" s="2"/>
     </row>
@@ -5435,18 +5500,18 @@
       <c r="A177" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B177" s="16" t="s">
-        <v>379</v>
+      <c r="B177" s="13" t="s">
+        <v>378</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="13" t="s">
         <v>288</v>
       </c>
       <c r="C178" s="2"/>
@@ -5455,7 +5520,7 @@
       <c r="A179" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B179" s="13" t="s">
         <v>284</v>
       </c>
       <c r="C179" s="2"/>
@@ -5464,8 +5529,8 @@
       <c r="A180" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B180" s="16" t="s">
-        <v>382</v>
+      <c r="B180" s="13" t="s">
+        <v>380</v>
       </c>
       <c r="C180" s="2"/>
     </row>
@@ -5473,8 +5538,8 @@
       <c r="A181" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B181" s="16" t="s">
-        <v>381</v>
+      <c r="B181" s="13" t="s">
+        <v>379</v>
       </c>
       <c r="C181" s="2"/>
     </row>
@@ -5482,8 +5547,8 @@
       <c r="A182" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B182" s="16" t="s">
-        <v>833</v>
+      <c r="B182" s="13" t="s">
+        <v>829</v>
       </c>
       <c r="C182" s="2"/>
     </row>
@@ -5491,7 +5556,7 @@
       <c r="A183" t="s">
         <v>228</v>
       </c>
-      <c r="B183" s="15" t="s">
+      <c r="B183" s="12" t="s">
         <v>229</v>
       </c>
       <c r="C183" s="2"/>
@@ -5500,7 +5565,7 @@
       <c r="A184" t="s">
         <v>230</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="B184" s="12" t="s">
         <v>231</v>
       </c>
       <c r="C184" s="2"/>
@@ -5509,8 +5574,8 @@
       <c r="A185" t="s">
         <v>341</v>
       </c>
-      <c r="B185" s="15" t="s">
-        <v>376</v>
+      <c r="B185" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="C185" s="2"/>
     </row>
@@ -5518,8 +5583,8 @@
       <c r="A186" t="s">
         <v>342</v>
       </c>
-      <c r="B186" s="15" t="s">
-        <v>375</v>
+      <c r="B186" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="C186" s="2"/>
     </row>
@@ -5527,8 +5592,8 @@
       <c r="A187" t="s">
         <v>343</v>
       </c>
-      <c r="B187" s="15" t="s">
-        <v>374</v>
+      <c r="B187" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="C187" s="2"/>
     </row>
@@ -5536,8 +5601,8 @@
       <c r="A188" t="s">
         <v>344</v>
       </c>
-      <c r="B188" s="15" t="s">
-        <v>378</v>
+      <c r="B188" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="C188" s="2"/>
     </row>
@@ -5548,7 +5613,7 @@
       <c r="A190" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="10" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5556,61 +5621,62 @@
       <c r="A191" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B191" s="20" t="s">
-        <v>1102</v>
+      <c r="B191" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B192" s="20" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>553</v>
-      </c>
+      <c r="B192" s="14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B193" s="15" t="s">
-        <v>1098</v>
+      <c r="B193" s="12" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B194" s="16" t="s">
-        <v>1099</v>
+      <c r="B194" s="13" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B195" s="15" t="s">
-        <v>1100</v>
+      <c r="B195" s="12" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B196" s="20" t="s">
-        <v>1103</v>
+      <c r="B196" s="14" t="s">
+        <v>1091</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>703</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>209</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="12" t="s">
         <v>210</v>
       </c>
       <c r="C197" s="2"/>
@@ -5619,8 +5685,8 @@
       <c r="A198" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B198" s="15" t="s">
-        <v>486</v>
+      <c r="B198" s="12" t="s">
+        <v>484</v>
       </c>
       <c r="C198" s="2"/>
     </row>
@@ -5628,8 +5694,8 @@
       <c r="A199" t="s">
         <v>352</v>
       </c>
-      <c r="B199" s="15" t="s">
-        <v>481</v>
+      <c r="B199" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="C199" s="2"/>
     </row>
@@ -5637,8 +5703,8 @@
       <c r="A200" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B200" s="15" t="s">
-        <v>482</v>
+      <c r="B200" s="12" t="s">
+        <v>480</v>
       </c>
       <c r="C200" s="2"/>
     </row>
@@ -5646,18 +5712,18 @@
       <c r="A201" t="s">
         <v>354</v>
       </c>
-      <c r="B201" s="16" t="s">
-        <v>836</v>
+      <c r="B201" s="13" t="s">
+        <v>832</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="B202" s="12" t="s">
         <v>204</v>
       </c>
       <c r="C202" s="2"/>
@@ -5666,19 +5732,19 @@
       <c r="A203" t="s">
         <v>355</v>
       </c>
-      <c r="B203" s="16" t="s">
-        <v>837</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>842</v>
+      <c r="B203" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>356</v>
       </c>
-      <c r="B204" s="15" t="s">
-        <v>483</v>
+      <c r="B204" s="12" t="s">
+        <v>481</v>
       </c>
       <c r="C204" s="2"/>
     </row>
@@ -5686,8 +5752,8 @@
       <c r="A205" t="s">
         <v>357</v>
       </c>
-      <c r="B205" s="16" t="s">
-        <v>469</v>
+      <c r="B205" s="13" t="s">
+        <v>467</v>
       </c>
       <c r="C205" s="2"/>
     </row>
@@ -5695,8 +5761,8 @@
       <c r="A206" t="s">
         <v>358</v>
       </c>
-      <c r="B206" s="17" t="s">
-        <v>835</v>
+      <c r="B206" s="14" t="s">
+        <v>831</v>
       </c>
       <c r="C206" s="2"/>
     </row>
@@ -5704,8 +5770,8 @@
       <c r="A207" t="s">
         <v>359</v>
       </c>
-      <c r="B207" s="15" t="s">
-        <v>479</v>
+      <c r="B207" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="C207" s="2"/>
     </row>
@@ -5713,8 +5779,8 @@
       <c r="A208" t="s">
         <v>360</v>
       </c>
-      <c r="B208" s="16" t="s">
-        <v>834</v>
+      <c r="B208" s="13" t="s">
+        <v>830</v>
       </c>
       <c r="C208" s="2"/>
     </row>
@@ -5722,8 +5788,8 @@
       <c r="A209" t="s">
         <v>361</v>
       </c>
-      <c r="B209" s="15" t="s">
-        <v>480</v>
+      <c r="B209" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="C209" s="2"/>
     </row>
@@ -5731,29 +5797,27 @@
       <c r="A210" t="s">
         <v>362</v>
       </c>
-      <c r="B210" s="15" t="s">
-        <v>534</v>
+      <c r="B210" s="12" t="s">
+        <v>532</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>363</v>
       </c>
-      <c r="B211" s="20" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>937</v>
-      </c>
+      <c r="B211" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="15" t="s">
+      <c r="B212" s="12" t="s">
         <v>212</v>
       </c>
       <c r="C212" s="2"/>
@@ -5762,7 +5826,7 @@
       <c r="A213" t="s">
         <v>205</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="B213" s="12" t="s">
         <v>208</v>
       </c>
       <c r="C213" s="2"/>
@@ -5771,16 +5835,16 @@
       <c r="A214" t="s">
         <v>364</v>
       </c>
-      <c r="B214" s="20" t="s">
-        <v>1105</v>
+      <c r="B214" s="14" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>365</v>
       </c>
-      <c r="B215" s="15" t="s">
-        <v>484</v>
+      <c r="B215" s="12" t="s">
+        <v>482</v>
       </c>
       <c r="C215" s="2"/>
     </row>
@@ -5788,8 +5852,8 @@
       <c r="A216" t="s">
         <v>366</v>
       </c>
-      <c r="B216" s="15" t="s">
-        <v>485</v>
+      <c r="B216" s="12" t="s">
+        <v>483</v>
       </c>
       <c r="C216" s="2"/>
     </row>
@@ -5797,7 +5861,7 @@
       <c r="A217" t="s">
         <v>207</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C217" s="2"/>
@@ -5809,7 +5873,7 @@
       <c r="A219" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="B219" s="10" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5817,7 +5881,7 @@
       <c r="A220" t="s">
         <v>172</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="12" t="s">
         <v>171</v>
       </c>
       <c r="C220" s="2"/>
@@ -5826,7 +5890,7 @@
       <c r="A221" t="s">
         <v>175</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="12" t="s">
         <v>184</v>
       </c>
       <c r="C221" s="2"/>
@@ -5835,7 +5899,7 @@
       <c r="A222" t="s">
         <v>176</v>
       </c>
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="12" t="s">
         <v>186</v>
       </c>
       <c r="C222" s="2"/>
@@ -5844,7 +5908,7 @@
       <c r="A223" t="s">
         <v>177</v>
       </c>
-      <c r="B223" s="15" t="s">
+      <c r="B223" s="12" t="s">
         <v>185</v>
       </c>
       <c r="C223" s="2"/>
@@ -5853,7 +5917,7 @@
       <c r="A224" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="15" t="s">
+      <c r="B224" s="12" t="s">
         <v>173</v>
       </c>
       <c r="C224" s="2"/>
@@ -5862,7 +5926,7 @@
       <c r="A225" t="s">
         <v>178</v>
       </c>
-      <c r="B225" s="15" t="s">
+      <c r="B225" s="12" t="s">
         <v>187</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -5873,7 +5937,7 @@
       <c r="A226" t="s">
         <v>179</v>
       </c>
-      <c r="B226" s="15" t="s">
+      <c r="B226" s="12" t="s">
         <v>188</v>
       </c>
       <c r="C226" s="2"/>
@@ -5882,7 +5946,7 @@
       <c r="A227" t="s">
         <v>180</v>
       </c>
-      <c r="B227" s="15" t="s">
+      <c r="B227" s="12" t="s">
         <v>190</v>
       </c>
       <c r="C227" s="2"/>
@@ -5891,7 +5955,7 @@
       <c r="A228" t="s">
         <v>181</v>
       </c>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="12" t="s">
         <v>191</v>
       </c>
       <c r="C228" s="2"/>
@@ -5900,7 +5964,7 @@
       <c r="A229" t="s">
         <v>169</v>
       </c>
-      <c r="B229" s="15" t="s">
+      <c r="B229" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C229" s="2"/>
@@ -5912,26 +5976,26 @@
       <c r="A231" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B231" s="13" t="s">
+      <c r="B231" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>635</v>
-      </c>
-      <c r="B232" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="B232" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>38</v>
       </c>
-      <c r="B233" s="15" t="s">
+      <c r="B233" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -5942,7 +6006,7 @@
       <c r="A234" t="s">
         <v>213</v>
       </c>
-      <c r="B234" s="15" t="s">
+      <c r="B234" s="12" t="s">
         <v>214</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -5953,7 +6017,7 @@
       <c r="A235" t="s">
         <v>216</v>
       </c>
-      <c r="B235" s="15" t="s">
+      <c r="B235" s="12" t="s">
         <v>217</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -5964,7 +6028,7 @@
       <c r="A236" t="s">
         <v>40</v>
       </c>
-      <c r="B236" s="15" t="s">
+      <c r="B236" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -5975,7 +6039,7 @@
       <c r="A237" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="B237" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -5986,7 +6050,7 @@
       <c r="A238" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B238" s="16" t="s">
+      <c r="B238" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C238" s="6" t="s">
@@ -5997,7 +6061,7 @@
       <c r="A239" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B239" s="16" t="s">
+      <c r="B239" s="13" t="s">
         <v>219</v>
       </c>
       <c r="C239" s="6" t="s">
@@ -6008,282 +6072,282 @@
       <c r="A240" t="s">
         <v>42</v>
       </c>
-      <c r="B240" s="15" t="s">
+      <c r="B240" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>530</v>
+      <c r="C240" s="7" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>616</v>
-      </c>
-      <c r="B241" s="15" t="s">
-        <v>617</v>
+        <v>613</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>614</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>619</v>
-      </c>
-      <c r="B242" s="16" t="s">
-        <v>620</v>
+        <v>616</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>617</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>554</v>
-      </c>
-      <c r="B243" s="15" t="s">
-        <v>555</v>
+        <v>551</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>552</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>557</v>
-      </c>
-      <c r="B244" s="15" t="s">
-        <v>558</v>
+        <v>554</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>555</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>521</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C245" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="B245" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>524</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="B246" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>628</v>
-      </c>
-      <c r="B247" s="16" t="s">
-        <v>629</v>
+        <v>625</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>626</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>574</v>
-      </c>
-      <c r="B248" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>569</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>560</v>
-      </c>
-      <c r="B249" s="15" t="s">
-        <v>561</v>
+        <v>557</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>558</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>626</v>
-      </c>
-      <c r="B250" s="16" t="s">
-        <v>627</v>
+        <v>623</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>624</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="B251" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>613</v>
-      </c>
-      <c r="B252" s="16" t="s">
-        <v>614</v>
+        <v>610</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>507</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="B253" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>44</v>
       </c>
-      <c r="B254" s="15" t="s">
+      <c r="B254" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C254" s="9" t="s">
-        <v>531</v>
+      <c r="C254" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>622</v>
-      </c>
-      <c r="B255" s="16" t="s">
-        <v>623</v>
+        <v>619</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>620</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>624</v>
-      </c>
-      <c r="B256" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>622</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>578</v>
-      </c>
-      <c r="B257" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>573</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>575</v>
-      </c>
-      <c r="B258" s="15" t="s">
-        <v>579</v>
+        <v>572</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>576</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>581</v>
-      </c>
-      <c r="B259" s="16" t="s">
-        <v>582</v>
+        <v>578</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>579</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>583</v>
-      </c>
-      <c r="B260" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>1106</v>
+        <v>580</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>518</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="B261" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>534</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B262" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>515</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="B263" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>485</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B264" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>46</v>
       </c>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -6294,7 +6358,7 @@
       <c r="A266" t="s">
         <v>48</v>
       </c>
-      <c r="B266" s="15" t="s">
+      <c r="B266" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -6303,115 +6367,115 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>611</v>
-      </c>
-      <c r="B267" s="16" t="s">
-        <v>612</v>
+        <v>608</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>609</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>585</v>
-      </c>
-      <c r="B268" s="16" t="s">
-        <v>586</v>
+        <v>582</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>583</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>587</v>
-      </c>
-      <c r="B269" s="16" t="s">
-        <v>588</v>
+        <v>584</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>585</v>
       </c>
       <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>590</v>
-      </c>
-      <c r="B270" s="16" t="s">
-        <v>589</v>
+        <v>587</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>586</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>591</v>
-      </c>
-      <c r="B271" s="16" t="s">
-        <v>592</v>
+        <v>588</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>589</v>
       </c>
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>607</v>
-      </c>
-      <c r="B272" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>605</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>609</v>
-      </c>
-      <c r="B273" s="16" t="s">
-        <v>610</v>
+        <v>606</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>607</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>642</v>
-      </c>
-      <c r="B274" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>641</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>504</v>
+      </c>
+      <c r="B275" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="B275" s="15" t="s">
-        <v>508</v>
-      </c>
       <c r="C275" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>641</v>
-      </c>
-      <c r="B276" s="16" t="s">
-        <v>593</v>
+        <v>638</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>590</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>49</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -6420,64 +6484,64 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>515</v>
-      </c>
-      <c r="B278" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="C278" s="9" t="s">
-        <v>532</v>
+        <v>513</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>501</v>
+      </c>
+      <c r="B279" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="B279" s="15" t="s">
-        <v>505</v>
-      </c>
       <c r="C279" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>631</v>
-      </c>
-      <c r="B280" s="16" t="s">
-        <v>632</v>
+        <v>628</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>629</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>551</v>
-      </c>
-      <c r="B281" s="15" t="s">
-        <v>552</v>
+        <v>549</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>550</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>546</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="B282" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>51</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -6488,29 +6552,29 @@
       <c r="A284" t="s">
         <v>52</v>
       </c>
-      <c r="B284" s="15" t="s">
+      <c r="B284" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C284" s="9" t="s">
-        <v>533</v>
+      <c r="C284" s="7" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>510</v>
+      </c>
+      <c r="B285" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="B285" s="16" t="s">
-        <v>514</v>
-      </c>
       <c r="C285" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>225</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B286" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -6519,226 +6583,226 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>495</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="B287" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>647</v>
-      </c>
-      <c r="B288" s="20" t="s">
-        <v>1107</v>
+        <v>644</v>
+      </c>
+      <c r="B288" s="17" t="s">
+        <v>1095</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>222</v>
       </c>
-      <c r="B289" s="15" t="s">
+      <c r="B289" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>490</v>
-      </c>
-      <c r="B290" s="16" t="s">
-        <v>491</v>
+        <v>488</v>
+      </c>
+      <c r="B290" s="13" t="s">
+        <v>489</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>492</v>
-      </c>
-      <c r="B291" s="15" t="s">
-        <v>493</v>
+        <v>490</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="C291" s="2"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>495</v>
-      </c>
-      <c r="B292" s="15" t="s">
-        <v>496</v>
+        <v>493</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>597</v>
-      </c>
-      <c r="B293" s="16" t="s">
-        <v>598</v>
+        <v>594</v>
+      </c>
+      <c r="B293" s="13" t="s">
+        <v>595</v>
       </c>
       <c r="C293" s="2"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>599</v>
-      </c>
-      <c r="B294" s="16" t="s">
-        <v>600</v>
+        <v>596</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>597</v>
       </c>
       <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>603</v>
-      </c>
-      <c r="B295" s="16" t="s">
-        <v>604</v>
+        <v>600</v>
+      </c>
+      <c r="B295" s="13" t="s">
+        <v>601</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>605</v>
-      </c>
-      <c r="B296" s="16" t="s">
-        <v>606</v>
+        <v>602</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>603</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>563</v>
-      </c>
-      <c r="B297" s="16" t="s">
-        <v>564</v>
+        <v>560</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>561</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>596</v>
-      </c>
-      <c r="B298" s="15" t="s">
-        <v>569</v>
+        <v>593</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>570</v>
-      </c>
-      <c r="B299" s="16" t="s">
-        <v>571</v>
+        <v>567</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>568</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>567</v>
-      </c>
-      <c r="B300" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>565</v>
       </c>
       <c r="C300" s="2"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>539</v>
-      </c>
-      <c r="B301" s="15" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>538</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>541</v>
-      </c>
-      <c r="B302" s="15" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>540</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>541</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="B303" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>633</v>
-      </c>
-      <c r="B304" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>631</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>594</v>
-      </c>
-      <c r="B305" s="16" t="s">
-        <v>595</v>
+        <v>591</v>
+      </c>
+      <c r="B305" s="13" t="s">
+        <v>592</v>
       </c>
       <c r="C305" s="2"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>601</v>
-      </c>
-      <c r="B306" s="16" t="s">
-        <v>602</v>
+        <v>598</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>599</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>565</v>
-      </c>
-      <c r="B307" s="15" t="s">
-        <v>566</v>
+        <v>562</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>563</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>223</v>
       </c>
-      <c r="B308" s="15" t="s">
-        <v>494</v>
+      <c r="B308" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>224</v>
@@ -6746,13 +6810,13 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>836</v>
+      </c>
+      <c r="B309" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="B309" s="20" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -6768,1813 +6832,1815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.875" customWidth="1"/>
-    <col min="3" max="3" width="170.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="170.875" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>666</v>
-      </c>
-      <c r="B3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>663</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>677</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>678</v>
-      </c>
-      <c r="B5" t="s">
-        <v>680</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>675</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>872</v>
-      </c>
-      <c r="B6" t="s">
-        <v>873</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>868</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>870</v>
-      </c>
-      <c r="B7" t="s">
-        <v>871</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>866</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>876</v>
-      </c>
-      <c r="B8" t="s">
-        <v>875</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>872</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>877</v>
-      </c>
-      <c r="B9" t="s">
-        <v>878</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>873</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>1063</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>1064</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>1065</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>851</v>
-      </c>
-      <c r="B13" t="s">
-        <v>852</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>847</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>862</v>
-      </c>
-      <c r="B14" t="s">
-        <v>863</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>859</v>
+      </c>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>762</v>
-      </c>
-      <c r="B15" t="s">
-        <v>864</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>874</v>
+        <v>758</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B16" t="s">
-        <v>865</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>862</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>763</v>
-      </c>
-      <c r="B17" t="s">
-        <v>764</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>759</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>765</v>
-      </c>
-      <c r="B18" t="s">
-        <v>766</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>761</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>1059</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>1060</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>917</v>
-      </c>
-      <c r="B21" t="s">
-        <v>918</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>919</v>
+        <v>913</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>914</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>920</v>
-      </c>
-      <c r="B22" t="s">
-        <v>921</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>916</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>1057</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>1055</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>1053</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>1051</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>1049</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>1047</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>1045</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>847</v>
-      </c>
-      <c r="B30" t="s">
-        <v>848</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>843</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>849</v>
-      </c>
-      <c r="B31" t="s">
-        <v>850</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>845</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>845</v>
-      </c>
-      <c r="B32" t="s">
-        <v>846</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>841</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>1042</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>1041</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>1039</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>911</v>
-      </c>
-      <c r="B36" t="s">
-        <v>912</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>907</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>914</v>
-      </c>
-      <c r="B37" t="s">
-        <v>915</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>913</v>
-      </c>
-      <c r="B38" t="s">
-        <v>868</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>869</v>
+        <v>909</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>867</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>863</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>902</v>
-      </c>
-      <c r="B40" t="s">
-        <v>903</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>898</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>1034</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>1035</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>1032</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>1041</v>
+        <v>1026</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>1029</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>1005</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>1003</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>1001</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>970</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>971</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>963</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>906</v>
-      </c>
-      <c r="B50" t="s">
-        <v>907</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>902</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>903</v>
+      </c>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>972</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>973</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>965</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>974</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>975</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>967</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>741</v>
-      </c>
-      <c r="B53" t="s">
-        <v>742</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>737</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>891</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>887</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="26"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>756</v>
-      </c>
-      <c r="B55" t="s">
-        <v>757</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>853</v>
+        <v>752</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>704</v>
-      </c>
-      <c r="B56" t="s">
-        <v>758</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>879</v>
-      </c>
-      <c r="B57" t="s">
-        <v>882</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>875</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="C57" s="26"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>880</v>
-      </c>
-      <c r="B58" t="s">
-        <v>881</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>876</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="C58" s="26"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>883</v>
-      </c>
-      <c r="B59" t="s">
-        <v>884</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>879</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="C59" s="26"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>892</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>998</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>888</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="C60" s="26"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>893</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>997</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>889</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>990</v>
+      </c>
+      <c r="C61" s="26"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>894</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>890</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="C62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>749</v>
-      </c>
-      <c r="B63" t="s">
-        <v>750</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>745</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="C63" s="26"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>751</v>
-      </c>
-      <c r="B64" t="s">
-        <v>752</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="C64" s="26"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>753</v>
-      </c>
-      <c r="B65" t="s">
-        <v>754</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>854</v>
-      </c>
-      <c r="B66" t="s">
-        <v>855</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>856</v>
+        <v>850</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>885</v>
-      </c>
-      <c r="B67" t="s">
-        <v>886</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>881</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="C67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>696</v>
-      </c>
-      <c r="B68" t="s">
-        <v>697</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>693</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="C68" s="26"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>698</v>
-      </c>
-      <c r="B69" t="s">
-        <v>699</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>695</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="C69" s="26"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>809</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>805</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="C70" s="26"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>811</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>961</v>
+        <v>807</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>813</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>824</v>
+        <v>809</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>716</v>
-      </c>
-      <c r="B73" t="s">
-        <v>717</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>709</v>
-      </c>
-      <c r="B74" t="s">
-        <v>711</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>727</v>
-      </c>
-      <c r="B75" t="s">
-        <v>728</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>724</v>
-      </c>
-      <c r="B76" t="s">
-        <v>725</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>692</v>
-      </c>
-      <c r="B77" t="s">
-        <v>693</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>694</v>
-      </c>
-      <c r="B78" t="s">
-        <v>695</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>825</v>
+        <v>691</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>815</v>
-      </c>
-      <c r="B79" t="s">
-        <v>822</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>823</v>
+        <v>811</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>780</v>
-      </c>
-      <c r="B80" t="s">
-        <v>781</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>776</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="C80" s="26"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>779</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C81" s="26"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>671</v>
-      </c>
-      <c r="B82" t="s">
-        <v>672</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>668</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="C82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>775</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>771</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="C83" s="26"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>816</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>943</v>
+        <v>812</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>675</v>
-      </c>
-      <c r="B85" t="s">
-        <v>676</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="C85" s="26"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>777</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>773</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="C86" s="26"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>817</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>945</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>813</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="C87" s="26"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>785</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>781</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="C88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>673</v>
-      </c>
-      <c r="B89" t="s">
-        <v>674</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>691</v>
+        <v>670</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>681</v>
-      </c>
-      <c r="B90" t="s">
-        <v>682</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>678</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="C90" s="26"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>887</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>883</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>970</v>
+      </c>
+      <c r="C91" s="26"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>706</v>
-      </c>
-      <c r="B92" t="s">
-        <v>707</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>888</v>
-      </c>
-      <c r="B93" t="s">
-        <v>923</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>924</v>
+        <v>884</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>919</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>722</v>
-      </c>
-      <c r="B94" t="s">
-        <v>723</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>718</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="C94" s="26"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>683</v>
-      </c>
-      <c r="B95" t="s">
-        <v>684</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C95" s="26"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>686</v>
-      </c>
-      <c r="B96" t="s">
-        <v>685</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>748</v>
+        <v>683</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>783</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>779</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="C97" s="26"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>889</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>946</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>885</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="C98" s="26"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>743</v>
-      </c>
-      <c r="B99" t="s">
-        <v>801</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>739</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="C99" s="26"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>788</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>784</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="C100" s="26"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>890</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>942</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>943</v>
+        <v>886</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>744</v>
-      </c>
-      <c r="B102" t="s">
-        <v>799</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>740</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="C102" s="26"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>787</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>783</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="C103" s="26"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>895</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>940</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>941</v>
+        <v>891</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>896</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>939</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>892</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="C105" s="26"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>747</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>770</v>
+        <v>743</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>719</v>
-      </c>
-      <c r="B107" t="s">
-        <v>720</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>897</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>893</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>971</v>
+      </c>
+      <c r="C108" s="26"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>771</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>769</v>
-      </c>
-      <c r="B110" t="s">
-        <v>767</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>712</v>
-      </c>
-      <c r="B111" t="s">
-        <v>795</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>898</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>968</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>969</v>
+        <v>894</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>714</v>
-      </c>
-      <c r="B113" t="s">
-        <v>794</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>736</v>
-      </c>
-      <c r="B114" t="s">
-        <v>737</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>925</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>947</v>
-      </c>
-      <c r="C115" s="2"/>
+        <v>921</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="C115" s="26"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>922</v>
+      </c>
+      <c r="B116" s="19" t="s">
         <v>926</v>
       </c>
-      <c r="B116" t="s">
-        <v>930</v>
-      </c>
-      <c r="C116" s="2"/>
+      <c r="C116" s="26"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>923</v>
+      </c>
+      <c r="B117" s="19" t="s">
         <v>927</v>
       </c>
-      <c r="B117" t="s">
-        <v>931</v>
-      </c>
-      <c r="C117" s="6"/>
+      <c r="C117" s="28"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>928</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>979</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>924</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="C118" s="26"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>929</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>936</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>925</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="C119" s="26"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>773</v>
-      </c>
-      <c r="B120" t="s">
-        <v>793</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>791</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>831</v>
+        <v>787</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>899</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>964</v>
+        <v>895</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>804</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>830</v>
+        <v>800</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>802</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>832</v>
+        <v>798</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>759</v>
-      </c>
-      <c r="B125" t="s">
-        <v>760</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>900</v>
-      </c>
-      <c r="B126" t="s">
-        <v>922</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>896</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="C126" s="26"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>858</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="C127" s="2"/>
+        <v>854</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>855</v>
+      </c>
+      <c r="C127" s="26"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>745</v>
-      </c>
-      <c r="B128" t="s">
-        <v>746</v>
-      </c>
-      <c r="C128" s="2"/>
+        <v>741</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="C128" s="26"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>668</v>
-      </c>
-      <c r="B129" t="s">
-        <v>702</v>
-      </c>
-      <c r="C129" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="C129" s="26"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>689</v>
-      </c>
-      <c r="B130" t="s">
-        <v>690</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>733</v>
-      </c>
-      <c r="B131" t="s">
-        <v>734</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>901</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>962</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>965</v>
+        <v>897</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>956</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>789</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="C133" s="2"/>
+        <v>785</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="C133" s="26"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="2"/>
+      <c r="C134" s="26"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>932</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>933</v>
-      </c>
-      <c r="C135" s="2"/>
+        <v>928</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="C135" s="26"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>934</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>935</v>
-      </c>
-      <c r="C136" s="2"/>
+        <v>930</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="C136" s="26"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="2"/>
+      <c r="C137" s="26"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>807</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>826</v>
+        <v>803</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>806</v>
-      </c>
-      <c r="B139" t="s">
-        <v>739</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>740</v>
+        <v>802</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>828</v>
-      </c>
-      <c r="B140" t="s">
-        <v>829</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C141" s="2"/>
+        <v>998</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>999</v>
+      </c>
+      <c r="C141" s="26"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="2"/>
+      <c r="C142" s="26"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>980</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>981</v>
-      </c>
-      <c r="C143" s="2"/>
+        <v>973</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="C143" s="26"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>982</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>983</v>
-      </c>
-      <c r="C144" s="2"/>
+        <v>975</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>976</v>
+      </c>
+      <c r="C144" s="26"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="2"/>
+      <c r="C145" s="26"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>908</v>
-      </c>
-      <c r="B146" t="s">
-        <v>909</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>905</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>904</v>
-      </c>
-      <c r="B147" t="s">
-        <v>905</v>
-      </c>
-      <c r="C147" s="2"/>
+        <v>900</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="C147" s="26"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C148" s="2"/>
+        <v>996</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="C148" s="26"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C149" s="2"/>
+        <v>1027</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C149" s="26"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="2"/>
+      <c r="C150" s="26"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>984</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>985</v>
-      </c>
-      <c r="C151" s="2"/>
+        <v>977</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>978</v>
+      </c>
+      <c r="C151" s="26"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="2"/>
+      <c r="C152" s="26"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>956</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>957</v>
-      </c>
-      <c r="C153" s="2"/>
+        <v>950</v>
+      </c>
+      <c r="B153" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="C153" s="26"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="2"/>
+      <c r="C154" s="26"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>995</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>996</v>
-      </c>
-      <c r="C155" s="2"/>
+        <v>988</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>989</v>
+      </c>
+      <c r="C155" s="26"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="2"/>
+      <c r="C156" s="26"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>958</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>959</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>960</v>
+        <v>952</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>953</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>730</v>
-      </c>
-      <c r="B158" t="s">
-        <v>731</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="2"/>
+      <c r="C159" s="26"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>953</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>954</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>955</v>
+        <v>947</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>948</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="2"/>
+      <c r="C161" s="26"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>966</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>967</v>
+        <v>960</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="2"/>
+      <c r="C163" s="26"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C164" s="2"/>
+        <v>944</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>945</v>
+      </c>
+      <c r="C164" s="27" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C165" s="2"/>
+        <v>942</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="C165" s="26"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C166" s="2"/>
+      <c r="C166" s="26"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C167" s="2"/>
+        <v>1024</v>
+      </c>
+      <c r="B167" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C167" s="26"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C168" s="2"/>
+        <v>1022</v>
+      </c>
+      <c r="B168" s="24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C168" s="26"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>950</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>951</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>952</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C169" s="26"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>948</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="C170" s="2"/>
+        <v>1019</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C170" s="26"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="2"/>
+      <c r="A171" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C171" s="26"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C172" s="2"/>
+        <v>1108</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C172" s="26"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C173" s="2"/>
+        <v>1014</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C173" s="26" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C174" s="2"/>
+        <v>1012</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C174" s="26"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C175" s="2"/>
+        <v>1010</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C175" s="26"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C176" s="2"/>
+        <v>994</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>995</v>
+      </c>
+      <c r="C176" s="26"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="2"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>700</v>
-      </c>
-      <c r="B178" t="s">
-        <v>701</v>
-      </c>
-      <c r="C178" s="2"/>
+        <v>697</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="C178" s="26"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="2"/>
+      <c r="C179" s="26"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>986</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C180" s="2"/>
+        <v>979</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C181" s="2"/>
+        <v>1007</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C181" s="26"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="2"/>
+      <c r="C182" s="26"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>993</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>994</v>
-      </c>
-      <c r="C183" s="2"/>
+        <v>986</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>987</v>
+      </c>
+      <c r="C183" s="26"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>991</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>992</v>
-      </c>
-      <c r="C184" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>985</v>
+      </c>
+      <c r="C184" s="26"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>987</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>988</v>
-      </c>
-      <c r="C185" s="2"/>
+        <v>980</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>981</v>
+      </c>
+      <c r="C185" s="26"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>820</v>
-      </c>
-      <c r="B186" t="s">
-        <v>821</v>
-      </c>
-      <c r="C186" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="C186" s="26"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>818</v>
-      </c>
-      <c r="B187" t="s">
-        <v>819</v>
-      </c>
-      <c r="C187" s="2"/>
+        <v>814</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="C187" s="26"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="2"/>
+      <c r="C188" s="26"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>853</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="C189" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>861</v>
-      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="3"/>
-      <c r="C190" s="2"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="26"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>999</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C191" s="2"/>
+        <v>992</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>993</v>
+      </c>
+      <c r="C191" s="26"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>989</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>990</v>
-      </c>
-      <c r="C192" s="2"/>
+        <v>982</v>
+      </c>
+      <c r="B192" s="21" t="s">
+        <v>983</v>
+      </c>
+      <c r="C192" s="26"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="2"/>
+      <c r="C193" s="26"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>669</v>
-      </c>
-      <c r="B194" t="s">
-        <v>670</v>
-      </c>
-      <c r="C194" s="6"/>
+        <v>666</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="C194" s="28"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="2"/>
+      <c r="C195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>687</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C196" s="2"/>
+        <v>684</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="C196" s="26"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="2"/>
+      <c r="C197" s="26"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="2"/>
+      <c r="C198" s="26"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="2"/>
+      <c r="C199" s="26"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="2"/>
+      <c r="C200" s="26"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="2"/>
+      <c r="C201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="2"/>
+      <c r="C202" s="26"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="2"/>
+      <c r="C203" s="26"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="2"/>
+      <c r="C204" s="26"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C205" s="2"/>
+      <c r="C205" s="26"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="2"/>
+      <c r="C206" s="26"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="2"/>
+      <c r="C207" s="26"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C208" s="2"/>
+      <c r="C208" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitE models.xlsx
+++ b/WitE models.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Air units" sheetId="1" r:id="rId1"/>
     <sheet name="Land units" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Land units'!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1123">
   <si>
     <t>A0039</t>
   </si>
@@ -2169,9 +2171,6 @@
     <t>20mm Quad Anti-Aircraft gun (Ger)</t>
   </si>
   <si>
-    <t>Flakvierling 38</t>
-  </si>
-  <si>
     <t>GP0093</t>
   </si>
   <si>
@@ -2271,9 +2270,6 @@
     <t>Sd.Kfz. 251/2 Mortar Carrier</t>
   </si>
   <si>
-    <t>Have the Vanilla image as well, but this is more 'mortar-centered' - though both depict the firing of the mortar from the half-track. Getting full vehicle shots are difficult, as the mortar then blends in with the vehicle itself</t>
-  </si>
-  <si>
     <t>GP0054</t>
   </si>
   <si>
@@ -2289,9 +2285,6 @@
     <t>37mm anti-aircraft gun (Ger)</t>
   </si>
   <si>
-    <t>3.7 cm FlaK 36</t>
-  </si>
-  <si>
     <t>GP0014</t>
   </si>
   <si>
@@ -2865,9 +2858,6 @@
     <t>75mm anti-tank gun (Ger)</t>
   </si>
   <si>
-    <t>PAK 38</t>
-  </si>
-  <si>
     <t>GP0338</t>
   </si>
   <si>
@@ -2880,9 +2870,6 @@
     <t>45mm anti-tank gun (Ger)</t>
   </si>
   <si>
-    <t>M37/38 gun</t>
-  </si>
-  <si>
     <t>7.62cm PAK36(r) . Same image used for 76mm anti-tank gun ZiS</t>
   </si>
   <si>
@@ -3100,9 +3087,6 @@
   </si>
   <si>
     <t>GP0219</t>
-  </si>
-  <si>
-    <t>Panzer IIIj</t>
   </si>
   <si>
     <t>GP0044</t>
@@ -3369,14 +3353,59 @@
     <t>Image depicts a Ferdinand in Kurskaya. GP0043 is also used for Elefant (patch 1.08.08)</t>
   </si>
   <si>
-    <t>11/44 and onwards. Would like a more squad oriented picture, but getting that together with 'Panzer' in one shot is rather a challenge</t>
+    <t xml:space="preserve">4,5-cm PAK 184(r) </t>
+  </si>
+  <si>
+    <t>7.5 cm Pak 97/38</t>
+  </si>
+  <si>
+    <t>12,2 cm K.390/1(r)</t>
+  </si>
+  <si>
+    <t>GP0450</t>
+  </si>
+  <si>
+    <t>** Vanilla **</t>
+  </si>
+  <si>
+    <t>Panzer III Ausf J</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>GP0175</t>
+  </si>
+  <si>
+    <t>GP0170</t>
+  </si>
+  <si>
+    <t>Flakvierling 38.</t>
+  </si>
+  <si>
+    <t>3.7 cm FlaK 36. Same image GP0124 is used for 37mm model (1944 model)</t>
+  </si>
+  <si>
+    <t>StuG IV</t>
+  </si>
+  <si>
+    <t>Image GP0030 is used for both the StuG F and StuGF/8</t>
+  </si>
+  <si>
+    <t>Image represents dual or quad flak, and looks very similar to GP0106. Maybe intended for the image slot of the 37mm 1944 model, now mapped to GP0124? According to the equipment list this is supposed to be a Zwillings-Flak, or dual flak gun</t>
+  </si>
+  <si>
+    <t>Sturm Infanteriegeschütz (sIG) 33B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3411,13 +3440,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3531,7 +3553,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3978,10 +4002,10 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4029,10 +4053,10 @@
         <v>93</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4114,7 +4138,7 @@
         <v>102</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -4195,7 +4219,7 @@
         <v>110</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -4204,10 +4228,10 @@
         <v>111</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4246,7 +4270,7 @@
         <v>115</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -4255,7 +4279,7 @@
         <v>116</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C42" s="2"/>
     </row>
@@ -4273,7 +4297,7 @@
         <v>118</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -4282,7 +4306,7 @@
         <v>119</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -4291,7 +4315,7 @@
         <v>120</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>239</v>
@@ -4302,7 +4326,7 @@
         <v>121</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C47" s="2"/>
     </row>
@@ -4311,7 +4335,7 @@
         <v>122</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -4338,7 +4362,7 @@
         <v>125</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -4365,7 +4389,7 @@
         <v>128</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -4419,10 +4443,10 @@
         <v>132</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4439,10 +4463,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4609,7 +4633,7 @@
         <v>149</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C80" s="2"/>
     </row>
@@ -4639,7 +4663,7 @@
         <v>459</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4843,10 +4867,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C103" s="2"/>
     </row>
@@ -4983,7 +5007,7 @@
         <v>163</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>238</v>
@@ -5104,10 +5128,10 @@
         <v>307</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,7 +5359,7 @@
         <v>285</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C159" s="2"/>
     </row>
@@ -5373,7 +5397,7 @@
         <v>331</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C163" s="2"/>
     </row>
@@ -5391,7 +5415,7 @@
         <v>333</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C165" s="2"/>
     </row>
@@ -5548,7 +5572,7 @@
         <v>340</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C182" s="2"/>
     </row>
@@ -5622,10 +5646,10 @@
         <v>345</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5633,7 +5657,7 @@
         <v>346</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C192" s="2"/>
     </row>
@@ -5642,7 +5666,7 @@
         <v>347</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5650,7 +5674,7 @@
         <v>348</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5658,7 +5682,7 @@
         <v>349</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5666,10 +5690,10 @@
         <v>350</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -5713,10 +5737,10 @@
         <v>354</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -5733,10 +5757,10 @@
         <v>355</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -5762,7 +5786,7 @@
         <v>358</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C206" s="2"/>
     </row>
@@ -5780,7 +5804,7 @@
         <v>360</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C208" s="2"/>
     </row>
@@ -5809,7 +5833,7 @@
         <v>363</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C211" s="2"/>
     </row>
@@ -5836,7 +5860,7 @@
         <v>364</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -5988,7 +6012,7 @@
         <v>217</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6296,7 +6320,7 @@
         <v>581</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -6597,7 +6621,7 @@
         <v>644</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>643</v>
@@ -6810,13 +6834,13 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -6830,1819 +6854,2394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="170.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="170.875" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>663</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>674</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="C4" s="26"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>675</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>865</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>863</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>869</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>866</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>870</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>844</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>855</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>872</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>871</v>
-      </c>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>873</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C10" s="26"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C11" s="26"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>847</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>848</v>
-      </c>
-      <c r="C13" s="26"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>859</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>859</v>
-      </c>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>756</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>758</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>910</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>913</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>914</v>
+      </c>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>840</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>842</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>838</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>904</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>905</v>
+      </c>
+      <c r="D36" s="26"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>907</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>906</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>860</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>862</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>759</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>761</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>762</v>
-      </c>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>913</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>914</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>916</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>917</v>
-      </c>
-      <c r="C22" s="26"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C23" s="26"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C24" s="26"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C25" s="26"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C26" s="26"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C27" s="26"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>843</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>844</v>
-      </c>
-      <c r="C30" s="26"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>845</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="B39" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>895</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D42" s="26"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D45" s="26"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>998</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>996</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="D48" s="26"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>958</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>899</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>900</v>
+      </c>
+      <c r="D50" s="26"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>960</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="D51" s="26"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>962</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>963</v>
+      </c>
+      <c r="D52" s="26"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>736</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="D53" s="26"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>884</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>995</v>
+      </c>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>750</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="C31" s="26"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>841</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>842</v>
-      </c>
-      <c r="C32" s="26"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C33" s="26"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C34" s="26"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C35" s="26"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>907</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>908</v>
-      </c>
-      <c r="C36" s="26"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>910</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>911</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>909</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>864</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>863</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C39" s="26"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>898</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>899</v>
-      </c>
-      <c r="C40" s="26"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C41" s="26"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C42" s="26"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C43" s="26"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C45" s="26"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C46" s="26"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C47" s="26"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C48" s="26"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>963</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>964</v>
-      </c>
-      <c r="C49" s="26"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>902</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>903</v>
-      </c>
-      <c r="C50" s="26"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>965</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>966</v>
-      </c>
-      <c r="C51" s="26"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>967</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>968</v>
-      </c>
-      <c r="C52" s="26"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>737</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="C53" s="26"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>887</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C54" s="26"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>752</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>700</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>754</v>
-      </c>
-      <c r="C56" s="26" t="s">
+      <c r="B56" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="D56" s="26" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>872</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="D57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>873</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="D58" s="26"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>876</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>885</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>886</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>887</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="D62" s="26"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>744</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="D63" s="26"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>746</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="D64" s="26"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>748</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="D65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>847</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>878</v>
       </c>
-      <c r="C57" s="26"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>876</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>877</v>
-      </c>
-      <c r="C58" s="26"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B67" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>880</v>
-      </c>
-      <c r="C59" s="26"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>888</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>991</v>
-      </c>
-      <c r="C60" s="26"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>889</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>990</v>
-      </c>
-      <c r="C61" s="26"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>890</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>969</v>
-      </c>
-      <c r="C62" s="26"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>745</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="C63" s="26"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>747</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="C64" s="26"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>749</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>750</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>850</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>851</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>881</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>882</v>
-      </c>
-      <c r="C67" s="26"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="26"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>693</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="C68" s="26"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="26"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>695</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="C69" s="26"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="26"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>802</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="D70" s="26"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>804</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="D71" s="27" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>806</v>
       </c>
-      <c r="C70" s="26"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B72" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="B71" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>809</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>810</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="26" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>712</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="D73" s="26" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>705</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="D74" s="26" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>722</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="D75" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="C75" s="26" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>719</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="D76" s="26" t="s">
         <v>721</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>689</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="D77" s="26" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>691</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="C78" s="27" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="27" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>811</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>818</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>776</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="C80" s="26"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="D80" s="26"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>772</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>778</v>
-      </c>
-      <c r="C81" s="26"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="26"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>668</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>669</v>
       </c>
-      <c r="C82" s="26"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>771</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="C83" s="26"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="D83" s="26"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>812</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>938</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>672</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="C85" s="26"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="26"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>773</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="C86" s="26"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="D86" s="26"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>813</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>939</v>
-      </c>
-      <c r="C87" s="26"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="D87" s="26"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>781</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>782</v>
-      </c>
-      <c r="C88" s="26"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="D88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>670</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C89" s="19" t="s">
         <v>671</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="D89" s="26" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>678</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="C90" s="26"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="26"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>883</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>970</v>
-      </c>
-      <c r="C91" s="26"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="D91" s="26"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>702</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="D92" s="26" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>884</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>919</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>717</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C94" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="B94" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="C94" s="26"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="26"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>680</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C95" s="19" t="s">
         <v>681</v>
       </c>
-      <c r="C95" s="26"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="26"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>683</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C96" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="C96" s="26" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="26" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>779</v>
-      </c>
-      <c r="B97" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="D97" s="26"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>882</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="D98" s="26"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>738</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="D99" s="26"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>781</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="D100" s="26"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>883</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="D101" s="26"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>739</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="D102" s="26"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>780</v>
       </c>
-      <c r="C97" s="26"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>885</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>940</v>
-      </c>
-      <c r="C98" s="26"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>739</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>797</v>
-      </c>
-      <c r="C99" s="26"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>784</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>796</v>
-      </c>
-      <c r="C100" s="26"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>886</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>937</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>740</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>795</v>
-      </c>
-      <c r="C102" s="26"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>783</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="C103" s="26"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="D103" s="26"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>891</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>935</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>892</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>934</v>
-      </c>
-      <c r="C105" s="26"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="D105" s="26"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>743</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>793</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>715</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="C107" s="26" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="28" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>893</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>971</v>
-      </c>
-      <c r="C108" s="26"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="D108" s="26"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>767</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>765</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>763</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>708</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>791</v>
-      </c>
-      <c r="C111" s="26" t="s">
+      <c r="B111" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="D111" s="26" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>894</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>962</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>710</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>790</v>
-      </c>
-      <c r="C113" s="26" t="s">
+      <c r="B113" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="D113" s="26" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>731</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C114" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="D114" s="26" t="s">
         <v>733</v>
       </c>
-      <c r="C114" s="26" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>918</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="D115" s="26"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>919</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>923</v>
+      </c>
+      <c r="D116" s="26"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>920</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="D117" s="28"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>921</v>
       </c>
-      <c r="B115" s="24" t="s">
-        <v>941</v>
-      </c>
-      <c r="C115" s="26"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B118" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>967</v>
+      </c>
+      <c r="D118" s="26"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>922</v>
       </c>
-      <c r="B116" s="19" t="s">
-        <v>926</v>
-      </c>
-      <c r="C116" s="26"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>923</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>927</v>
-      </c>
-      <c r="C117" s="28"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>924</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>972</v>
-      </c>
-      <c r="C118" s="26"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>925</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="C119" s="26"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="D119" s="26"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>769</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>787</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>788</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>895</v>
-      </c>
-      <c r="B122" s="24" t="s">
-        <v>957</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>800</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>798</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>799</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>755</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>896</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>918</v>
-      </c>
-      <c r="C126" s="26"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="D126" s="26"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>854</v>
-      </c>
-      <c r="B127" s="22" t="s">
-        <v>855</v>
-      </c>
-      <c r="C127" s="26"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="D127" s="26"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>740</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="B128" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="C128" s="26"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="26"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>665</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="B129" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C129" s="19" t="s">
         <v>699</v>
       </c>
-      <c r="C129" s="26"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="26"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>686</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C130" s="19" t="s">
         <v>687</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="D130" s="26" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>728</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="D131" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="C131" s="26" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>894</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>782</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="D133" s="26"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="26"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>925</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="D135" s="26"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>927</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="D136" s="26"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="26"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D138" s="26"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>800</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>799</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>821</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>993</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="D142" s="26"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D143" s="26"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="26"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>968</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>969</v>
+      </c>
+      <c r="D145" s="26"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>970</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>971</v>
+      </c>
+      <c r="D146" s="26"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="26"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>901</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>902</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>897</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="B149" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>898</v>
+      </c>
+      <c r="D149" s="26"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>991</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>992</v>
+      </c>
+      <c r="D150" s="26"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D151" s="26"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="26"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>972</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="D153" s="26"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="26"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>946</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="D155" s="26"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="26"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>983</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="D157" s="26"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="26"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>948</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>725</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="26"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>944</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C162" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="26"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>955</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="D164" s="26" t="s">
         <v>956</v>
       </c>
-      <c r="C132" s="26" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>785</v>
-      </c>
-      <c r="B133" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="C133" s="26"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="26"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>928</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>929</v>
-      </c>
-      <c r="C135" s="26"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>930</v>
-      </c>
-      <c r="B136" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="C136" s="26"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="26"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>803</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>802</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>824</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>825</v>
-      </c>
-      <c r="C140" s="26" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>998</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>999</v>
-      </c>
-      <c r="C141" s="26"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="26"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>973</v>
-      </c>
-      <c r="B143" s="21" t="s">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="26"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>941</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C166" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="D166" s="27" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>939</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="26"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D169" s="26"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D170" s="26"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D171" s="26"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D172" s="26"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C173" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D173" s="26"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D174" s="26"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D176" s="26"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D177" s="26"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>989</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="D178" s="26"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="26"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>697</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="D180" s="26"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="26"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>974</v>
       </c>
-      <c r="C143" s="26"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B182" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D182" s="26"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D183" s="26"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="26"/>
+    </row>
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D185" s="30" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="26"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>981</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="D187" s="26"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>979</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>980</v>
+      </c>
+      <c r="D188" s="26"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>975</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="B189" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C189" s="24" t="s">
         <v>976</v>
       </c>
-      <c r="C144" s="26"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="26"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>904</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>905</v>
-      </c>
-      <c r="C146" s="26" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>900</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>901</v>
-      </c>
-      <c r="C147" s="26"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>996</v>
-      </c>
-      <c r="B148" s="24" t="s">
-        <v>997</v>
-      </c>
-      <c r="C148" s="26"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C149" s="26"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="26"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="D189" s="26"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>813</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="D190" s="26"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>811</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="D191" s="26"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="26"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>850</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="D193" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C194" s="22"/>
+      <c r="D194" s="26"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>987</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>988</v>
+      </c>
+      <c r="D195" s="26"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>977</v>
       </c>
-      <c r="B151" s="21" t="s">
+      <c r="B196" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C196" s="24" t="s">
         <v>978</v>
       </c>
-      <c r="C151" s="26"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="26"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>950</v>
-      </c>
-      <c r="B153" s="24" t="s">
-        <v>951</v>
-      </c>
-      <c r="C153" s="26"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="26"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>988</v>
-      </c>
-      <c r="B155" s="21" t="s">
-        <v>989</v>
-      </c>
-      <c r="C155" s="26"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="26"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>952</v>
-      </c>
-      <c r="B157" s="21" t="s">
-        <v>953</v>
-      </c>
-      <c r="C157" s="26" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>726</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="C158" s="26" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="26"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>947</v>
-      </c>
-      <c r="B160" s="21" t="s">
-        <v>948</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="26"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>960</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>724</v>
-      </c>
-      <c r="C162" s="26" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="26"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>944</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>945</v>
-      </c>
-      <c r="C164" s="27" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>942</v>
-      </c>
-      <c r="B165" s="21" t="s">
-        <v>943</v>
-      </c>
-      <c r="C165" s="26"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="26"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B167" s="24" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C167" s="26"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B168" s="24" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C168" s="26"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B169" s="24" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C169" s="26"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B170" s="24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C170" s="26"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B171" s="24" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C171" s="26"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B172" s="24" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C172" s="26"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C173" s="26" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B174" s="21" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C174" s="26"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B175" s="21" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C175" s="26"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>994</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>995</v>
-      </c>
-      <c r="C176" s="26"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="26"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>697</v>
-      </c>
-      <c r="B178" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="C178" s="26"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="26"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>979</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C180" s="26"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B181" s="21" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C181" s="26"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="26"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>986</v>
-      </c>
-      <c r="B183" s="21" t="s">
-        <v>987</v>
-      </c>
-      <c r="C183" s="26"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>984</v>
-      </c>
-      <c r="B184" s="21" t="s">
-        <v>985</v>
-      </c>
-      <c r="C184" s="26"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>980</v>
-      </c>
-      <c r="B185" s="21" t="s">
-        <v>981</v>
-      </c>
-      <c r="C185" s="26"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>816</v>
-      </c>
-      <c r="B186" s="19" t="s">
-        <v>817</v>
-      </c>
-      <c r="C186" s="26"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>814</v>
-      </c>
-      <c r="B187" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="C187" s="26"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="26"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>853</v>
-      </c>
-      <c r="B189" s="22" t="s">
-        <v>856</v>
-      </c>
-      <c r="C189" s="26" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="22"/>
-      <c r="C190" s="26"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>992</v>
-      </c>
-      <c r="B191" s="21" t="s">
-        <v>993</v>
-      </c>
-      <c r="C191" s="26"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>982</v>
-      </c>
-      <c r="B192" s="21" t="s">
-        <v>983</v>
-      </c>
-      <c r="C192" s="26"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="26"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="D196" s="26"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="26"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>666</v>
       </c>
-      <c r="B194" s="19" t="s">
+      <c r="B198" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C198" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="C194" s="28"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="26"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="D198" s="28"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="26"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>684</v>
       </c>
-      <c r="B196" s="22" t="s">
+      <c r="B200" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C200" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="C196" s="26"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="26"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="26"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="26"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="26"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="26"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="26"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="26"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="26"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C205" s="26"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="26"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="26"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C208" s="26"/>
+      <c r="D200" s="26"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="26"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="26"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="26"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="26"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="26"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="26"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="26"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="26"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="26"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="26"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="26"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
